--- a/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="8_{1C435AF8-A74F-4E94-BBF5-72A75A3D08EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B3586B2-411B-46F3-9AAE-147E65AEE546}"/>
+  <xr:revisionPtr revIDLastSave="365" documentId="8_{1C435AF8-A74F-4E94-BBF5-72A75A3D08EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B862F27B-2F64-4E07-B459-219A845D2E1B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fastener List'!$A$7:$K$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$7:$K$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$7:$K$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{B4E9D9E5-3AB0-4E10-AA68-1A064859F102}">
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{B4E9D9E5-3AB0-4E10-AA68-1A064859F102}">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{C0C2ED24-C03E-4F52-96F4-0C8F7427CDB5}">
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{C0C2ED24-C03E-4F52-96F4-0C8F7427CDB5}">
       <text>
         <r>
           <rPr>
@@ -175,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L27" authorId="0" shapeId="0" xr:uid="{AECD0478-11D5-450E-9BFF-EC30AF4BED18}">
+    <comment ref="L28" authorId="0" shapeId="0" xr:uid="{AECD0478-11D5-450E-9BFF-EC30AF4BED18}">
       <text>
         <r>
           <rPr>
@@ -199,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J34" authorId="0" shapeId="0" xr:uid="{25AA0129-6A08-448A-ADCA-B3DC564D3D53}">
+    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{25AA0129-6A08-448A-ADCA-B3DC564D3D53}">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J42" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="J43" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="287">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -929,9 +929,6 @@
     <t>dht22</t>
   </si>
   <si>
-    <t>RepRap ONLY- 1x Humidity Sensor</t>
-  </si>
-  <si>
     <t>1x 200PCS Size: 6.5x5x1mm</t>
   </si>
   <si>
@@ -1176,18 +1173,28 @@
   </si>
   <si>
     <t>Ø20 Washer Magnet Catch</t>
+  </si>
+  <si>
+    <t>Corner Plate 90deg</t>
+  </si>
+  <si>
+    <t>1x 5pcs 2020 5 holes</t>
+  </si>
+  <si>
+    <t>RRF ONLY- 1x Humidity Sensor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
     <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="174" formatCode="[$$-409]#,##0"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1581,7 +1588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1699,9 +1706,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1722,7 +1726,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1757,6 +1760,13 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1909,13 +1919,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="medium">
           <color rgb="FF000000"/>
@@ -1932,6 +1935,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2271,8 +2281,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A7:L56" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
-  <autoFilter ref="A7:L56" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A7:L57" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+  <autoFilter ref="A7:L57" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="25"/>
@@ -2292,7 +2302,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDA70DC8-5656-44D6-9B78-AAECA636E92E}" name="Table13" displayName="Table13" ref="A7:K50" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDA70DC8-5656-44D6-9B78-AAECA636E92E}" name="Table13" displayName="Table13" ref="A7:K50" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="A7:K50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:K50">
     <sortCondition ref="B8:B50"/>
@@ -2515,9 +2525,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -2539,20 +2549,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27">
-      <c r="A1" s="73" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
+      <c r="A1" s="103" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -2587,29 +2597,29 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="79" t="s">
+      <c r="C6" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81">
-        <f>I57</f>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="80">
+        <f>I58</f>
         <v>1955.85</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="97"/>
-    </row>
-    <row r="7" spans="1:12" s="104" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="J6" s="78"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="95"/>
+    </row>
+    <row r="7" spans="1:12" s="102" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="A7" s="58" t="s">
         <v>6</v>
       </c>
@@ -2647,7 +2657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="75" customFormat="1">
+    <row r="8" spans="1:12" s="74" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
@@ -2680,10 +2690,10 @@
         <v>24</v>
       </c>
       <c r="L8" s="44" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="75" customFormat="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="74" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -2710,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="65">
-        <f t="shared" ref="I9:I26" si="0">H9*G9</f>
+        <f t="shared" ref="I9:I27" si="0">H9*G9</f>
         <v>9.5</v>
       </c>
       <c r="J9" s="43"/>
@@ -2721,7 +2731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="75" customFormat="1">
+    <row r="10" spans="1:12" s="74" customFormat="1">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -2758,7 +2768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="75" customFormat="1">
+    <row r="11" spans="1:12" s="74" customFormat="1">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -2795,7 +2805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="75" customFormat="1">
+    <row r="12" spans="1:12" s="74" customFormat="1">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -2832,7 +2842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="75" customFormat="1">
+    <row r="13" spans="1:12" s="74" customFormat="1">
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
@@ -2864,47 +2874,45 @@
         <v>24</v>
       </c>
       <c r="L13" s="43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="75" customFormat="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="74" customFormat="1">
       <c r="A14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="9">
-        <v>350</v>
-      </c>
-      <c r="F14" s="19">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="12">
+        <v>4</v>
       </c>
       <c r="G14" s="13">
-        <v>15.6</v>
-      </c>
-      <c r="H14" s="19">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
       </c>
       <c r="I14" s="65">
-        <f>H14*G14</f>
-        <v>46.8</v>
-      </c>
-      <c r="J14" s="45"/>
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="104"/>
       <c r="K14" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="50" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="75" customFormat="1">
+        <v>24</v>
+      </c>
+      <c r="L14" s="104" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="74" customFormat="1">
       <c r="A15" s="8" t="s">
         <v>46</v>
       </c>
@@ -2915,33 +2923,33 @@
         <v>157</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" s="9">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="F15" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="13">
-        <v>17.5</v>
+        <v>15.6</v>
       </c>
       <c r="H15" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="65">
         <f>H15*G15</f>
-        <v>35</v>
-      </c>
-      <c r="J15" s="43"/>
+        <v>46.8</v>
+      </c>
+      <c r="J15" s="45"/>
       <c r="K15" s="47" t="s">
         <v>66</v>
       </c>
       <c r="L15" s="50" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="75" customFormat="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="74" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
@@ -2952,178 +2960,179 @@
         <v>157</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="9">
         <v>400</v>
       </c>
       <c r="F16" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="13">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="H16" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="65">
         <f>H16*G16</f>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J16" s="43"/>
       <c r="K16" s="47" t="s">
         <v>66</v>
       </c>
       <c r="L16" s="50" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="75" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A17" s="32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="74" customFormat="1">
+      <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="9">
+        <v>400</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <v>16</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="65">
+        <f>H17*G17</f>
+        <v>16</v>
+      </c>
+      <c r="J17" s="43"/>
+      <c r="K17" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="74" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C18" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D18" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34">
+        <v>1</v>
+      </c>
+      <c r="G18" s="35">
+        <v>500</v>
+      </c>
+      <c r="H18" s="34">
+        <v>1</v>
+      </c>
+      <c r="I18" s="67">
+        <f t="shared" ref="I18" si="1">H18*G18</f>
+        <v>500</v>
+      </c>
+      <c r="J18" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34">
-        <v>1</v>
-      </c>
-      <c r="G17" s="35">
-        <v>500</v>
-      </c>
-      <c r="H17" s="34">
-        <v>1</v>
-      </c>
-      <c r="I17" s="67">
-        <f t="shared" ref="I17" si="1">H17*G17</f>
-        <v>500</v>
-      </c>
-      <c r="J17" s="46" t="s">
+      <c r="K18" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" spans="1:12" s="74" customFormat="1">
+      <c r="A19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="9">
+        <v>410</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
+        <v>20</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+      <c r="I19" s="65">
+        <f>H19*G19</f>
+        <v>20</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" s="74" customFormat="1">
+      <c r="A20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="9">
         <v>230</v>
       </c>
-      <c r="K17" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="46"/>
-    </row>
-    <row r="18" spans="1:12" s="75" customFormat="1">
-      <c r="A18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="9">
-        <v>410</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13">
-        <v>20</v>
-      </c>
-      <c r="H18" s="12">
-        <v>1</v>
-      </c>
-      <c r="I18" s="65">
-        <f>H18*G18</f>
-        <v>20</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" spans="1:12" s="75" customFormat="1">
-      <c r="A19" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="E19" s="9">
-        <v>230</v>
-      </c>
-      <c r="F19" s="12">
+      <c r="F20" s="12">
         <v>4</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <v>17.5</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H20" s="12">
         <v>2</v>
       </c>
-      <c r="I19" s="65">
+      <c r="I20" s="65">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="J19" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="K19" s="76" t="s">
+      <c r="J20" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="K20" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="1:12" s="75" customFormat="1">
-      <c r="A20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="9">
-        <v>350</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1225</v>
-      </c>
-      <c r="G20" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="H20" s="12">
-        <v>1225</v>
-      </c>
-      <c r="I20" s="65">
-        <v>104</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="L20" s="24"/>
     </row>
-    <row r="21" spans="1:12" s="75" customFormat="1">
+    <row r="21" spans="1:12" s="74" customFormat="1">
       <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
@@ -3131,250 +3140,249 @@
         <v>21</v>
       </c>
       <c r="C21" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="9">
+        <v>350</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1225</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1225</v>
+      </c>
+      <c r="I21" s="65">
+        <v>104</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" s="74" customFormat="1">
+      <c r="A22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="D22" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" s="9">
         <v>330</v>
       </c>
-      <c r="F21" s="12">
-        <v>1</v>
-      </c>
-      <c r="G21" s="13">
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13">
         <v>46</v>
       </c>
-      <c r="H21" s="12">
-        <v>1</v>
-      </c>
-      <c r="I21" s="65">
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+      <c r="I22" s="65">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="J21" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="K21" s="15" t="s">
+      <c r="J22" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="50" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="75" customFormat="1">
-      <c r="A22" s="8" t="s">
+      <c r="L22" s="50" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="74" customFormat="1">
+      <c r="A23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C23" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="12">
+      <c r="E23" s="9"/>
+      <c r="F23" s="12">
         <v>5</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>1.2</v>
       </c>
-      <c r="H22" s="12">
-        <v>1</v>
-      </c>
-      <c r="I22" s="65">
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+      <c r="I23" s="65">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J23" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="24"/>
-    </row>
-    <row r="23" spans="1:12" s="75" customFormat="1">
-      <c r="A23" s="8" t="s">
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" s="74" customFormat="1">
+      <c r="A24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C24" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="12">
+      <c r="E24" s="9"/>
+      <c r="F24" s="12">
         <v>12</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <v>3</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H24" s="12">
         <v>3</v>
       </c>
-      <c r="I23" s="65">
+      <c r="I24" s="65">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J24" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K24" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="24"/>
-    </row>
-    <row r="24" spans="1:12" s="75" customFormat="1">
-      <c r="A24" s="8" t="s">
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" s="74" customFormat="1">
+      <c r="A25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C25" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="12">
+      <c r="E25" s="9"/>
+      <c r="F25" s="12">
         <v>6</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="13">
         <v>3</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H25" s="12">
         <v>2</v>
       </c>
-      <c r="I24" s="65">
+      <c r="I25" s="65">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K25" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="24"/>
-    </row>
-    <row r="25" spans="1:12" s="75" customFormat="1">
-      <c r="A25" s="8" t="s">
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" s="74" customFormat="1">
+      <c r="A26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C26" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="12">
+      <c r="E26" s="9"/>
+      <c r="F26" s="12">
         <v>3</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>3</v>
       </c>
-      <c r="H25" s="12">
-        <v>1</v>
-      </c>
-      <c r="I25" s="65">
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
+      <c r="I26" s="65">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="24"/>
-    </row>
-    <row r="26" spans="1:12" s="75" customFormat="1">
-      <c r="A26" s="8" t="s">
+      <c r="L26" s="24"/>
+    </row>
+    <row r="27" spans="1:12" s="74" customFormat="1">
+      <c r="A27" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C27" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9">
         <v>6</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>7.5</v>
       </c>
-      <c r="H26" s="12">
-        <v>1</v>
-      </c>
-      <c r="I26" s="65">
+      <c r="H27" s="12">
+        <v>1</v>
+      </c>
+      <c r="I27" s="65">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K27" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="L26" s="24"/>
-    </row>
-    <row r="27" spans="1:12" s="75" customFormat="1">
-      <c r="A27" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="19">
-        <v>1</v>
-      </c>
-      <c r="G27" s="13">
-        <v>145</v>
-      </c>
-      <c r="H27" s="19">
-        <v>1</v>
-      </c>
-      <c r="I27" s="65">
-        <f>H27*G27</f>
-        <v>145</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L27" s="50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="75" customFormat="1">
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="1:12" s="74" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>111</v>
       </c>
@@ -3382,34 +3390,36 @@
         <v>112</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>261</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="19">
         <v>1</v>
       </c>
       <c r="G28" s="13">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="H28" s="19">
         <v>1</v>
       </c>
       <c r="I28" s="65">
-        <f>H28*G28</f>
-        <v>23</v>
+        <f t="shared" ref="I28:I51" si="2">H28*G28</f>
+        <v>145</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" spans="1:12" s="75" customFormat="1">
+        <v>114</v>
+      </c>
+      <c r="L28" s="50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="74" customFormat="1">
       <c r="A29" s="8" t="s">
         <v>111</v>
       </c>
@@ -3417,34 +3427,34 @@
         <v>112</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="19">
         <v>1</v>
       </c>
       <c r="G29" s="13">
-        <v>7.5</v>
+        <v>23</v>
       </c>
       <c r="H29" s="19">
         <v>1</v>
       </c>
       <c r="I29" s="65">
-        <f>H29*G29</f>
-        <v>7.5</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="1:12" s="75" customFormat="1">
+    <row r="30" spans="1:12" s="74" customFormat="1">
       <c r="A30" s="8" t="s">
         <v>111</v>
       </c>
@@ -3452,38 +3462,34 @@
         <v>112</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="E30" s="9">
-        <v>300</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="9"/>
       <c r="F30" s="19">
         <v>1</v>
       </c>
       <c r="G30" s="13">
-        <v>78.39</v>
+        <v>7.5</v>
       </c>
       <c r="H30" s="19">
         <v>1</v>
       </c>
       <c r="I30" s="65">
-        <f>H30*G30</f>
-        <v>78.39</v>
-      </c>
-      <c r="J30" s="95" t="s">
-        <v>263</v>
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="L30" s="50" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="75" customFormat="1">
+        <v>122</v>
+      </c>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="1:12" s="74" customFormat="1">
       <c r="A31" s="8" t="s">
         <v>111</v>
       </c>
@@ -3491,71 +3497,75 @@
         <v>112</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="E31" s="9">
+        <v>300</v>
+      </c>
       <c r="F31" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" s="13">
-        <v>26</v>
+        <v>78.39</v>
       </c>
       <c r="H31" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="65">
-        <f>H31*G31</f>
-        <v>52</v>
-      </c>
-      <c r="J31" s="96" t="s">
-        <v>264</v>
+        <f t="shared" si="2"/>
+        <v>78.39</v>
+      </c>
+      <c r="J31" s="93" t="s">
+        <v>262</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="L31" s="50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="75" customFormat="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="74" customFormat="1">
       <c r="A32" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32" s="13">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H32" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="65">
-        <f>H32*G32</f>
-        <v>15</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>129</v>
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="J32" s="94" t="s">
+        <v>263</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L32" s="24"/>
-    </row>
-    <row r="33" spans="1:12" s="75" customFormat="1">
+        <v>143</v>
+      </c>
+      <c r="L32" s="50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="74" customFormat="1">
       <c r="A33" s="8" t="s">
         <v>126</v>
       </c>
@@ -3563,106 +3573,106 @@
         <v>112</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>209</v>
+        <v>127</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="19">
         <v>1</v>
       </c>
       <c r="G33" s="13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H33" s="19">
         <v>1</v>
       </c>
       <c r="I33" s="65">
-        <f>H33*G33</f>
-        <v>2</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="K33" s="76" t="s">
-        <v>265</v>
-      </c>
-      <c r="L33" s="50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="75" customFormat="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="1:12" s="74" customFormat="1">
       <c r="A34" s="8" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>256</v>
+        <v>208</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="19">
         <v>1</v>
       </c>
       <c r="G34" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="19">
         <v>1</v>
       </c>
       <c r="I34" s="65">
-        <f>H34*G34</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="L34" s="24"/>
-    </row>
-    <row r="35" spans="1:12" s="75" customFormat="1">
+        <v>210</v>
+      </c>
+      <c r="K34" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="L34" s="50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="74" customFormat="1">
       <c r="A35" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="19">
         <v>1</v>
       </c>
       <c r="G35" s="13">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="H35" s="19">
         <v>1</v>
       </c>
       <c r="I35" s="65">
-        <f>H35*G35</f>
-        <v>40</v>
-      </c>
-      <c r="J35" s="96" t="s">
-        <v>267</v>
-      </c>
-      <c r="K35" s="76" t="s">
-        <v>143</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="L35" s="24"/>
     </row>
-    <row r="36" spans="1:12" s="75" customFormat="1">
+    <row r="36" spans="1:12" s="74" customFormat="1">
       <c r="A36" s="8" t="s">
         <v>126</v>
       </c>
@@ -3670,34 +3680,34 @@
         <v>132</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>249</v>
+        <v>133</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>265</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="19">
         <v>1</v>
       </c>
       <c r="G36" s="13">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="H36" s="19">
         <v>1</v>
       </c>
       <c r="I36" s="65">
-        <f>H36*G36</f>
-        <v>13.5</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="K36" s="76" t="s">
-        <v>122</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J36" s="94" t="s">
+        <v>266</v>
+      </c>
+      <c r="K36" s="75" t="s">
+        <v>143</v>
       </c>
       <c r="L36" s="24"/>
     </row>
-    <row r="37" spans="1:12" s="75" customFormat="1">
+    <row r="37" spans="1:12" s="74" customFormat="1">
       <c r="A37" s="8" t="s">
         <v>126</v>
       </c>
@@ -3705,69 +3715,69 @@
         <v>132</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>268</v>
+        <v>247</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>248</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="19">
         <v>1</v>
       </c>
       <c r="G37" s="13">
-        <v>80</v>
+        <v>13.5</v>
       </c>
       <c r="H37" s="19">
         <v>1</v>
       </c>
       <c r="I37" s="65">
-        <f>H37*G37</f>
-        <v>80</v>
-      </c>
-      <c r="J37" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>135</v>
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="K37" s="75" t="s">
+        <v>122</v>
       </c>
       <c r="L37" s="24"/>
     </row>
-    <row r="38" spans="1:12" s="75" customFormat="1">
+    <row r="38" spans="1:12" s="74" customFormat="1">
       <c r="A38" s="8" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>138</v>
+        <v>132</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G38" s="13">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="H38" s="19">
         <v>1</v>
       </c>
       <c r="I38" s="65">
-        <f>H38*G38</f>
-        <v>59</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>139</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J38" s="92" t="s">
+        <v>134</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L38" s="24"/>
     </row>
-    <row r="39" spans="1:12" s="75" customFormat="1">
+    <row r="39" spans="1:12" s="74" customFormat="1">
       <c r="A39" s="8" t="s">
         <v>46</v>
       </c>
@@ -3775,34 +3785,34 @@
         <v>136</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="13">
-        <v>4.0999999999999996</v>
+        <v>59</v>
       </c>
       <c r="H39" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I39" s="65">
-        <f>H39*G39</f>
-        <v>41</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>142</v>
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="L39" s="24"/>
     </row>
-    <row r="40" spans="1:12" s="75" customFormat="1">
+    <row r="40" spans="1:12" s="74" customFormat="1">
       <c r="A40" s="8" t="s">
         <v>46</v>
       </c>
@@ -3813,31 +3823,31 @@
         <v>140</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G40" s="13">
-        <v>6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H40" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I40" s="65">
-        <f>H40*G40</f>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>41</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K40" s="15" t="s">
         <v>143</v>
       </c>
       <c r="L40" s="24"/>
     </row>
-    <row r="41" spans="1:12" s="75" customFormat="1">
+    <row r="41" spans="1:12" s="74" customFormat="1">
       <c r="A41" s="8" t="s">
         <v>46</v>
       </c>
@@ -3845,34 +3855,34 @@
         <v>136</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="19">
         <v>5</v>
       </c>
       <c r="G41" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H41" s="19">
         <v>5</v>
       </c>
       <c r="I41" s="65">
-        <f>H41*G41</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K41" s="15" t="s">
         <v>143</v>
       </c>
       <c r="L41" s="24"/>
     </row>
-    <row r="42" spans="1:12" s="75" customFormat="1">
+    <row r="42" spans="1:12" s="74" customFormat="1">
       <c r="A42" s="8" t="s">
         <v>46</v>
       </c>
@@ -3880,36 +3890,34 @@
         <v>136</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E42" s="9">
-        <v>200</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E42" s="9"/>
       <c r="F42" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G42" s="13">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H42" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I42" s="65">
-        <f>H42*G42</f>
-        <v>48</v>
-      </c>
-      <c r="J42" s="14" t="s">
-        <v>151</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="L42" s="24"/>
     </row>
-    <row r="43" spans="1:12" s="75" customFormat="1">
+    <row r="43" spans="1:12" s="74" customFormat="1">
       <c r="A43" s="8" t="s">
         <v>46</v>
       </c>
@@ -3917,94 +3925,96 @@
         <v>136</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="9">
+        <v>200</v>
+      </c>
+      <c r="F43" s="19">
+        <v>3</v>
+      </c>
+      <c r="G43" s="13">
+        <v>16</v>
+      </c>
+      <c r="H43" s="19">
+        <v>3</v>
+      </c>
+      <c r="I43" s="65">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L43" s="24"/>
+    </row>
+    <row r="44" spans="1:12" s="74" customFormat="1">
+      <c r="A44" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D44" s="18" t="s">
         <v>154</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="19">
-        <v>5</v>
-      </c>
-      <c r="G43" s="13">
-        <v>14.5</v>
-      </c>
-      <c r="H43" s="19">
-        <v>5</v>
-      </c>
-      <c r="I43" s="65">
-        <f>H43*G43</f>
-        <v>72.5</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="L43" s="25"/>
-    </row>
-    <row r="44" spans="1:12" s="75" customFormat="1">
-      <c r="A44" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>221</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="19">
         <v>5</v>
       </c>
       <c r="G44" s="13">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="H44" s="19">
         <v>5</v>
       </c>
       <c r="I44" s="65">
-        <f>H44*G44</f>
-        <v>60</v>
+        <f t="shared" si="2"/>
+        <v>72.5</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L44" s="25"/>
     </row>
-    <row r="45" spans="1:12" s="75" customFormat="1">
+    <row r="45" spans="1:12" s="74" customFormat="1">
       <c r="A45" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>204</v>
+        <v>164</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="19">
         <v>5</v>
       </c>
       <c r="G45" s="13">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H45" s="19">
         <v>5</v>
       </c>
       <c r="I45" s="65">
-        <f>H45*G45</f>
-        <v>125</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="J45" s="17" t="s">
         <v>161</v>
@@ -4014,116 +4024,116 @@
       </c>
       <c r="L45" s="25"/>
     </row>
-    <row r="46" spans="1:12" s="75" customFormat="1">
+    <row r="46" spans="1:12" s="74" customFormat="1">
       <c r="A46" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="22" t="s">
-        <v>233</v>
+      <c r="C46" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="E46" s="9">
-        <v>300</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E46" s="9"/>
       <c r="F46" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G46" s="13">
         <v>25</v>
       </c>
       <c r="H46" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I46" s="65">
-        <f>H46*G46</f>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>125</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="K46" s="15" t="s">
         <v>161</v>
       </c>
       <c r="L46" s="25"/>
     </row>
-    <row r="47" spans="1:12" s="75" customFormat="1">
+    <row r="47" spans="1:12" s="74" customFormat="1">
       <c r="A47" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>233</v>
       </c>
       <c r="E47" s="9">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F47" s="19">
         <v>2</v>
       </c>
       <c r="G47" s="13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H47" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="65">
-        <f>H47*G47</f>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="L47" s="25"/>
     </row>
-    <row r="48" spans="1:12" s="75" customFormat="1">
+    <row r="48" spans="1:12" s="74" customFormat="1">
       <c r="A48" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E48" s="9"/>
+        <v>168</v>
+      </c>
+      <c r="E48" s="9">
+        <v>400</v>
+      </c>
       <c r="F48" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="13">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H48" s="19">
         <v>1</v>
       </c>
       <c r="I48" s="65">
-        <f>H48*G48</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="L48" s="25"/>
     </row>
-    <row r="49" spans="1:12" s="75" customFormat="1">
+    <row r="49" spans="1:12" s="74" customFormat="1">
       <c r="A49" s="8" t="s">
         <v>167</v>
       </c>
@@ -4131,34 +4141,34 @@
         <v>112</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="19">
         <v>1</v>
       </c>
       <c r="G49" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H49" s="19">
         <v>1</v>
       </c>
       <c r="I49" s="65">
-        <f>H49*G49</f>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="L49" s="25"/>
     </row>
-    <row r="50" spans="1:12" s="75" customFormat="1">
+    <row r="50" spans="1:12" s="74" customFormat="1">
       <c r="A50" s="8" t="s">
         <v>167</v>
       </c>
@@ -4166,10 +4176,10 @@
         <v>112</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="19">
@@ -4182,18 +4192,18 @@
         <v>1</v>
       </c>
       <c r="I50" s="65">
-        <f>H50*G50</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="1:12" s="75" customFormat="1">
+    <row r="51" spans="1:12" s="74" customFormat="1">
       <c r="A51" s="8" t="s">
         <v>167</v>
       </c>
@@ -4201,223 +4211,258 @@
         <v>112</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="19">
         <v>1</v>
       </c>
       <c r="G51" s="13">
+        <v>12</v>
+      </c>
+      <c r="H51" s="19">
+        <v>1</v>
+      </c>
+      <c r="I51" s="65">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="L51" s="25"/>
+    </row>
+    <row r="52" spans="1:12" s="74" customFormat="1">
+      <c r="A52" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="19">
+        <v>1</v>
+      </c>
+      <c r="G52" s="13">
         <f>(3+0.96)</f>
         <v>3.96</v>
       </c>
-      <c r="H51" s="19">
-        <v>1</v>
-      </c>
-      <c r="I51" s="65">
-        <f t="shared" ref="I51:I54" si="2">H51*G51</f>
+      <c r="H52" s="19">
+        <v>1</v>
+      </c>
+      <c r="I52" s="65">
+        <f t="shared" ref="I52:I55" si="3">H52*G52</f>
         <v>3.96</v>
       </c>
-      <c r="J51" s="14" t="s">
+      <c r="J52" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="K51" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="L51" s="25"/>
-    </row>
-    <row r="52" spans="1:12" s="75" customFormat="1">
-      <c r="A52" s="8" t="s">
+      <c r="K52" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="L52" s="25"/>
+    </row>
+    <row r="53" spans="1:12" s="74" customFormat="1">
+      <c r="A53" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D53" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="19">
-        <v>1</v>
-      </c>
-      <c r="G52" s="13">
+      <c r="E53" s="9"/>
+      <c r="F53" s="19">
+        <v>1</v>
+      </c>
+      <c r="G53" s="13">
         <f>3.11+1.67</f>
         <v>4.7799999999999994</v>
       </c>
-      <c r="H52" s="19">
-        <v>1</v>
-      </c>
-      <c r="I52" s="65">
-        <f>H52*G52</f>
+      <c r="H53" s="19">
+        <v>1</v>
+      </c>
+      <c r="I53" s="65">
+        <f>H53*G53</f>
         <v>4.7799999999999994</v>
       </c>
-      <c r="J52" s="17" t="s">
+      <c r="J53" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="K52" s="15" t="s">
+      <c r="K53" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="L52" s="25"/>
-    </row>
-    <row r="53" spans="1:12" s="75" customFormat="1">
-      <c r="A53" s="8" t="s">
+      <c r="L53" s="25"/>
+    </row>
+    <row r="54" spans="1:12" s="74" customFormat="1">
+      <c r="A54" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B54" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D54" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="19">
+      <c r="E54" s="9"/>
+      <c r="F54" s="19">
         <v>3</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <f>5.01</f>
         <v>5.01</v>
       </c>
-      <c r="H53" s="19">
-        <v>1</v>
-      </c>
-      <c r="I53" s="65">
-        <f>H53*G53</f>
+      <c r="H54" s="19">
+        <v>1</v>
+      </c>
+      <c r="I54" s="65">
+        <f>H54*G54</f>
         <v>5.01</v>
       </c>
-      <c r="J53" s="17" t="s">
+      <c r="J54" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="K53" s="15" t="s">
+      <c r="K54" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="L53" s="20"/>
-    </row>
-    <row r="54" spans="1:12" s="75" customFormat="1">
-      <c r="A54" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="19">
-        <v>1</v>
-      </c>
-      <c r="G54" s="13">
-        <v>4</v>
-      </c>
-      <c r="H54" s="19">
-        <v>1</v>
-      </c>
-      <c r="I54" s="65">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J54" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="L54" s="25"/>
-    </row>
-    <row r="55" spans="1:12" s="75" customFormat="1">
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="1:12" s="74" customFormat="1">
       <c r="A55" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="19">
         <v>1</v>
       </c>
       <c r="G55" s="13">
+        <v>4</v>
+      </c>
+      <c r="H55" s="19">
+        <v>1</v>
+      </c>
+      <c r="I55" s="65">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J55" s="93" t="s">
+        <v>286</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="L55" s="25"/>
+    </row>
+    <row r="56" spans="1:12" s="74" customFormat="1">
+      <c r="A56" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="19">
+        <v>1</v>
+      </c>
+      <c r="G56" s="13">
         <v>21.5</v>
       </c>
-      <c r="H55" s="19">
-        <v>1</v>
-      </c>
-      <c r="I55" s="65">
-        <f>G55*H55</f>
+      <c r="H56" s="19">
+        <v>1</v>
+      </c>
+      <c r="I56" s="65">
+        <f>G56*H56</f>
         <v>21.5</v>
       </c>
-      <c r="J55" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="K55" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="L55" s="26"/>
-    </row>
-    <row r="56" spans="1:12" s="75" customFormat="1">
-      <c r="A56" s="84"/>
-      <c r="B56" s="85" t="s">
+      <c r="J56" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="L56" s="26"/>
+    </row>
+    <row r="57" spans="1:12" s="74" customFormat="1">
+      <c r="A57" s="83"/>
+      <c r="B57" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="86" t="s">
+      <c r="C57" s="85" t="s">
+        <v>258</v>
+      </c>
+      <c r="D57" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="D56" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="E56" s="87"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="88">
-        <v>1</v>
-      </c>
-      <c r="I56" s="90">
+      <c r="E57" s="86"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="87">
+        <v>1</v>
+      </c>
+      <c r="I57" s="105">
         <f>'Fastener List'!G51</f>
         <v>169.01</v>
       </c>
-      <c r="J56" s="91"/>
-      <c r="K56" s="92"/>
-      <c r="L56" s="93"/>
-    </row>
-    <row r="57" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A57" s="53"/>
-      <c r="B57" s="54" t="s">
+      <c r="J57" s="89"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="91"/>
+    </row>
+    <row r="58" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A58" s="53"/>
+      <c r="B58" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="53" t="s">
-        <v>236</v>
-      </c>
-      <c r="D57" s="55" t="s">
+      <c r="C58" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="60">
-        <f>SUM(I18:I56)+I17</f>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="60">
+        <f>SUM(I19:I57)+I18</f>
         <v>1955.85</v>
       </c>
-      <c r="J57" s="55"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="71"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4425,65 +4470,66 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J21" r:id="rId3" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J22" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J25" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J26" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J28" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J29" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J30" r:id="rId12" display="1x Select Color: 220V/110V" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="L31" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J32" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J34" r:id="rId15" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J35" r:id="rId16" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J38" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J39" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J40" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J41" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J42" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J43" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J47" r:id="rId24" display="Color: Buffer 14inch 35cm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="J48" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J49" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J50" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="J51" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J54" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J55" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="J31" r:id="rId32" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="L30" r:id="rId33" display="1x 310mm 220V 750W" xr:uid="{6E7EA03F-E4E8-4DD1-88FA-53A949F0FE0C}"/>
+    <hyperlink ref="J19" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J22" r:id="rId3" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J29" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J30" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J31" r:id="rId12" display="1x Select Color: 220V/110V" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L32" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J35" r:id="rId15" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J36" r:id="rId16" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J38" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J39" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J40" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J41" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J42" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J43" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J44" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J48" r:id="rId24" display="Color: Buffer 14inch 35cm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J51" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J52" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J55" r:id="rId29" display="RepRap ONLY- 1x Humidity Sensor" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J56" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J32" r:id="rId32" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="L31" r:id="rId33" display="1x 310mm 220V 750W" xr:uid="{6E7EA03F-E4E8-4DD1-88FA-53A949F0FE0C}"/>
     <hyperlink ref="L8" r:id="rId34" display="Color: 339 mm" xr:uid="{0D6804EE-4770-4D20-B307-FE65C6578BD2}"/>
     <hyperlink ref="L9" r:id="rId35" xr:uid="{9947BFF5-90A8-4F51-9383-9FD80AEAE014}"/>
     <hyperlink ref="L10" r:id="rId36" xr:uid="{24273E88-341E-495F-87F3-B041C80C9C52}"/>
     <hyperlink ref="L11" r:id="rId37" xr:uid="{D1869F91-793C-40AC-9B55-C7FD7CEDEB45}"/>
     <hyperlink ref="L12" r:id="rId38" xr:uid="{8D497D2A-DB3C-4DBA-920F-7CD6A230AD63}"/>
     <hyperlink ref="L13" r:id="rId39" display="Color: 10pcs 2028" xr:uid="{E67D56B5-AC71-4710-B9FF-E0CE991001BC}"/>
-    <hyperlink ref="L14" r:id="rId40" display="3x GL: 350 - Color: MGN12 H" xr:uid="{B0E7DD59-AD34-4A70-AC40-0E3FF119F5F8}"/>
-    <hyperlink ref="L15" r:id="rId41" display="2x GL: 400 - Color: MGN12 H" xr:uid="{89B273F8-0E35-4B6B-879E-8CC6259FB32F}"/>
-    <hyperlink ref="L16" r:id="rId42" display="1x GL: 400 - Color: MGN9 H" xr:uid="{850186EB-E7B5-4AB8-B1EF-F52B78ED8ACE}"/>
-    <hyperlink ref="L27" r:id="rId43" display="1x TMC2209 x8" xr:uid="{4DE7C021-EFF7-4219-B85B-490FCDB3F4B7}"/>
-    <hyperlink ref="L33" r:id="rId44" display="1x ADXL345 Accelerometer" xr:uid="{C70186B3-EA3A-4686-90E6-7E2B397151A6}"/>
-    <hyperlink ref="J44" r:id="rId45" xr:uid="{4AC86807-7591-4FC0-B843-F75D7B196BAD}"/>
-    <hyperlink ref="J45" r:id="rId46" xr:uid="{E51B5839-CA14-434E-9C5C-2396BEBB99E8}"/>
-    <hyperlink ref="J46" r:id="rId47" display="TBD" xr:uid="{349B70BC-D928-4468-A28F-E77CA9C8C8C4}"/>
-    <hyperlink ref="J36" r:id="rId48" xr:uid="{CA2BA1F1-CEC6-4E27-A1F7-45CF1A6C8280}"/>
-    <hyperlink ref="L21" r:id="rId49" xr:uid="{AFBC8F42-EABE-4AFD-850E-A8AA7ED1D6FB}"/>
-    <hyperlink ref="J17" r:id="rId50" xr:uid="{94C323AC-B773-444C-A6BB-AEBF9466A41C}"/>
-    <hyperlink ref="J52" r:id="rId51" xr:uid="{B3B420EC-4167-430D-9AFD-CFA1604062A9}"/>
-    <hyperlink ref="J53" r:id="rId52" xr:uid="{DE88D6BA-A40E-4CD1-B7DD-F27592997906}"/>
+    <hyperlink ref="L15" r:id="rId40" display="3x GL: 350 - Color: MGN12 H" xr:uid="{B0E7DD59-AD34-4A70-AC40-0E3FF119F5F8}"/>
+    <hyperlink ref="L16" r:id="rId41" display="2x GL: 400 - Color: MGN12 H" xr:uid="{89B273F8-0E35-4B6B-879E-8CC6259FB32F}"/>
+    <hyperlink ref="L17" r:id="rId42" display="1x GL: 400 - Color: MGN9 H" xr:uid="{850186EB-E7B5-4AB8-B1EF-F52B78ED8ACE}"/>
+    <hyperlink ref="L28" r:id="rId43" display="1x TMC2209 x8" xr:uid="{4DE7C021-EFF7-4219-B85B-490FCDB3F4B7}"/>
+    <hyperlink ref="L34" r:id="rId44" display="1x ADXL345 Accelerometer" xr:uid="{C70186B3-EA3A-4686-90E6-7E2B397151A6}"/>
+    <hyperlink ref="J45" r:id="rId45" xr:uid="{4AC86807-7591-4FC0-B843-F75D7B196BAD}"/>
+    <hyperlink ref="J46" r:id="rId46" xr:uid="{E51B5839-CA14-434E-9C5C-2396BEBB99E8}"/>
+    <hyperlink ref="J47" r:id="rId47" display="TBD" xr:uid="{349B70BC-D928-4468-A28F-E77CA9C8C8C4}"/>
+    <hyperlink ref="J37" r:id="rId48" xr:uid="{CA2BA1F1-CEC6-4E27-A1F7-45CF1A6C8280}"/>
+    <hyperlink ref="L22" r:id="rId49" xr:uid="{AFBC8F42-EABE-4AFD-850E-A8AA7ED1D6FB}"/>
+    <hyperlink ref="J18" r:id="rId50" xr:uid="{94C323AC-B773-444C-A6BB-AEBF9466A41C}"/>
+    <hyperlink ref="J53" r:id="rId51" xr:uid="{B3B420EC-4167-430D-9AFD-CFA1604062A9}"/>
+    <hyperlink ref="J54" r:id="rId52" xr:uid="{DE88D6BA-A40E-4CD1-B7DD-F27592997906}"/>
+    <hyperlink ref="L14" r:id="rId53" xr:uid="{7AC44797-A66C-46C4-8114-AECDE9FF2678}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId53"/>
-  <drawing r:id="rId54"/>
-  <legacyDrawing r:id="rId55"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId54"/>
+  <drawing r:id="rId55"/>
+  <legacyDrawing r:id="rId56"/>
   <tableParts count="1">
-    <tablePart r:id="rId56"/>
+    <tablePart r:id="rId57"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4495,7 +4541,7 @@
   </sheetPr>
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -4518,22 +4564,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="27">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
+      <c r="A1" s="103"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E2" s="5"/>
       <c r="H2" s="1" t="s">
@@ -4559,24 +4605,24 @@
       </c>
     </row>
     <row r="6" spans="1:21" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A6" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="79" t="s">
+      <c r="A6" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81">
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80">
         <f>G51</f>
         <v>169.01</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="98"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="96"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -4655,14 +4701,14 @@
         <f>F8*E8</f>
         <v>4.3099999999999996</v>
       </c>
-      <c r="H8" s="95" t="s">
-        <v>270</v>
+      <c r="H8" s="93" t="s">
+        <v>269</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>187</v>
       </c>
       <c r="J8" s="16"/>
-      <c r="K8" s="100"/>
+      <c r="K8" s="98"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="64" t="s">
@@ -4694,7 +4740,7 @@
       <c r="J9" s="20">
         <v>934</v>
       </c>
-      <c r="K9" s="99">
+      <c r="K9" s="97">
         <v>4032</v>
       </c>
     </row>
@@ -4720,20 +4766,20 @@
         <v>6</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>50</v>
       </c>
       <c r="J10" s="16"/>
-      <c r="K10" s="100"/>
+      <c r="K10" s="98"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="19">
@@ -4757,7 +4803,7 @@
         <v>50</v>
       </c>
       <c r="J11" s="20"/>
-      <c r="K11" s="99">
+      <c r="K11" s="97">
         <v>10511</v>
       </c>
     </row>
@@ -4766,7 +4812,7 @@
         <v>86</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="68">
@@ -4783,22 +4829,22 @@
         <v>0.74</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="102" t="s">
-        <v>219</v>
-      </c>
-      <c r="K12" s="101"/>
+      <c r="J12" s="100" t="s">
+        <v>218</v>
+      </c>
+      <c r="K12" s="99"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="74" t="s">
-        <v>275</v>
+      <c r="B13" s="73" t="s">
+        <v>274</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="68">
@@ -4811,8 +4857,8 @@
       <c r="G13" s="65"/>
       <c r="H13" s="39"/>
       <c r="I13" s="40"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="101"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="99"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="64" t="s">
@@ -4842,7 +4888,7 @@
         <v>50</v>
       </c>
       <c r="J14" s="20"/>
-      <c r="K14" s="99">
+      <c r="K14" s="97">
         <v>7380</v>
       </c>
     </row>
@@ -4851,7 +4897,7 @@
         <v>72</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9">
@@ -4867,13 +4913,13 @@
         <v>1</v>
       </c>
       <c r="H15" s="17"/>
-      <c r="I15" s="76" t="s">
+      <c r="I15" s="75" t="s">
         <v>50</v>
       </c>
       <c r="J15" s="20">
         <v>7991</v>
       </c>
-      <c r="K15" s="99">
+      <c r="K15" s="97">
         <v>10642</v>
       </c>
     </row>
@@ -4907,7 +4953,7 @@
       <c r="J16" s="16">
         <v>912</v>
       </c>
-      <c r="K16" s="100"/>
+      <c r="K16" s="98"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="64" t="s">
@@ -4937,7 +4983,7 @@
         <v>50</v>
       </c>
       <c r="J17" s="20"/>
-      <c r="K17" s="99">
+      <c r="K17" s="97">
         <v>7380</v>
       </c>
     </row>
@@ -4946,7 +4992,7 @@
         <v>72</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9">
@@ -4960,13 +5006,13 @@
       </c>
       <c r="G18" s="65"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="76" t="s">
+      <c r="I18" s="75" t="s">
         <v>50</v>
       </c>
       <c r="J18" s="20">
         <v>912</v>
       </c>
-      <c r="K18" s="99">
+      <c r="K18" s="97">
         <v>4762</v>
       </c>
     </row>
@@ -4998,7 +5044,7 @@
         <v>50</v>
       </c>
       <c r="J19" s="16"/>
-      <c r="K19" s="100">
+      <c r="K19" s="98">
         <v>7380</v>
       </c>
     </row>
@@ -5007,7 +5053,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9">
@@ -5021,14 +5067,14 @@
       <c r="H20" s="14"/>
       <c r="I20" s="15"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="100"/>
+      <c r="K20" s="98"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="72" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9">
@@ -5042,7 +5088,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="15"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="100"/>
+      <c r="K21" s="98"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8" t="s">
@@ -5063,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="65">
-        <f>F22*E22</f>
+        <f t="shared" ref="G22:G38" si="0">F22*E22</f>
         <v>3.27</v>
       </c>
       <c r="H22" s="14" t="s">
@@ -5073,7 +5119,7 @@
         <v>50</v>
       </c>
       <c r="J22" s="16"/>
-      <c r="K22" s="100"/>
+      <c r="K22" s="98"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8" t="s">
@@ -5094,17 +5140,17 @@
         <v>1</v>
       </c>
       <c r="G23" s="65">
-        <f>F23*E23</f>
+        <f t="shared" si="0"/>
         <v>2.57</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>50</v>
       </c>
       <c r="J23" s="20"/>
-      <c r="K23" s="99"/>
+      <c r="K23" s="97"/>
     </row>
     <row r="24" spans="1:11" s="38" customFormat="1">
       <c r="A24" s="64" t="s">
@@ -5124,7 +5170,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="65">
-        <f>F24*E24</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H24" s="17" t="s">
@@ -5134,14 +5180,14 @@
         <v>82</v>
       </c>
       <c r="J24" s="20"/>
-      <c r="K24" s="99"/>
+      <c r="K24" s="97"/>
     </row>
     <row r="25" spans="1:11" s="38" customFormat="1">
       <c r="A25" s="72" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9">
@@ -5154,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="65">
-        <f>F25*E25</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H25" s="14" t="s">
@@ -5162,7 +5208,7 @@
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="20"/>
-      <c r="K25" s="99"/>
+      <c r="K25" s="97"/>
     </row>
     <row r="26" spans="1:11" s="38" customFormat="1">
       <c r="A26" s="64" t="s">
@@ -5182,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="65">
-        <f>F26*E26</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H26" s="17" t="s">
@@ -5194,7 +5240,7 @@
       <c r="J26" s="16">
         <v>934</v>
       </c>
-      <c r="K26" s="100">
+      <c r="K26" s="98">
         <v>4032</v>
       </c>
     </row>
@@ -5203,7 +5249,7 @@
         <v>68</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9">
@@ -5216,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="65">
-        <f>F27*E27</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H27" s="17" t="s">
@@ -5228,7 +5274,7 @@
       <c r="J27" s="20">
         <v>985</v>
       </c>
-      <c r="K27" s="99">
+      <c r="K27" s="97">
         <v>10511</v>
       </c>
     </row>
@@ -5250,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="65">
-        <f>F28*E28</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H28" s="14" t="s">
@@ -5262,7 +5308,7 @@
       <c r="J28" s="16">
         <v>125</v>
       </c>
-      <c r="K28" s="100">
+      <c r="K28" s="98">
         <v>7089</v>
       </c>
     </row>
@@ -5284,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="65">
-        <f>F29*E29</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H29" s="17" t="s">
@@ -5294,7 +5340,7 @@
         <v>50</v>
       </c>
       <c r="J29" s="20"/>
-      <c r="K29" s="99">
+      <c r="K29" s="97">
         <v>7991</v>
       </c>
     </row>
@@ -5316,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="65">
-        <f>F30*E30</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H30" s="14" t="s">
@@ -5326,7 +5372,7 @@
         <v>50</v>
       </c>
       <c r="J30" s="16"/>
-      <c r="K30" s="100">
+      <c r="K30" s="98">
         <v>7991</v>
       </c>
     </row>
@@ -5348,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="65">
-        <f>F31*E31</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H31" s="17" t="s">
@@ -5360,7 +5406,7 @@
       <c r="J31" s="20">
         <v>934</v>
       </c>
-      <c r="K31" s="99">
+      <c r="K31" s="97">
         <v>4032</v>
       </c>
     </row>
@@ -5382,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="65">
-        <f>F32*E32</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H32" s="17" t="s">
@@ -5392,7 +5438,7 @@
         <v>50</v>
       </c>
       <c r="J32" s="16"/>
-      <c r="K32" s="100"/>
+      <c r="K32" s="98"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="64" t="s">
@@ -5412,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="65">
-        <f>F33*E33</f>
+        <f t="shared" si="0"/>
         <v>2.81</v>
       </c>
       <c r="H33" s="17" t="s">
@@ -5424,7 +5470,7 @@
       <c r="J33" s="20">
         <v>985</v>
       </c>
-      <c r="K33" s="99">
+      <c r="K33" s="97">
         <v>10511</v>
       </c>
     </row>
@@ -5433,7 +5479,7 @@
         <v>68</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9">
@@ -5446,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="65">
-        <f>F34*E34</f>
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
       <c r="H34" s="14" t="s">
@@ -5456,7 +5502,7 @@
         <v>50</v>
       </c>
       <c r="J34" s="16"/>
-      <c r="K34" s="100"/>
+      <c r="K34" s="98"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
@@ -5477,17 +5523,17 @@
         <v>1</v>
       </c>
       <c r="G35" s="65">
-        <f>F35*E35</f>
+        <f t="shared" si="0"/>
         <v>3.62</v>
       </c>
       <c r="H35" s="17" t="s">
         <v>177</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J35" s="20"/>
-      <c r="K35" s="99"/>
+      <c r="K35" s="97"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="64" t="s">
@@ -5507,7 +5553,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="65">
-        <f>F36*E36</f>
+        <f t="shared" si="0"/>
         <v>2.56</v>
       </c>
       <c r="H36" s="17" t="s">
@@ -5519,7 +5565,7 @@
       <c r="J36" s="20">
         <v>125</v>
       </c>
-      <c r="K36" s="99">
+      <c r="K36" s="97">
         <v>7089</v>
       </c>
     </row>
@@ -5541,7 +5587,7 @@
         <v>15</v>
       </c>
       <c r="G37" s="65">
-        <f>F37*E37</f>
+        <f t="shared" si="0"/>
         <v>40.35</v>
       </c>
       <c r="H37" s="14" t="s">
@@ -5551,7 +5597,7 @@
         <v>50</v>
       </c>
       <c r="J37" s="16"/>
-      <c r="K37" s="100">
+      <c r="K37" s="98">
         <v>7380</v>
       </c>
     </row>
@@ -5573,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="65">
-        <f>F38*E38</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H38" s="17" t="s">
@@ -5583,7 +5629,7 @@
         <v>50</v>
       </c>
       <c r="J38" s="20"/>
-      <c r="K38" s="99">
+      <c r="K38" s="97">
         <v>7380</v>
       </c>
     </row>
@@ -5592,7 +5638,7 @@
         <v>72</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9">
@@ -5606,7 +5652,7 @@
       <c r="H39" s="17"/>
       <c r="I39" s="15"/>
       <c r="J39" s="20"/>
-      <c r="K39" s="99"/>
+      <c r="K39" s="97"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="64" t="s">
@@ -5638,7 +5684,7 @@
       <c r="J40" s="16">
         <v>933</v>
       </c>
-      <c r="K40" s="100">
+      <c r="K40" s="98">
         <v>4017</v>
       </c>
     </row>
@@ -5647,7 +5693,7 @@
         <v>106</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9">
@@ -5659,14 +5705,14 @@
       <c r="H41" s="17"/>
       <c r="I41" s="15"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="100"/>
+      <c r="K41" s="98"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="72" t="s">
         <v>106</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9">
@@ -5678,14 +5724,14 @@
       <c r="H42" s="17"/>
       <c r="I42" s="15"/>
       <c r="J42" s="16"/>
-      <c r="K42" s="100"/>
+      <c r="K42" s="98"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="72" t="s">
         <v>106</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9">
@@ -5697,7 +5743,7 @@
       <c r="H43" s="17"/>
       <c r="I43" s="15"/>
       <c r="J43" s="16"/>
-      <c r="K43" s="100"/>
+      <c r="K43" s="98"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="22" t="s">
@@ -5721,20 +5767,20 @@
         <v>16</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J44" s="20"/>
-      <c r="K44" s="99"/>
+      <c r="K44" s="97"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="19">
@@ -5746,7 +5792,7 @@
       <c r="H45" s="17"/>
       <c r="I45" s="15"/>
       <c r="J45" s="20"/>
-      <c r="K45" s="99"/>
+      <c r="K45" s="97"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="64" t="s">
@@ -5766,7 +5812,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="65">
-        <f t="shared" ref="G46:G47" si="0">F46*E46</f>
+        <f t="shared" ref="G46:G47" si="1">F46*E46</f>
         <v>5</v>
       </c>
       <c r="H46" s="17" t="s">
@@ -5776,14 +5822,14 @@
         <v>62</v>
       </c>
       <c r="J46" s="20"/>
-      <c r="K46" s="99"/>
+      <c r="K46" s="97"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="19">
@@ -5796,24 +5842,24 @@
         <v>1</v>
       </c>
       <c r="G47" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I47" s="15" t="s">
         <v>62</v>
       </c>
       <c r="J47" s="20"/>
-      <c r="K47" s="99"/>
+      <c r="K47" s="97"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="19">
@@ -5825,14 +5871,14 @@
       <c r="H48" s="17"/>
       <c r="I48" s="15"/>
       <c r="J48" s="20"/>
-      <c r="K48" s="99"/>
+      <c r="K48" s="97"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="22" t="s">
         <v>86</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="19"/>
@@ -5842,7 +5888,7 @@
       <c r="H49" s="17"/>
       <c r="I49" s="15"/>
       <c r="J49" s="20"/>
-      <c r="K49" s="99"/>
+      <c r="K49" s="97"/>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="8" t="s">
@@ -5867,13 +5913,13 @@
         <v>1.72</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J50" s="20"/>
-      <c r="K50" s="99"/>
+      <c r="K50" s="97"/>
     </row>
     <row r="51" spans="1:21" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A51" s="53" t="s">
@@ -5893,7 +5939,7 @@
       <c r="H51" s="55"/>
       <c r="I51" s="52"/>
       <c r="J51" s="57"/>
-      <c r="K51" s="103"/>
+      <c r="K51" s="101"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="365" documentId="8_{1C435AF8-A74F-4E94-BBF5-72A75A3D08EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B862F27B-2F64-4E07-B459-219A845D2E1B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="13284" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
     <sheet name="Fastener List" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fastener List'!$A$7:$K$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fastener List'!$A$7:$K$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$7:$K$58</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,13 +34,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Roy Berntsen</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6855C535-5896-4E20-B657-531D910799F7}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -85,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -100,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -115,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E8" authorId="1">
       <text>
         <r>
           <rPr>
@@ -127,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{B4E9D9E5-3AB0-4E10-AA68-1A064859F102}">
+    <comment ref="J18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{C0C2ED24-C03E-4F52-96F4-0C8F7427CDB5}">
+    <comment ref="J22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L28" authorId="0" shapeId="0" xr:uid="{AECD0478-11D5-450E-9BFF-EC30AF4BED18}">
+    <comment ref="L28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{25AA0129-6A08-448A-ADCA-B3DC564D3D53}">
+    <comment ref="J35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J43" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="J43" authorId="1">
       <text>
         <r>
           <rPr>
@@ -249,12 +243,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{44D0B947-52F7-4B2C-9A1B-EBD24C79E937}">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{2F1196B6-19E7-41AD-AA41-F15DEDAFD50C}">
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{3E2D7A6A-1FCD-4AA1-801D-A9DE6159BB3A}">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="301">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -1133,9 +1127,6 @@
     <t>1x 10pcs Bushings 5x8x2.5</t>
   </si>
   <si>
-    <t>M3x08 FH CS</t>
-  </si>
-  <si>
     <t>M3x10 SH</t>
   </si>
   <si>
@@ -1169,12 +1160,6 @@
     <t>M8x380 Silver Steel Rod - Door Link</t>
   </si>
   <si>
-    <t>Ø20 10Kg Neodiunium Magnet</t>
-  </si>
-  <si>
-    <t>Ø20 Washer Magnet Catch</t>
-  </si>
-  <si>
     <t>Corner Plate 90deg</t>
   </si>
   <si>
@@ -1182,21 +1167,72 @@
   </si>
   <si>
     <t>RRF ONLY- 1x Humidity Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3-50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 50PCs  M3 x 3 </t>
+  </si>
+  <si>
+    <t>M3x08 SH CS</t>
+  </si>
+  <si>
+    <t>1 x 50PCs M3 x 8mm SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 50PCs  M3 x 10mm SS </t>
+  </si>
+  <si>
+    <t>1 x 50 Pcs M3 x 10 SS</t>
+  </si>
+  <si>
+    <t>1 x 50 Pcs M3 x 25 SS</t>
+  </si>
+  <si>
+    <t>1 x 5PCS M5 x 30 ss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 10 PCs M5 x 45  </t>
+  </si>
+  <si>
+    <t>50 or 60mm long ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 10 PCs M5 x 50  </t>
+  </si>
+  <si>
+    <t>1 x 8mm dia x 400mm SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUNSHUO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 + 1 D20  magnet and keeper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 +1 </t>
+  </si>
+  <si>
+    <t>LFYGY Ind</t>
+  </si>
+  <si>
+    <t>Ø20 10Kg Neodiunium Magnet + washer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
-    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
-    <numFmt numFmtId="174" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="[$$-409]#,##0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1347,16 +1383,33 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1583,12 +1636,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1606,11 +1670,11 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,27 +1691,27 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1664,75 +1728,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1742,8 +1806,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1756,17 +1820,41 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1805,7 +1893,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1871,7 +1959,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1998,7 +2086,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2064,7 +2152,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2199,7 +2287,7 @@
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2335,7 @@
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31246AD7-9377-49AB-A564-3AA8A41BC8D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31246AD7-9377-49AB-A564-3AA8A41BC8D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,44 +2369,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A7:L57" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
-  <autoFilter ref="A7:L57" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:L57" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+  <autoFilter ref="A7:L57"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Type" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cut Length mm" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="BOM Quantity" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pack Price $" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pack Order Quantity" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Line Price $" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Order Parts Link" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Supplier" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Option" dataDxfId="15"/>
+    <tableColumn id="1" name="System" dataDxfId="26"/>
+    <tableColumn id="2" name="Category" dataDxfId="25"/>
+    <tableColumn id="3" name="Part Type" dataDxfId="24"/>
+    <tableColumn id="4" name="Description" dataDxfId="23"/>
+    <tableColumn id="5" name="Cut Length mm" dataDxfId="22"/>
+    <tableColumn id="7" name="BOM Quantity" dataDxfId="21"/>
+    <tableColumn id="8" name="Pack Price $" dataDxfId="20"/>
+    <tableColumn id="9" name="Pack Order Quantity" dataDxfId="19"/>
+    <tableColumn id="10" name="Line Price $" dataDxfId="18"/>
+    <tableColumn id="11" name="Order Parts Link" dataDxfId="17"/>
+    <tableColumn id="12" name="Supplier" dataDxfId="16"/>
+    <tableColumn id="15" name="Option" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDA70DC8-5656-44D6-9B78-AAECA636E92E}" name="Table13" displayName="Table13" ref="A7:K50" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A7:K50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:K50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A7:K49" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A7:K49"/>
+  <sortState ref="A8:K50">
     <sortCondition ref="B8:B50"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="3" xr3:uid="{E6B3FE31-06FE-4559-AFD1-6480AEE58E3D}" name="Part Type" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{017D0C76-576B-4419-8133-F5AECB0D063B}" name="Description" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{20F261E1-7019-4B90-A2A7-D66052A36813}" name="Cut Length mm" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{2969BB98-98F0-4DA6-A9F9-9D2BBFCE9C0D}" name="BOM Quantity" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{5C41A248-DEA0-4743-8186-69A534C38BE3}" name="Pack Price $" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{FA7C8EB6-421B-4B43-99B0-7BB4A693F52F}" name="Pack Order Quantity" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{CE4214B6-AA50-4E11-9033-088E3FF24797}" name="Line Price $" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{481803C1-D22E-4927-98EE-5F3208952A3D}" name="Order Parts Link" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{563879AC-2A49-401D-AE43-1BE6B802D09B}" name="Supplier" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{A0702039-5A64-40A6-A0D6-091578C7EAFB}" name="DIN" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{12008123-F63C-4604-B89E-2991D02D7264}" name="ISO" dataDxfId="0"/>
+    <tableColumn id="3" name="Part Type" dataDxfId="10"/>
+    <tableColumn id="4" name="Description" dataDxfId="9"/>
+    <tableColumn id="5" name="Cut Length mm" dataDxfId="8"/>
+    <tableColumn id="7" name="BOM Quantity" dataDxfId="7"/>
+    <tableColumn id="8" name="Pack Price $" dataDxfId="6"/>
+    <tableColumn id="9" name="Pack Order Quantity" dataDxfId="5"/>
+    <tableColumn id="10" name="Line Price $" dataDxfId="4"/>
+    <tableColumn id="11" name="Order Parts Link" dataDxfId="3"/>
+    <tableColumn id="12" name="Supplier" dataDxfId="2"/>
+    <tableColumn id="13" name="DIN" dataDxfId="1"/>
+    <tableColumn id="14" name="ISO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2521,48 +2609,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="7" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:12" ht="24.6">
+      <c r="A1" s="105" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -2589,14 +2677,14 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="15" thickBot="1">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="16.2" thickBot="1">
       <c r="A6" s="76"/>
       <c r="B6" s="77" t="s">
         <v>4</v>
@@ -2613,7 +2701,7 @@
       <c r="H6" s="79"/>
       <c r="I6" s="80">
         <f>I58</f>
-        <v>1955.85</v>
+        <v>1989.26</v>
       </c>
       <c r="J6" s="78"/>
       <c r="K6" s="81"/>
@@ -2888,7 +2976,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="12">
@@ -2904,12 +2992,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J14" s="104"/>
+      <c r="J14" s="103"/>
       <c r="K14" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="104" t="s">
-        <v>285</v>
+      <c r="L14" s="103" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="74" customFormat="1">
@@ -3023,7 +3111,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="74" customFormat="1" ht="15.75" thickBot="1">
+    <row r="18" spans="1:12" s="74" customFormat="1" ht="15" thickBot="1">
       <c r="A18" s="32" t="s">
         <v>20</v>
       </c>
@@ -4275,40 +4363,40 @@
       <c r="L52" s="25"/>
     </row>
     <row r="53" spans="1:12" s="74" customFormat="1">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="19">
-        <v>1</v>
-      </c>
-      <c r="G53" s="13">
+      <c r="E53" s="108"/>
+      <c r="F53" s="109">
+        <v>1</v>
+      </c>
+      <c r="G53" s="110">
         <f>3.11+1.67</f>
         <v>4.7799999999999994</v>
       </c>
-      <c r="H53" s="19">
-        <v>1</v>
-      </c>
-      <c r="I53" s="65">
+      <c r="H53" s="109">
+        <v>1</v>
+      </c>
+      <c r="I53" s="111">
         <f>H53*G53</f>
         <v>4.7799999999999994</v>
       </c>
-      <c r="J53" s="17" t="s">
+      <c r="J53" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="K53" s="15" t="s">
+      <c r="K53" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="L53" s="25"/>
+      <c r="L53" s="114"/>
     </row>
     <row r="54" spans="1:12" s="74" customFormat="1">
       <c r="A54" s="8" t="s">
@@ -4346,40 +4434,40 @@
       </c>
       <c r="L54" s="20"/>
     </row>
-    <row r="55" spans="1:12" s="74" customFormat="1">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:12" s="115" customFormat="1">
+      <c r="A55" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="107" t="s">
         <v>201</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="19">
-        <v>1</v>
-      </c>
-      <c r="G55" s="13">
+      <c r="E55" s="108"/>
+      <c r="F55" s="109">
+        <v>1</v>
+      </c>
+      <c r="G55" s="110">
         <v>4</v>
       </c>
-      <c r="H55" s="19">
-        <v>1</v>
-      </c>
-      <c r="I55" s="65">
+      <c r="H55" s="109">
+        <v>1</v>
+      </c>
+      <c r="I55" s="111">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J55" s="93" t="s">
-        <v>286</v>
-      </c>
-      <c r="K55" s="15" t="s">
+      <c r="J55" s="112" t="s">
+        <v>283</v>
+      </c>
+      <c r="K55" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="L55" s="25"/>
+      <c r="L55" s="114"/>
     </row>
     <row r="56" spans="1:12" s="74" customFormat="1">
       <c r="A56" s="8" t="s">
@@ -4433,15 +4521,15 @@
       <c r="H57" s="87">
         <v>1</v>
       </c>
-      <c r="I57" s="105">
-        <f>'Fastener List'!G51</f>
-        <v>169.01</v>
+      <c r="I57" s="104">
+        <f>'Fastener List'!G50</f>
+        <v>202.42</v>
       </c>
       <c r="J57" s="89"/>
       <c r="K57" s="90"/>
       <c r="L57" s="91"/>
     </row>
-    <row r="58" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
+    <row r="58" spans="1:12" s="7" customFormat="1" ht="16.2" thickBot="1">
       <c r="A58" s="53"/>
       <c r="B58" s="54" t="s">
         <v>4</v>
@@ -4458,7 +4546,7 @@
       <c r="H58" s="56"/>
       <c r="I58" s="60">
         <f>SUM(I19:I57)+I18</f>
-        <v>1955.85</v>
+        <v>1989.26</v>
       </c>
       <c r="J58" s="55"/>
       <c r="K58" s="52"/>
@@ -4470,59 +4558,59 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J19" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J22" r:id="rId3" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J29" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J30" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J31" r:id="rId12" display="1x Select Color: 220V/110V" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="L32" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J35" r:id="rId15" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J36" r:id="rId16" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J38" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J39" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J40" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J41" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J42" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J43" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J44" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J48" r:id="rId24" display="Color: Buffer 14inch 35cm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="J49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J51" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="J52" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J55" r:id="rId29" display="RepRap ONLY- 1x Humidity Sensor" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J56" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="J32" r:id="rId32" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="L31" r:id="rId33" display="1x 310mm 220V 750W" xr:uid="{6E7EA03F-E4E8-4DD1-88FA-53A949F0FE0C}"/>
-    <hyperlink ref="L8" r:id="rId34" display="Color: 339 mm" xr:uid="{0D6804EE-4770-4D20-B307-FE65C6578BD2}"/>
-    <hyperlink ref="L9" r:id="rId35" xr:uid="{9947BFF5-90A8-4F51-9383-9FD80AEAE014}"/>
-    <hyperlink ref="L10" r:id="rId36" xr:uid="{24273E88-341E-495F-87F3-B041C80C9C52}"/>
-    <hyperlink ref="L11" r:id="rId37" xr:uid="{D1869F91-793C-40AC-9B55-C7FD7CEDEB45}"/>
-    <hyperlink ref="L12" r:id="rId38" xr:uid="{8D497D2A-DB3C-4DBA-920F-7CD6A230AD63}"/>
-    <hyperlink ref="L13" r:id="rId39" display="Color: 10pcs 2028" xr:uid="{E67D56B5-AC71-4710-B9FF-E0CE991001BC}"/>
-    <hyperlink ref="L15" r:id="rId40" display="3x GL: 350 - Color: MGN12 H" xr:uid="{B0E7DD59-AD34-4A70-AC40-0E3FF119F5F8}"/>
-    <hyperlink ref="L16" r:id="rId41" display="2x GL: 400 - Color: MGN12 H" xr:uid="{89B273F8-0E35-4B6B-879E-8CC6259FB32F}"/>
-    <hyperlink ref="L17" r:id="rId42" display="1x GL: 400 - Color: MGN9 H" xr:uid="{850186EB-E7B5-4AB8-B1EF-F52B78ED8ACE}"/>
-    <hyperlink ref="L28" r:id="rId43" display="1x TMC2209 x8" xr:uid="{4DE7C021-EFF7-4219-B85B-490FCDB3F4B7}"/>
-    <hyperlink ref="L34" r:id="rId44" display="1x ADXL345 Accelerometer" xr:uid="{C70186B3-EA3A-4686-90E6-7E2B397151A6}"/>
-    <hyperlink ref="J45" r:id="rId45" xr:uid="{4AC86807-7591-4FC0-B843-F75D7B196BAD}"/>
-    <hyperlink ref="J46" r:id="rId46" xr:uid="{E51B5839-CA14-434E-9C5C-2396BEBB99E8}"/>
-    <hyperlink ref="J47" r:id="rId47" display="TBD" xr:uid="{349B70BC-D928-4468-A28F-E77CA9C8C8C4}"/>
-    <hyperlink ref="J37" r:id="rId48" xr:uid="{CA2BA1F1-CEC6-4E27-A1F7-45CF1A6C8280}"/>
-    <hyperlink ref="L22" r:id="rId49" xr:uid="{AFBC8F42-EABE-4AFD-850E-A8AA7ED1D6FB}"/>
-    <hyperlink ref="J18" r:id="rId50" xr:uid="{94C323AC-B773-444C-A6BB-AEBF9466A41C}"/>
-    <hyperlink ref="J53" r:id="rId51" xr:uid="{B3B420EC-4167-430D-9AFD-CFA1604062A9}"/>
-    <hyperlink ref="J54" r:id="rId52" xr:uid="{DE88D6BA-A40E-4CD1-B7DD-F27592997906}"/>
-    <hyperlink ref="L14" r:id="rId53" xr:uid="{7AC44797-A66C-46C4-8114-AECDE9FF2678}"/>
+    <hyperlink ref="J19" r:id="rId1" display="20X20X18MM 500MM"/>
+    <hyperlink ref="J21" r:id="rId2"/>
+    <hyperlink ref="J22" r:id="rId3" display="Size: 310x310mm"/>
+    <hyperlink ref="J23" r:id="rId4"/>
+    <hyperlink ref="J24" r:id="rId5"/>
+    <hyperlink ref="J25" r:id="rId6"/>
+    <hyperlink ref="J26" r:id="rId7"/>
+    <hyperlink ref="J27" r:id="rId8"/>
+    <hyperlink ref="J28" r:id="rId9"/>
+    <hyperlink ref="J29" r:id="rId10"/>
+    <hyperlink ref="J30" r:id="rId11"/>
+    <hyperlink ref="J31" r:id="rId12" display="1x Select Color: 220V/110V"/>
+    <hyperlink ref="L32" r:id="rId13"/>
+    <hyperlink ref="J33" r:id="rId14"/>
+    <hyperlink ref="J35" r:id="rId15" display="1x 10Pcs Temperature: 160 degree"/>
+    <hyperlink ref="J36" r:id="rId16" display="Color: Dragon-Standard flow"/>
+    <hyperlink ref="J38" r:id="rId17"/>
+    <hyperlink ref="J39" r:id="rId18"/>
+    <hyperlink ref="J40" r:id="rId19"/>
+    <hyperlink ref="J41" r:id="rId20"/>
+    <hyperlink ref="J42" r:id="rId21"/>
+    <hyperlink ref="J43" r:id="rId22"/>
+    <hyperlink ref="J44" r:id="rId23"/>
+    <hyperlink ref="J48" r:id="rId24" display="Color: Buffer 14inch 35cm"/>
+    <hyperlink ref="J49" r:id="rId25"/>
+    <hyperlink ref="J50" r:id="rId26"/>
+    <hyperlink ref="J51" r:id="rId27"/>
+    <hyperlink ref="J52" r:id="rId28"/>
+    <hyperlink ref="J55" r:id="rId29" display="RepRap ONLY- 1x Humidity Sensor"/>
+    <hyperlink ref="J34" r:id="rId30"/>
+    <hyperlink ref="J56" r:id="rId31"/>
+    <hyperlink ref="J32" r:id="rId32" display="Genuine Omron Solid State Relay"/>
+    <hyperlink ref="L31" r:id="rId33" display="1x 310mm 220V 750W"/>
+    <hyperlink ref="L8" r:id="rId34" display="Color: 339 mm"/>
+    <hyperlink ref="L9" r:id="rId35"/>
+    <hyperlink ref="L10" r:id="rId36"/>
+    <hyperlink ref="L11" r:id="rId37"/>
+    <hyperlink ref="L12" r:id="rId38"/>
+    <hyperlink ref="L13" r:id="rId39" display="Color: 10pcs 2028"/>
+    <hyperlink ref="L15" r:id="rId40" display="3x GL: 350 - Color: MGN12 H"/>
+    <hyperlink ref="L16" r:id="rId41" display="2x GL: 400 - Color: MGN12 H"/>
+    <hyperlink ref="L17" r:id="rId42" display="1x GL: 400 - Color: MGN9 H"/>
+    <hyperlink ref="L28" r:id="rId43" display="1x TMC2209 x8"/>
+    <hyperlink ref="L34" r:id="rId44" display="1x ADXL345 Accelerometer"/>
+    <hyperlink ref="J45" r:id="rId45"/>
+    <hyperlink ref="J46" r:id="rId46"/>
+    <hyperlink ref="J47" r:id="rId47" display="TBD"/>
+    <hyperlink ref="J37" r:id="rId48"/>
+    <hyperlink ref="L22" r:id="rId49"/>
+    <hyperlink ref="J18" r:id="rId50"/>
+    <hyperlink ref="J53" r:id="rId51"/>
+    <hyperlink ref="J54" r:id="rId52"/>
+    <hyperlink ref="L14" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId54"/>
@@ -4535,46 +4623,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4AE755-D4BF-409D-A4BB-6FFFA9334480}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" customWidth="1"/>
     <col min="4" max="4" width="13" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="4" customWidth="1"/>
-    <col min="12" max="21" width="8.7109375" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="14.42578125" style="4"/>
+    <col min="5" max="5" width="10.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="4" customWidth="1"/>
+    <col min="12" max="21" width="8.6640625" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="14.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="27">
-      <c r="A1" s="103"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
+    <row r="1" spans="1:21" ht="24.6">
+      <c r="A1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="5"/>
@@ -4598,13 +4686,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1">
+    <row r="5" spans="1:21" ht="15" thickBot="1">
       <c r="A5" s="2"/>
       <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="7" customFormat="1" ht="16.5" thickBot="1">
+    <row r="6" spans="1:21" s="7" customFormat="1" ht="16.2" thickBot="1">
       <c r="A6" s="76" t="s">
         <v>239</v>
       </c>
@@ -4616,8 +4704,8 @@
       <c r="E6" s="78"/>
       <c r="F6" s="79"/>
       <c r="G6" s="80">
-        <f>G51</f>
-        <v>169.01</v>
+        <f>G50</f>
+        <v>202.42</v>
       </c>
       <c r="H6" s="78"/>
       <c r="I6" s="81"/>
@@ -4841,23 +4929,33 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="36" t="s">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="68">
         <v>8</v>
       </c>
-      <c r="E13" s="69"/>
+      <c r="E13" s="69">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="F13" s="68">
         <v>1</v>
       </c>
-      <c r="G13" s="65"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="100"/>
+      <c r="G13" s="65">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H13" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="100">
+        <v>916</v>
+      </c>
       <c r="K13" s="99"/>
     </row>
     <row r="14" spans="1:21">
@@ -4897,22 +4995,24 @@
         <v>72</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9">
         <v>11</v>
       </c>
       <c r="E15" s="13">
-        <v>1</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F15" s="19">
         <v>1</v>
       </c>
       <c r="G15" s="65">
-        <v>1</v>
-      </c>
-      <c r="H15" s="17"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H15" s="92" t="s">
+        <v>287</v>
+      </c>
       <c r="I15" s="75" t="s">
         <v>50</v>
       </c>
@@ -4992,20 +5092,24 @@
         <v>72</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9">
         <v>29</v>
       </c>
       <c r="E18" s="13">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="F18" s="19">
         <v>1</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="17"/>
+      <c r="G18" s="65">
+        <v>1.07</v>
+      </c>
+      <c r="H18" s="92" t="s">
+        <v>288</v>
+      </c>
       <c r="I18" s="75" t="s">
         <v>50</v>
       </c>
@@ -5052,29 +5156,39 @@
       <c r="A20" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>272</v>
+      <c r="B20" s="117" t="s">
+        <v>271</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9">
         <v>2</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="13">
+        <v>2.37</v>
+      </c>
       <c r="F20" s="19">
         <v>1</v>
       </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
+      <c r="G20" s="65">
+        <v>2.37</v>
+      </c>
+      <c r="H20" s="92" t="s">
+        <v>289</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="16">
+        <v>912</v>
+      </c>
       <c r="K20" s="98"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>273</v>
+      <c r="B21" s="117" t="s">
+        <v>272</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9">
@@ -5085,9 +5199,15 @@
         <v>1</v>
       </c>
       <c r="G21" s="65"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
+      <c r="H21" s="92" t="s">
+        <v>290</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="16">
+        <v>912</v>
+      </c>
       <c r="K21" s="98"/>
     </row>
     <row r="22" spans="1:11">
@@ -5187,7 +5307,7 @@
         <v>72</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9">
@@ -5203,10 +5323,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="I25" s="15"/>
+      <c r="I25" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="J25" s="20"/>
       <c r="K25" s="97"/>
     </row>
@@ -5249,7 +5371,7 @@
         <v>68</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9">
@@ -5637,22 +5759,32 @@
       <c r="A39" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="41" t="s">
-        <v>277</v>
+      <c r="B39" s="118" t="s">
+        <v>276</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9">
         <v>4</v>
       </c>
-      <c r="E39" s="13"/>
+      <c r="E39" s="13">
+        <v>1.64</v>
+      </c>
       <c r="F39" s="21">
         <v>1</v>
       </c>
-      <c r="G39" s="65"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="15"/>
+      <c r="G39" s="65">
+        <v>1.64</v>
+      </c>
+      <c r="H39" s="92" t="s">
+        <v>291</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="J39" s="20"/>
-      <c r="K39" s="97"/>
+      <c r="K39" s="97">
+        <v>7380</v>
+      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="64" t="s">
@@ -5693,18 +5825,30 @@
         <v>106</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9">
         <v>4</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
+      <c r="E41" s="13">
+        <v>2.87</v>
+      </c>
+      <c r="F41" s="21">
+        <v>1</v>
+      </c>
+      <c r="G41" s="65">
+        <v>2.87</v>
+      </c>
+      <c r="H41" s="92" t="s">
+        <v>292</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" s="16">
+        <v>933</v>
+      </c>
       <c r="K41" s="98"/>
     </row>
     <row r="42" spans="1:11">
@@ -5712,26 +5856,39 @@
         <v>106</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9">
         <v>11</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
+      <c r="E42" s="13">
+        <v>3.04</v>
+      </c>
+      <c r="F42" s="21">
+        <v>2</v>
+      </c>
+      <c r="G42" s="65">
+        <f t="shared" ref="G42" si="1">F42*E42</f>
+        <v>6.08</v>
+      </c>
+      <c r="H42" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" s="16">
+        <v>933</v>
+      </c>
       <c r="K42" s="98"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="38" t="s">
-        <v>280</v>
+      <c r="B43" s="119" t="s">
+        <v>279</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9">
@@ -5740,7 +5897,9 @@
       <c r="E43" s="13"/>
       <c r="F43" s="21"/>
       <c r="G43" s="65"/>
-      <c r="H43" s="17"/>
+      <c r="H43" s="93" t="s">
+        <v>293</v>
+      </c>
       <c r="I43" s="15"/>
       <c r="J43" s="16"/>
       <c r="K43" s="98"/>
@@ -5780,17 +5939,27 @@
         <v>47</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="19">
         <v>1</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="15"/>
+      <c r="E45" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="F45" s="19">
+        <v>1</v>
+      </c>
+      <c r="G45" s="65">
+        <v>9.5</v>
+      </c>
+      <c r="H45" s="94" t="s">
+        <v>295</v>
+      </c>
+      <c r="I45" s="75" t="s">
+        <v>296</v>
+      </c>
       <c r="J45" s="20"/>
       <c r="K45" s="97"/>
     </row>
@@ -5812,7 +5981,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="65">
-        <f t="shared" ref="G46:G47" si="1">F46*E46</f>
+        <f t="shared" ref="G46:G47" si="2">F46*E46</f>
         <v>5</v>
       </c>
       <c r="H46" s="17" t="s">
@@ -5842,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="H47" s="17" t="s">
@@ -5859,141 +6028,145 @@
         <v>59</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="19">
         <v>6</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="15"/>
+      <c r="E48" s="13">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F48" s="120" t="s">
+        <v>298</v>
+      </c>
+      <c r="G48" s="65">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H48" s="92" t="s">
+        <v>297</v>
+      </c>
+      <c r="I48" s="121" t="s">
+        <v>299</v>
+      </c>
       <c r="J48" s="20"/>
       <c r="K48" s="97"/>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>283</v>
+      <c r="A49" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>189</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="15"/>
+      <c r="D49" s="19">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13">
+        <f>1.72</f>
+        <v>1.72</v>
+      </c>
+      <c r="F49" s="19">
+        <v>1</v>
+      </c>
+      <c r="G49" s="65">
+        <f>F49*E49</f>
+        <v>1.72</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>240</v>
+      </c>
       <c r="J49" s="20"/>
       <c r="K49" s="97"/>
     </row>
-    <row r="50" spans="1:21">
-      <c r="A50" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="19">
-        <v>1</v>
-      </c>
-      <c r="E50" s="13">
-        <f>1.72</f>
-        <v>1.72</v>
-      </c>
-      <c r="F50" s="19">
-        <v>1</v>
-      </c>
-      <c r="G50" s="65">
-        <f>F50*E50</f>
-        <v>1.72</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="J50" s="20"/>
-      <c r="K50" s="97"/>
-    </row>
-    <row r="51" spans="1:21" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A51" s="53" t="s">
+    <row r="50" spans="1:21" s="7" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A50" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B50" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="60">
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="60">
         <f>SUBTOTAL(109,Table13[Line Price $])</f>
-        <v>169.01</v>
-      </c>
-      <c r="H51" s="55"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="101"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
+        <v>202.42</v>
+      </c>
+      <c r="H50" s="55"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="101"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" xr:uid="{06F814A5-07EC-4F2E-BAC1-D876E010DAC9}"/>
-    <hyperlink ref="H10" r:id="rId2" display="1x Size: 20-m3 50pcs" xr:uid="{C29298B0-135B-4285-BD12-966A6C9F01A4}"/>
-    <hyperlink ref="H14" r:id="rId3" xr:uid="{711EDD89-3667-431A-9E54-40BC2324E75B}"/>
-    <hyperlink ref="H16" r:id="rId4" xr:uid="{1CC78AE0-39FF-4A3B-B340-21E6E3F41D70}"/>
-    <hyperlink ref="H17" r:id="rId5" xr:uid="{7265B7AF-6927-423B-836E-9F5F6533340C}"/>
-    <hyperlink ref="H19" r:id="rId6" xr:uid="{185572B2-7C94-4837-9B1E-B4D4BA0F09A8}"/>
-    <hyperlink ref="H24" r:id="rId7" xr:uid="{D560ACEE-E923-4BEF-AF7F-DF2D332EF665}"/>
-    <hyperlink ref="H26" r:id="rId8" xr:uid="{FAA2B558-758C-4C27-B73B-40F64B2AC65A}"/>
-    <hyperlink ref="H27" r:id="rId9" xr:uid="{B73C072D-7D35-4EB0-BBF0-D79C3E6901A0}"/>
-    <hyperlink ref="H28" r:id="rId10" xr:uid="{67D69816-B198-4274-9EBE-C64EBF10F785}"/>
-    <hyperlink ref="H29" r:id="rId11" xr:uid="{DA47EBB9-D062-4B93-B0D6-11019BCAD438}"/>
-    <hyperlink ref="H30" r:id="rId12" xr:uid="{CBCEB6F2-8A4C-44CD-9F5A-70F0850E5FB6}"/>
-    <hyperlink ref="H31" r:id="rId13" xr:uid="{295FD01A-2A5C-4E97-9F6C-E2A05B059BDE}"/>
-    <hyperlink ref="H32" r:id="rId14" xr:uid="{975E09D5-E706-43CB-AC7C-03154A85AAD7}"/>
-    <hyperlink ref="H33" r:id="rId15" xr:uid="{75670E08-051E-4A7E-B174-D7BCF2E062A1}"/>
-    <hyperlink ref="H34" r:id="rId16" xr:uid="{49786F3B-7B63-4AF5-8F75-7727F9FD7573}"/>
-    <hyperlink ref="H36" r:id="rId17" xr:uid="{ED2E9B16-5BAC-41EA-84AF-5A51799BA860}"/>
-    <hyperlink ref="H37" r:id="rId18" xr:uid="{35B1E0E4-3CDD-4B4B-A828-96A293F313FF}"/>
-    <hyperlink ref="H38" r:id="rId19" xr:uid="{87345921-E57A-44B0-944D-E44FFCCCB451}"/>
-    <hyperlink ref="H40" r:id="rId20" xr:uid="{3DD46625-E0A8-4D86-8357-87389553C62F}"/>
-    <hyperlink ref="H11" r:id="rId21" xr:uid="{7B6935D6-671B-411F-9F21-0C921C908090}"/>
-    <hyperlink ref="H35" r:id="rId22" xr:uid="{3116F4A5-002E-4ABC-BDFC-0819C5F187C1}"/>
-    <hyperlink ref="H8" r:id="rId23" display="1x Bushings 5x8x2.5" xr:uid="{B4176F7D-AAF1-4EA7-8E1C-552DBD43987D}"/>
-    <hyperlink ref="H50" r:id="rId24" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{DEDC9493-AC68-4CAC-8AED-206065A981D6}"/>
-    <hyperlink ref="H22" r:id="rId25" xr:uid="{73686E71-4183-48D1-8FF6-6BD605F6CC84}"/>
-    <hyperlink ref="H23" r:id="rId26" display="1x Size: M3 - 30mm" xr:uid="{E8D9BE97-E2AA-4099-A0A2-491CF9787CBD}"/>
-    <hyperlink ref="H44" r:id="rId27" xr:uid="{5440A184-33B2-46D5-BCBE-310F80803EE0}"/>
-    <hyperlink ref="H12" r:id="rId28" display="M3 ss washer" xr:uid="{31BD23E3-D6D0-4964-A70C-77F7E4ABC2FF}"/>
-    <hyperlink ref="H25" r:id="rId29" xr:uid="{B86BEA58-AEFA-4A0C-9D47-1290554D129D}"/>
-    <hyperlink ref="H46" r:id="rId30" xr:uid="{9689A63E-479F-4EC1-9EAF-81B7D97AA7A7}"/>
-    <hyperlink ref="H47" r:id="rId31" xr:uid="{313CFC49-035D-48E7-B80F-0E1A9286D47E}"/>
+    <hyperlink ref="H9" r:id="rId1"/>
+    <hyperlink ref="H10" r:id="rId2" display="1x Size: 20-m3 50pcs"/>
+    <hyperlink ref="H14" r:id="rId3"/>
+    <hyperlink ref="H16" r:id="rId4"/>
+    <hyperlink ref="H17" r:id="rId5"/>
+    <hyperlink ref="H19" r:id="rId6"/>
+    <hyperlink ref="H24" r:id="rId7"/>
+    <hyperlink ref="H26" r:id="rId8"/>
+    <hyperlink ref="H27" r:id="rId9"/>
+    <hyperlink ref="H28" r:id="rId10"/>
+    <hyperlink ref="H29" r:id="rId11"/>
+    <hyperlink ref="H30" r:id="rId12"/>
+    <hyperlink ref="H31" r:id="rId13"/>
+    <hyperlink ref="H32" r:id="rId14"/>
+    <hyperlink ref="H33" r:id="rId15"/>
+    <hyperlink ref="H34" r:id="rId16"/>
+    <hyperlink ref="H36" r:id="rId17"/>
+    <hyperlink ref="H37" r:id="rId18"/>
+    <hyperlink ref="H38" r:id="rId19"/>
+    <hyperlink ref="H40" r:id="rId20"/>
+    <hyperlink ref="H11" r:id="rId21"/>
+    <hyperlink ref="H35" r:id="rId22"/>
+    <hyperlink ref="H8" r:id="rId23" display="1x Bushings 5x8x2.5"/>
+    <hyperlink ref="H49" r:id="rId24" display="1x Length 15mm - Wire 0.7 - OD 7"/>
+    <hyperlink ref="H22" r:id="rId25"/>
+    <hyperlink ref="H23" r:id="rId26" display="1x Size: M3 - 30mm"/>
+    <hyperlink ref="H44" r:id="rId27"/>
+    <hyperlink ref="H12" r:id="rId28" display="M3 ss washer"/>
+    <hyperlink ref="H25" r:id="rId29"/>
+    <hyperlink ref="H46" r:id="rId30"/>
+    <hyperlink ref="H47" r:id="rId31"/>
+    <hyperlink ref="H13" r:id="rId32"/>
+    <hyperlink ref="H15" r:id="rId33"/>
+    <hyperlink ref="H18" r:id="rId34"/>
+    <hyperlink ref="H20" r:id="rId35"/>
+    <hyperlink ref="H21" r:id="rId36"/>
+    <hyperlink ref="H39" r:id="rId37"/>
+    <hyperlink ref="H41" r:id="rId38"/>
+    <hyperlink ref="H42" r:id="rId39"/>
+    <hyperlink ref="H45" r:id="rId40"/>
+    <hyperlink ref="H48" r:id="rId41"/>
+    <hyperlink ref="I48" r:id="rId42" display="https://www.aliexpress.com/store/912301249"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId32"/>
-  <drawing r:id="rId33"/>
-  <legacyDrawing r:id="rId34"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId43"/>
+  <drawing r:id="rId44"/>
+  <legacyDrawing r:id="rId45"/>
   <tableParts count="1">
-    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId46"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_F1DD042C01B814E88A124E714CB3A3DC8630587A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEDD24B8-B1AA-4D1E-8CE2-BF2F37262E25}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="13284" activeTab="1"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
     <sheet name="Fastener List" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fastener List'!$A$7:$K$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fastener List'!$A$7:$J$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$7:$K$58</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,13 +40,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Roy Berntsen</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1">
+    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="1">
+    <comment ref="G7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="1">
+    <comment ref="H7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="1">
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="0">
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0">
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -169,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L28" authorId="0">
+    <comment ref="L28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -193,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J35" authorId="0">
+    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J43" authorId="1">
+    <comment ref="J43" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -243,12 +249,37 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Roy Berntsen</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{95B58CEE-5A9E-4209-9F94-63DF8AC10926}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Stage I is no watercooling and only passive heating for chamber. Read the Releasenote</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -298,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="297">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -1052,9 +1083,6 @@
     <t>BGS</t>
   </si>
   <si>
-    <t>NB! WORK IN PROGRESS - STAGE I Release Candidate</t>
-  </si>
-  <si>
     <t>Project Valkyrie - Stage-I</t>
   </si>
   <si>
@@ -1094,9 +1122,6 @@
     <t>Various</t>
   </si>
   <si>
-    <t>See separate sheet</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1x Duet 3 6HC</t>
   </si>
   <si>
@@ -1130,12 +1155,6 @@
     <t>M3x10 SH</t>
   </si>
   <si>
-    <t>M3x20</t>
-  </si>
-  <si>
-    <t>M3x25</t>
-  </si>
-  <si>
     <t>M3x03 Set/Grub Screw</t>
   </si>
   <si>
@@ -1148,12 +1167,6 @@
     <t>M5x30 BH</t>
   </si>
   <si>
-    <t>M5x50 HEX DIN 933 ISO 4017</t>
-  </si>
-  <si>
-    <t>M5x45 HEX DIN 933</t>
-  </si>
-  <si>
     <t>M5x55 HEX DIN 931</t>
   </si>
   <si>
@@ -1175,27 +1188,18 @@
     <t xml:space="preserve">1 x 50PCs  M3 x 3 </t>
   </si>
   <si>
-    <t>M3x08 SH CS</t>
-  </si>
-  <si>
     <t>1 x 50PCs M3 x 8mm SS</t>
   </si>
   <si>
     <t xml:space="preserve">1 x 50PCs  M3 x 10mm SS </t>
   </si>
   <si>
-    <t>1 x 50 Pcs M3 x 10 SS</t>
-  </si>
-  <si>
     <t>1 x 50 Pcs M3 x 25 SS</t>
   </si>
   <si>
     <t>1 x 5PCS M5 x 30 ss</t>
   </si>
   <si>
-    <t xml:space="preserve">1 x 10 PCs M5 x 45  </t>
-  </si>
-  <si>
     <t>50 or 60mm long ?</t>
   </si>
   <si>
@@ -1218,19 +1222,34 @@
   </si>
   <si>
     <t>Ø20 10Kg Neodiunium Magnet + washer</t>
+  </si>
+  <si>
+    <t>M3x25 SH</t>
+  </si>
+  <si>
+    <t>M3x08 FH CS</t>
+  </si>
+  <si>
+    <t>Project Valkyrie Fastener BOM</t>
+  </si>
+  <si>
+    <t>See Fastener sheet</t>
+  </si>
+  <si>
+    <t>M5x50 HEX DIN 931 ISO 4017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
-    <numFmt numFmtId="168" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="169" formatCode="[$$-409]#,##0"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1652,7 +1671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1670,11 +1689,11 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1691,27 +1710,26 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1728,75 +1746,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1806,8 +1824,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1820,47 +1838,46 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1893,7 +1910,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1959,15 +1976,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2086,7 +2095,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2152,7 +2161,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2279,15 +2288,15 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>52462</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1845469" cy="1038076"/>
+    <xdr:ext cx="1989666" cy="1119186"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,8 +2315,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="52462"/>
-          <a:ext cx="1845469" cy="1038076"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1989666" cy="1119186"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2329,13 +2338,13 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1647825" cy="926902"/>
+    <xdr:ext cx="1989666" cy="1119186"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
+        <xdr:cNvPr id="3" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31246AD7-9377-49AB-A564-3AA8A41BC8D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7682EE9C-829A-4195-A7DF-B29381CF9561}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2355,7 +2364,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1647825" cy="926902"/>
+          <a:ext cx="1989666" cy="1119186"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2369,44 +2378,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:L57" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
-  <autoFilter ref="A7:L57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A7:L57" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+  <autoFilter ref="A7:L57" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="System" dataDxfId="26"/>
-    <tableColumn id="2" name="Category" dataDxfId="25"/>
-    <tableColumn id="3" name="Part Type" dataDxfId="24"/>
-    <tableColumn id="4" name="Description" dataDxfId="23"/>
-    <tableColumn id="5" name="Cut Length mm" dataDxfId="22"/>
-    <tableColumn id="7" name="BOM Quantity" dataDxfId="21"/>
-    <tableColumn id="8" name="Pack Price $" dataDxfId="20"/>
-    <tableColumn id="9" name="Pack Order Quantity" dataDxfId="19"/>
-    <tableColumn id="10" name="Line Price $" dataDxfId="18"/>
-    <tableColumn id="11" name="Order Parts Link" dataDxfId="17"/>
-    <tableColumn id="12" name="Supplier" dataDxfId="16"/>
-    <tableColumn id="15" name="Option" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Type" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cut Length mm" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="BOM Quantity" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pack Price $" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pack Order Quantity" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Line Price $" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Order Parts Link" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Supplier" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Option" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A7:K49" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A7:K49"/>
-  <sortState ref="A8:K50">
-    <sortCondition ref="B8:B50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A7:J47" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A7:J47" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:J48">
+    <sortCondition ref="B8:B48"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="3" name="Part Type" dataDxfId="10"/>
-    <tableColumn id="4" name="Description" dataDxfId="9"/>
-    <tableColumn id="5" name="Cut Length mm" dataDxfId="8"/>
-    <tableColumn id="7" name="BOM Quantity" dataDxfId="7"/>
-    <tableColumn id="8" name="Pack Price $" dataDxfId="6"/>
-    <tableColumn id="9" name="Pack Order Quantity" dataDxfId="5"/>
-    <tableColumn id="10" name="Line Price $" dataDxfId="4"/>
-    <tableColumn id="11" name="Order Parts Link" dataDxfId="3"/>
-    <tableColumn id="12" name="Supplier" dataDxfId="2"/>
-    <tableColumn id="13" name="DIN" dataDxfId="1"/>
-    <tableColumn id="14" name="ISO" dataDxfId="0"/>
+  <tableColumns count="10">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part Type" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="BOM Quantity" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Pack Price $" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Pack Order Quantity" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Line Price $" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Order Parts Link" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Supplier" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="DIN" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ISO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2609,48 +2617,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.6">
-      <c r="A1" s="105" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
+    <row r="1" spans="1:12" ht="27">
+      <c r="A1" s="119" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -2677,82 +2685,82 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77" t="s">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A6" s="75"/>
+      <c r="B6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80">
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79">
         <f>I58</f>
-        <v>1989.26</v>
-      </c>
-      <c r="J6" s="78"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="95"/>
-    </row>
-    <row r="7" spans="1:12" s="102" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A7" s="58" t="s">
+        <v>1985.52</v>
+      </c>
+      <c r="J6" s="77"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="94"/>
+    </row>
+    <row r="7" spans="1:12" s="101" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="J7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="61" t="s">
+      <c r="L7" s="60" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="74" customFormat="1">
+    <row r="8" spans="1:12" s="73" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="61" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="28" t="s">
@@ -2770,25 +2778,25 @@
       <c r="H8" s="30">
         <v>1</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I8" s="62">
         <v>8</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="48" t="s">
+      <c r="J8" s="43"/>
+      <c r="K8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="74" customFormat="1">
+    <row r="9" spans="1:12" s="73" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -2807,26 +2815,26 @@
       <c r="H9" s="12">
         <v>1</v>
       </c>
-      <c r="I9" s="65">
+      <c r="I9" s="64">
         <f t="shared" ref="I9:I27" si="0">H9*G9</f>
         <v>9.5</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="47" t="s">
+      <c r="J9" s="42"/>
+      <c r="K9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="43" t="s">
+      <c r="L9" s="42" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="74" customFormat="1">
+    <row r="10" spans="1:12" s="73" customFormat="1">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="63" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -2844,26 +2852,26 @@
       <c r="H10" s="12">
         <v>4</v>
       </c>
-      <c r="I10" s="65">
+      <c r="I10" s="64">
         <f t="shared" si="0"/>
         <v>42.16</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="47" t="s">
+      <c r="J10" s="44"/>
+      <c r="K10" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="45" t="s">
+      <c r="L10" s="44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="74" customFormat="1">
+    <row r="11" spans="1:12" s="73" customFormat="1">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="63" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -2881,26 +2889,26 @@
       <c r="H11" s="12">
         <v>4</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="64">
         <f t="shared" si="0"/>
         <v>44.484000000000002</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="47" t="s">
+      <c r="J11" s="42"/>
+      <c r="K11" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="43" t="s">
+      <c r="L11" s="42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="74" customFormat="1">
+    <row r="12" spans="1:12" s="73" customFormat="1">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="63" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -2918,26 +2926,26 @@
       <c r="H12" s="12">
         <v>4</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="64">
         <f t="shared" si="0"/>
         <v>58.8</v>
       </c>
-      <c r="J12" s="45"/>
-      <c r="K12" s="47" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="45" t="s">
+      <c r="L12" s="44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="74" customFormat="1">
+    <row r="13" spans="1:12" s="73" customFormat="1">
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="63" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -2953,30 +2961,30 @@
       <c r="H13" s="12">
         <v>5</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="64">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="47" t="s">
+      <c r="J13" s="42"/>
+      <c r="K13" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="L13" s="42" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="74" customFormat="1">
+    <row r="14" spans="1:12" s="73" customFormat="1">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="63" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="12">
@@ -2988,19 +2996,19 @@
       <c r="H14" s="12">
         <v>1</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="64">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J14" s="103"/>
-      <c r="K14" s="47" t="s">
+      <c r="J14" s="102"/>
+      <c r="K14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="103" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="74" customFormat="1">
+      <c r="L14" s="102" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="73" customFormat="1">
       <c r="A15" s="8" t="s">
         <v>46</v>
       </c>
@@ -3025,19 +3033,19 @@
       <c r="H15" s="19">
         <v>3</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="64">
         <f>H15*G15</f>
         <v>46.8</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="47" t="s">
+      <c r="J15" s="44"/>
+      <c r="K15" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="49" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="74" customFormat="1">
+    <row r="16" spans="1:12" s="73" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
@@ -3062,19 +3070,19 @@
       <c r="H16" s="19">
         <v>2</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="64">
         <f>H16*G16</f>
         <v>35</v>
       </c>
-      <c r="J16" s="43"/>
-      <c r="K16" s="47" t="s">
+      <c r="J16" s="42"/>
+      <c r="K16" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="50" t="s">
+      <c r="L16" s="49" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="74" customFormat="1">
+    <row r="17" spans="1:12" s="73" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
@@ -3099,29 +3107,29 @@
       <c r="H17" s="19">
         <v>1</v>
       </c>
-      <c r="I17" s="65">
+      <c r="I17" s="64">
         <f>H17*G17</f>
         <v>16</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="47" t="s">
+      <c r="J17" s="42"/>
+      <c r="K17" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="49" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="74" customFormat="1" ht="15" thickBot="1">
+    <row r="18" spans="1:12" s="73" customFormat="1" ht="15.75" thickBot="1">
       <c r="A18" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="48" t="s">
         <v>228</v>
       </c>
       <c r="E18" s="33"/>
@@ -3134,26 +3142,26 @@
       <c r="H18" s="34">
         <v>1</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="66">
         <f t="shared" ref="I18" si="1">H18*G18</f>
         <v>500</v>
       </c>
-      <c r="J18" s="46" t="s">
+      <c r="J18" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="K18" s="51" t="s">
+      <c r="K18" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="46"/>
-    </row>
-    <row r="19" spans="1:12" s="74" customFormat="1">
+      <c r="L18" s="45"/>
+    </row>
+    <row r="19" spans="1:12" s="73" customFormat="1">
       <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="63" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -3171,30 +3179,30 @@
       <c r="H19" s="12">
         <v>1</v>
       </c>
-      <c r="I19" s="65">
+      <c r="I19" s="64">
         <f>H19*G19</f>
         <v>20</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>38</v>
       </c>
       <c r="L19" s="24"/>
     </row>
-    <row r="20" spans="1:12" s="74" customFormat="1">
+    <row r="20" spans="1:12" s="73" customFormat="1">
       <c r="A20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>253</v>
+      <c r="D20" s="40" t="s">
+        <v>252</v>
       </c>
       <c r="E20" s="9">
         <v>230</v>
@@ -3208,26 +3216,26 @@
       <c r="H20" s="12">
         <v>2</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="64">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="K20" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="K20" s="74" t="s">
         <v>38</v>
       </c>
       <c r="L20" s="24"/>
     </row>
-    <row r="21" spans="1:12" s="74" customFormat="1">
+    <row r="21" spans="1:12" s="73" customFormat="1">
       <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -3245,7 +3253,7 @@
       <c r="H21" s="12">
         <v>1225</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="64">
         <v>104</v>
       </c>
       <c r="J21" s="17" t="s">
@@ -3256,17 +3264,17 @@
       </c>
       <c r="L21" s="24"/>
     </row>
-    <row r="22" spans="1:12" s="74" customFormat="1">
+    <row r="22" spans="1:12" s="73" customFormat="1">
       <c r="A22" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="40" t="s">
         <v>226</v>
       </c>
       <c r="E22" s="9">
@@ -3281,28 +3289,28 @@
       <c r="H22" s="12">
         <v>1</v>
       </c>
-      <c r="I22" s="65">
+      <c r="I22" s="64">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="50" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="74" customFormat="1">
+      <c r="L22" s="49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="73" customFormat="1">
       <c r="A23" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="18" t="s">
@@ -3318,7 +3326,7 @@
       <c r="H23" s="12">
         <v>1</v>
       </c>
-      <c r="I23" s="65">
+      <c r="I23" s="64">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
@@ -3330,14 +3338,14 @@
       </c>
       <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="1:12" s="74" customFormat="1">
+    <row r="24" spans="1:12" s="73" customFormat="1">
       <c r="A24" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="63" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -3353,7 +3361,7 @@
       <c r="H24" s="12">
         <v>3</v>
       </c>
-      <c r="I24" s="65">
+      <c r="I24" s="64">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -3365,14 +3373,14 @@
       </c>
       <c r="L24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="74" customFormat="1">
+    <row r="25" spans="1:12" s="73" customFormat="1">
       <c r="A25" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="63" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -3388,7 +3396,7 @@
       <c r="H25" s="12">
         <v>2</v>
       </c>
-      <c r="I25" s="65">
+      <c r="I25" s="64">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -3400,14 +3408,14 @@
       </c>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="74" customFormat="1">
+    <row r="26" spans="1:12" s="73" customFormat="1">
       <c r="A26" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="63" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -3423,7 +3431,7 @@
       <c r="H26" s="12">
         <v>1</v>
       </c>
-      <c r="I26" s="65">
+      <c r="I26" s="64">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3435,14 +3443,14 @@
       </c>
       <c r="L26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="74" customFormat="1">
+    <row r="27" spans="1:12" s="73" customFormat="1">
       <c r="A27" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="63" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -3458,7 +3466,7 @@
       <c r="H27" s="12">
         <v>1</v>
       </c>
-      <c r="I27" s="65">
+      <c r="I27" s="64">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
@@ -3470,7 +3478,7 @@
       </c>
       <c r="L27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="74" customFormat="1">
+    <row r="28" spans="1:12" s="73" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>111</v>
       </c>
@@ -3481,7 +3489,7 @@
         <v>113</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="19">
@@ -3493,21 +3501,21 @@
       <c r="H28" s="19">
         <v>1</v>
       </c>
-      <c r="I28" s="65">
+      <c r="I28" s="64">
         <f t="shared" ref="I28:I51" si="2">H28*G28</f>
         <v>145</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="L28" s="50" t="s">
+      <c r="L28" s="49" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="74" customFormat="1">
+    <row r="29" spans="1:12" s="73" customFormat="1">
       <c r="A29" s="8" t="s">
         <v>111</v>
       </c>
@@ -3530,7 +3538,7 @@
       <c r="H29" s="19">
         <v>1</v>
       </c>
-      <c r="I29" s="65">
+      <c r="I29" s="64">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -3542,7 +3550,7 @@
       </c>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="1:12" s="74" customFormat="1">
+    <row r="30" spans="1:12" s="73" customFormat="1">
       <c r="A30" s="8" t="s">
         <v>111</v>
       </c>
@@ -3565,7 +3573,7 @@
       <c r="H30" s="19">
         <v>1</v>
       </c>
-      <c r="I30" s="65">
+      <c r="I30" s="64">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
@@ -3577,7 +3585,7 @@
       </c>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="74" customFormat="1">
+    <row r="31" spans="1:12" s="73" customFormat="1">
       <c r="A31" s="8" t="s">
         <v>111</v>
       </c>
@@ -3588,7 +3596,7 @@
         <v>123</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E31" s="9">
         <v>300</v>
@@ -3602,21 +3610,21 @@
       <c r="H31" s="19">
         <v>1</v>
       </c>
-      <c r="I31" s="65">
+      <c r="I31" s="64">
         <f t="shared" si="2"/>
         <v>78.39</v>
       </c>
-      <c r="J31" s="93" t="s">
-        <v>262</v>
+      <c r="J31" s="92" t="s">
+        <v>260</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="L31" s="50" t="s">
+      <c r="L31" s="49" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="74" customFormat="1">
+    <row r="32" spans="1:12" s="73" customFormat="1">
       <c r="A32" s="8" t="s">
         <v>111</v>
       </c>
@@ -3639,21 +3647,21 @@
       <c r="H32" s="19">
         <v>2</v>
       </c>
-      <c r="I32" s="65">
+      <c r="I32" s="64">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="J32" s="94" t="s">
-        <v>263</v>
+      <c r="J32" s="93" t="s">
+        <v>261</v>
       </c>
       <c r="K32" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L32" s="50" t="s">
+      <c r="L32" s="49" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="74" customFormat="1">
+    <row r="33" spans="1:12" s="73" customFormat="1">
       <c r="A33" s="8" t="s">
         <v>126</v>
       </c>
@@ -3676,7 +3684,7 @@
       <c r="H33" s="19">
         <v>1</v>
       </c>
-      <c r="I33" s="65">
+      <c r="I33" s="64">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -3688,7 +3696,7 @@
       </c>
       <c r="L33" s="24"/>
     </row>
-    <row r="34" spans="1:12" s="74" customFormat="1">
+    <row r="34" spans="1:12" s="73" customFormat="1">
       <c r="A34" s="8" t="s">
         <v>126</v>
       </c>
@@ -3711,21 +3719,21 @@
       <c r="H34" s="19">
         <v>1</v>
       </c>
-      <c r="I34" s="65">
+      <c r="I34" s="64">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="K34" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="L34" s="50" t="s">
+      <c r="K34" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="L34" s="49" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="74" customFormat="1">
+    <row r="35" spans="1:12" s="73" customFormat="1">
       <c r="A35" s="8" t="s">
         <v>111</v>
       </c>
@@ -3736,7 +3744,7 @@
         <v>130</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="19">
@@ -3748,19 +3756,19 @@
       <c r="H35" s="19">
         <v>1</v>
       </c>
-      <c r="I35" s="65">
+      <c r="I35" s="64">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>131</v>
       </c>
       <c r="L35" s="24"/>
     </row>
-    <row r="36" spans="1:12" s="74" customFormat="1">
+    <row r="36" spans="1:12" s="73" customFormat="1">
       <c r="A36" s="8" t="s">
         <v>126</v>
       </c>
@@ -3771,7 +3779,7 @@
         <v>133</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="19">
@@ -3783,19 +3791,19 @@
       <c r="H36" s="19">
         <v>1</v>
       </c>
-      <c r="I36" s="65">
+      <c r="I36" s="64">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J36" s="94" t="s">
-        <v>266</v>
-      </c>
-      <c r="K36" s="75" t="s">
+      <c r="J36" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="K36" s="74" t="s">
         <v>143</v>
       </c>
       <c r="L36" s="24"/>
     </row>
-    <row r="37" spans="1:12" s="74" customFormat="1">
+    <row r="37" spans="1:12" s="73" customFormat="1">
       <c r="A37" s="8" t="s">
         <v>126</v>
       </c>
@@ -3803,10 +3811,10 @@
         <v>132</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>247</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>248</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="19">
@@ -3818,19 +3826,19 @@
       <c r="H37" s="19">
         <v>1</v>
       </c>
-      <c r="I37" s="65">
+      <c r="I37" s="64">
         <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="K37" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="K37" s="74" t="s">
         <v>122</v>
       </c>
       <c r="L37" s="24"/>
     </row>
-    <row r="38" spans="1:12" s="74" customFormat="1">
+    <row r="38" spans="1:12" s="73" customFormat="1">
       <c r="A38" s="8" t="s">
         <v>126</v>
       </c>
@@ -3841,7 +3849,7 @@
         <v>132</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="19">
@@ -3853,11 +3861,11 @@
       <c r="H38" s="19">
         <v>1</v>
       </c>
-      <c r="I38" s="65">
+      <c r="I38" s="64">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J38" s="92" t="s">
+      <c r="J38" s="91" t="s">
         <v>134</v>
       </c>
       <c r="K38" s="15" t="s">
@@ -3865,7 +3873,7 @@
       </c>
       <c r="L38" s="24"/>
     </row>
-    <row r="39" spans="1:12" s="74" customFormat="1">
+    <row r="39" spans="1:12" s="73" customFormat="1">
       <c r="A39" s="8" t="s">
         <v>46</v>
       </c>
@@ -3888,7 +3896,7 @@
       <c r="H39" s="19">
         <v>1</v>
       </c>
-      <c r="I39" s="65">
+      <c r="I39" s="64">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
@@ -3900,7 +3908,7 @@
       </c>
       <c r="L39" s="24"/>
     </row>
-    <row r="40" spans="1:12" s="74" customFormat="1">
+    <row r="40" spans="1:12" s="73" customFormat="1">
       <c r="A40" s="8" t="s">
         <v>46</v>
       </c>
@@ -3923,7 +3931,7 @@
       <c r="H40" s="19">
         <v>10</v>
       </c>
-      <c r="I40" s="65">
+      <c r="I40" s="64">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
@@ -3935,7 +3943,7 @@
       </c>
       <c r="L40" s="24"/>
     </row>
-    <row r="41" spans="1:12" s="74" customFormat="1">
+    <row r="41" spans="1:12" s="73" customFormat="1">
       <c r="A41" s="8" t="s">
         <v>46</v>
       </c>
@@ -3958,7 +3966,7 @@
       <c r="H41" s="19">
         <v>5</v>
       </c>
-      <c r="I41" s="65">
+      <c r="I41" s="64">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -3970,7 +3978,7 @@
       </c>
       <c r="L41" s="24"/>
     </row>
-    <row r="42" spans="1:12" s="74" customFormat="1">
+    <row r="42" spans="1:12" s="73" customFormat="1">
       <c r="A42" s="8" t="s">
         <v>46</v>
       </c>
@@ -3993,7 +4001,7 @@
       <c r="H42" s="19">
         <v>5</v>
       </c>
-      <c r="I42" s="65">
+      <c r="I42" s="64">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -4005,7 +4013,7 @@
       </c>
       <c r="L42" s="24"/>
     </row>
-    <row r="43" spans="1:12" s="74" customFormat="1">
+    <row r="43" spans="1:12" s="73" customFormat="1">
       <c r="A43" s="8" t="s">
         <v>46</v>
       </c>
@@ -4030,7 +4038,7 @@
       <c r="H43" s="19">
         <v>3</v>
       </c>
-      <c r="I43" s="65">
+      <c r="I43" s="64">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -4042,7 +4050,7 @@
       </c>
       <c r="L43" s="24"/>
     </row>
-    <row r="44" spans="1:12" s="74" customFormat="1">
+    <row r="44" spans="1:12" s="73" customFormat="1">
       <c r="A44" s="8" t="s">
         <v>46</v>
       </c>
@@ -4065,7 +4073,7 @@
       <c r="H44" s="19">
         <v>5</v>
       </c>
-      <c r="I44" s="65">
+      <c r="I44" s="64">
         <f t="shared" si="2"/>
         <v>72.5</v>
       </c>
@@ -4077,7 +4085,7 @@
       </c>
       <c r="L44" s="25"/>
     </row>
-    <row r="45" spans="1:12" s="74" customFormat="1">
+    <row r="45" spans="1:12" s="73" customFormat="1">
       <c r="A45" s="8" t="s">
         <v>163</v>
       </c>
@@ -4100,7 +4108,7 @@
       <c r="H45" s="19">
         <v>5</v>
       </c>
-      <c r="I45" s="65">
+      <c r="I45" s="64">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
@@ -4112,7 +4120,7 @@
       </c>
       <c r="L45" s="25"/>
     </row>
-    <row r="46" spans="1:12" s="74" customFormat="1">
+    <row r="46" spans="1:12" s="73" customFormat="1">
       <c r="A46" s="8" t="s">
         <v>163</v>
       </c>
@@ -4135,7 +4143,7 @@
       <c r="H46" s="19">
         <v>5</v>
       </c>
-      <c r="I46" s="65">
+      <c r="I46" s="64">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
@@ -4147,7 +4155,7 @@
       </c>
       <c r="L46" s="25"/>
     </row>
-    <row r="47" spans="1:12" s="74" customFormat="1">
+    <row r="47" spans="1:12" s="73" customFormat="1">
       <c r="A47" s="8" t="s">
         <v>163</v>
       </c>
@@ -4172,7 +4180,7 @@
       <c r="H47" s="19">
         <v>2</v>
       </c>
-      <c r="I47" s="65">
+      <c r="I47" s="64">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
@@ -4184,7 +4192,7 @@
       </c>
       <c r="L47" s="25"/>
     </row>
-    <row r="48" spans="1:12" s="74" customFormat="1">
+    <row r="48" spans="1:12" s="73" customFormat="1">
       <c r="A48" s="8" t="s">
         <v>167</v>
       </c>
@@ -4209,7 +4217,7 @@
       <c r="H48" s="19">
         <v>1</v>
       </c>
-      <c r="I48" s="65">
+      <c r="I48" s="64">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -4221,7 +4229,7 @@
       </c>
       <c r="L48" s="25"/>
     </row>
-    <row r="49" spans="1:12" s="74" customFormat="1">
+    <row r="49" spans="1:12" s="73" customFormat="1">
       <c r="A49" s="8" t="s">
         <v>167</v>
       </c>
@@ -4244,7 +4252,7 @@
       <c r="H49" s="19">
         <v>1</v>
       </c>
-      <c r="I49" s="65">
+      <c r="I49" s="64">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -4256,7 +4264,7 @@
       </c>
       <c r="L49" s="25"/>
     </row>
-    <row r="50" spans="1:12" s="74" customFormat="1">
+    <row r="50" spans="1:12" s="73" customFormat="1">
       <c r="A50" s="8" t="s">
         <v>167</v>
       </c>
@@ -4279,7 +4287,7 @@
       <c r="H50" s="19">
         <v>1</v>
       </c>
-      <c r="I50" s="65">
+      <c r="I50" s="64">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -4291,7 +4299,7 @@
       </c>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="1:12" s="74" customFormat="1">
+    <row r="51" spans="1:12" s="73" customFormat="1">
       <c r="A51" s="8" t="s">
         <v>167</v>
       </c>
@@ -4314,7 +4322,7 @@
       <c r="H51" s="19">
         <v>1</v>
       </c>
-      <c r="I51" s="65">
+      <c r="I51" s="64">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -4326,7 +4334,7 @@
       </c>
       <c r="L51" s="25"/>
     </row>
-    <row r="52" spans="1:12" s="74" customFormat="1">
+    <row r="52" spans="1:12" s="73" customFormat="1">
       <c r="A52" s="8" t="s">
         <v>167</v>
       </c>
@@ -4350,7 +4358,7 @@
       <c r="H52" s="19">
         <v>1</v>
       </c>
-      <c r="I52" s="65">
+      <c r="I52" s="64">
         <f t="shared" ref="I52:I55" si="3">H52*G52</f>
         <v>3.96</v>
       </c>
@@ -4362,43 +4370,43 @@
       </c>
       <c r="L52" s="25"/>
     </row>
-    <row r="53" spans="1:12" s="74" customFormat="1">
-      <c r="A53" s="106" t="s">
+    <row r="53" spans="1:12" s="73" customFormat="1">
+      <c r="A53" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="106" t="s">
+      <c r="C53" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="107" t="s">
+      <c r="D53" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="E53" s="108"/>
-      <c r="F53" s="109">
-        <v>1</v>
-      </c>
-      <c r="G53" s="110">
+      <c r="E53" s="106"/>
+      <c r="F53" s="107">
+        <v>1</v>
+      </c>
+      <c r="G53" s="108">
         <f>3.11+1.67</f>
         <v>4.7799999999999994</v>
       </c>
-      <c r="H53" s="109">
-        <v>1</v>
-      </c>
-      <c r="I53" s="111">
+      <c r="H53" s="107">
+        <v>1</v>
+      </c>
+      <c r="I53" s="109">
         <f>H53*G53</f>
         <v>4.7799999999999994</v>
       </c>
-      <c r="J53" s="116" t="s">
+      <c r="J53" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="K53" s="113" t="s">
+      <c r="K53" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="L53" s="114"/>
-    </row>
-    <row r="54" spans="1:12" s="74" customFormat="1">
+      <c r="L53" s="112"/>
+    </row>
+    <row r="54" spans="1:12" s="73" customFormat="1">
       <c r="A54" s="8" t="s">
         <v>167</v>
       </c>
@@ -4422,7 +4430,7 @@
       <c r="H54" s="19">
         <v>1</v>
       </c>
-      <c r="I54" s="65">
+      <c r="I54" s="64">
         <f>H54*G54</f>
         <v>5.01</v>
       </c>
@@ -4434,42 +4442,42 @@
       </c>
       <c r="L54" s="20"/>
     </row>
-    <row r="55" spans="1:12" s="115" customFormat="1">
-      <c r="A55" s="106" t="s">
+    <row r="55" spans="1:12" s="113" customFormat="1">
+      <c r="A55" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="B55" s="107" t="s">
+      <c r="B55" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="106" t="s">
+      <c r="C55" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="D55" s="107" t="s">
+      <c r="D55" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="E55" s="108"/>
-      <c r="F55" s="109">
-        <v>1</v>
-      </c>
-      <c r="G55" s="110">
+      <c r="E55" s="106"/>
+      <c r="F55" s="107">
+        <v>1</v>
+      </c>
+      <c r="G55" s="108">
         <v>4</v>
       </c>
-      <c r="H55" s="109">
-        <v>1</v>
-      </c>
-      <c r="I55" s="111">
+      <c r="H55" s="107">
+        <v>1</v>
+      </c>
+      <c r="I55" s="109">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J55" s="112" t="s">
-        <v>283</v>
-      </c>
-      <c r="K55" s="113" t="s">
+      <c r="J55" s="110" t="s">
+        <v>277</v>
+      </c>
+      <c r="K55" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="L55" s="114"/>
-    </row>
-    <row r="56" spans="1:12" s="74" customFormat="1">
+      <c r="L55" s="112"/>
+    </row>
+    <row r="56" spans="1:12" s="73" customFormat="1">
       <c r="A56" s="8" t="s">
         <v>167</v>
       </c>
@@ -4492,7 +4500,7 @@
       <c r="H56" s="19">
         <v>1</v>
       </c>
-      <c r="I56" s="65">
+      <c r="I56" s="64">
         <f>G56*H56</f>
         <v>21.5</v>
       </c>
@@ -4504,53 +4512,53 @@
       </c>
       <c r="L56" s="26"/>
     </row>
-    <row r="57" spans="1:12" s="74" customFormat="1">
-      <c r="A57" s="83"/>
-      <c r="B57" s="84" t="s">
+    <row r="57" spans="1:12" s="73" customFormat="1">
+      <c r="A57" s="82"/>
+      <c r="B57" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="D57" s="84" t="s">
-        <v>259</v>
-      </c>
-      <c r="E57" s="86"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="87">
-        <v>1</v>
-      </c>
-      <c r="I57" s="104">
-        <f>'Fastener List'!G50</f>
-        <v>202.42</v>
-      </c>
-      <c r="J57" s="89"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="91"/>
-    </row>
-    <row r="58" spans="1:12" s="7" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A58" s="53"/>
-      <c r="B58" s="54" t="s">
+      <c r="C57" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="D57" s="83" t="s">
+        <v>295</v>
+      </c>
+      <c r="E57" s="85"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="86">
+        <v>1</v>
+      </c>
+      <c r="I57" s="103">
+        <f>'Fastener List'!F48</f>
+        <v>198.67999999999998</v>
+      </c>
+      <c r="J57" s="88"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="90"/>
+    </row>
+    <row r="58" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A58" s="52"/>
+      <c r="B58" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="60">
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="59">
         <f>SUM(I19:I57)+I18</f>
-        <v>1989.26</v>
-      </c>
-      <c r="J58" s="55"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="71"/>
+        <v>1985.52</v>
+      </c>
+      <c r="J58" s="54"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4558,59 +4566,59 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J19" r:id="rId1" display="20X20X18MM 500MM"/>
-    <hyperlink ref="J21" r:id="rId2"/>
-    <hyperlink ref="J22" r:id="rId3" display="Size: 310x310mm"/>
-    <hyperlink ref="J23" r:id="rId4"/>
-    <hyperlink ref="J24" r:id="rId5"/>
-    <hyperlink ref="J25" r:id="rId6"/>
-    <hyperlink ref="J26" r:id="rId7"/>
-    <hyperlink ref="J27" r:id="rId8"/>
-    <hyperlink ref="J28" r:id="rId9"/>
-    <hyperlink ref="J29" r:id="rId10"/>
-    <hyperlink ref="J30" r:id="rId11"/>
-    <hyperlink ref="J31" r:id="rId12" display="1x Select Color: 220V/110V"/>
-    <hyperlink ref="L32" r:id="rId13"/>
-    <hyperlink ref="J33" r:id="rId14"/>
-    <hyperlink ref="J35" r:id="rId15" display="1x 10Pcs Temperature: 160 degree"/>
-    <hyperlink ref="J36" r:id="rId16" display="Color: Dragon-Standard flow"/>
-    <hyperlink ref="J38" r:id="rId17"/>
-    <hyperlink ref="J39" r:id="rId18"/>
-    <hyperlink ref="J40" r:id="rId19"/>
-    <hyperlink ref="J41" r:id="rId20"/>
-    <hyperlink ref="J42" r:id="rId21"/>
-    <hyperlink ref="J43" r:id="rId22"/>
-    <hyperlink ref="J44" r:id="rId23"/>
-    <hyperlink ref="J48" r:id="rId24" display="Color: Buffer 14inch 35cm"/>
-    <hyperlink ref="J49" r:id="rId25"/>
-    <hyperlink ref="J50" r:id="rId26"/>
-    <hyperlink ref="J51" r:id="rId27"/>
-    <hyperlink ref="J52" r:id="rId28"/>
-    <hyperlink ref="J55" r:id="rId29" display="RepRap ONLY- 1x Humidity Sensor"/>
-    <hyperlink ref="J34" r:id="rId30"/>
-    <hyperlink ref="J56" r:id="rId31"/>
-    <hyperlink ref="J32" r:id="rId32" display="Genuine Omron Solid State Relay"/>
-    <hyperlink ref="L31" r:id="rId33" display="1x 310mm 220V 750W"/>
-    <hyperlink ref="L8" r:id="rId34" display="Color: 339 mm"/>
-    <hyperlink ref="L9" r:id="rId35"/>
-    <hyperlink ref="L10" r:id="rId36"/>
-    <hyperlink ref="L11" r:id="rId37"/>
-    <hyperlink ref="L12" r:id="rId38"/>
-    <hyperlink ref="L13" r:id="rId39" display="Color: 10pcs 2028"/>
-    <hyperlink ref="L15" r:id="rId40" display="3x GL: 350 - Color: MGN12 H"/>
-    <hyperlink ref="L16" r:id="rId41" display="2x GL: 400 - Color: MGN12 H"/>
-    <hyperlink ref="L17" r:id="rId42" display="1x GL: 400 - Color: MGN9 H"/>
-    <hyperlink ref="L28" r:id="rId43" display="1x TMC2209 x8"/>
-    <hyperlink ref="L34" r:id="rId44" display="1x ADXL345 Accelerometer"/>
-    <hyperlink ref="J45" r:id="rId45"/>
-    <hyperlink ref="J46" r:id="rId46"/>
-    <hyperlink ref="J47" r:id="rId47" display="TBD"/>
-    <hyperlink ref="J37" r:id="rId48"/>
-    <hyperlink ref="L22" r:id="rId49"/>
-    <hyperlink ref="J18" r:id="rId50"/>
-    <hyperlink ref="J53" r:id="rId51"/>
-    <hyperlink ref="J54" r:id="rId52"/>
-    <hyperlink ref="L14" r:id="rId53"/>
+    <hyperlink ref="J19" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J22" r:id="rId3" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J29" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J30" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J31" r:id="rId12" display="1x Select Color: 220V/110V" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L32" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J35" r:id="rId15" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J36" r:id="rId16" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J38" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J39" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J40" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J41" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J42" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J43" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J44" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J48" r:id="rId24" display="Color: Buffer 14inch 35cm" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J51" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J52" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J55" r:id="rId29" display="RepRap ONLY- 1x Humidity Sensor" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J56" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J32" r:id="rId32" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L31" r:id="rId33" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="L8" r:id="rId34" display="Color: 339 mm" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="L9" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L10" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="L11" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="L12" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L13" r:id="rId39" display="Color: 10pcs 2028" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L15" r:id="rId40" display="3x GL: 350 - Color: MGN12 H" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L16" r:id="rId41" display="2x GL: 400 - Color: MGN12 H" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L17" r:id="rId42" display="1x GL: 400 - Color: MGN9 H" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L28" r:id="rId43" display="1x TMC2209 x8" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="L34" r:id="rId44" display="1x ADXL345 Accelerometer" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J47" r:id="rId47" display="TBD" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J37" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="L22" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J18" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="L14" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId54"/>
@@ -4623,94 +4631,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="34.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="4" customWidth="1"/>
-    <col min="12" max="21" width="8.6640625" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="14.44140625" style="4"/>
+    <col min="2" max="2" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="4" customWidth="1"/>
+    <col min="11" max="20" width="8.7109375" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="24.6">
-      <c r="A1" s="105"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-    </row>
-    <row r="2" spans="1:21">
+    <row r="1" spans="1:20" ht="27">
+      <c r="A1" s="119" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="H2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="D2" s="5"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1"/>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" s="7" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A6" s="76" t="s">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A6" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80">
-        <f>G50</f>
-        <v>202.42</v>
-      </c>
-      <c r="H6" s="78"/>
+      <c r="F6" s="79">
+        <f>F48</f>
+        <v>198.67999999999998</v>
+      </c>
+      <c r="G6" s="77"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="96"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -4720,42 +4730,39 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="1:21" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A7" s="58" t="s">
+    </row>
+    <row r="7" spans="1:20" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="E7" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="F7" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="G7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="H7" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="I7" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="61" t="s">
+      <c r="J7" s="60" t="s">
         <v>18</v>
       </c>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -4765,1408 +4772,1307 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21">
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="8" t="s">
         <v>185</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="19">
+      <c r="C8" s="19">
         <v>2</v>
       </c>
-      <c r="E8" s="13">
+      <c r="D8" s="13">
         <f>(2.8+1.51)</f>
         <v>4.3099999999999996</v>
       </c>
-      <c r="F8" s="19">
-        <v>1</v>
-      </c>
-      <c r="G8" s="65">
-        <f>F8*E8</f>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="64">
+        <f>E8*D8</f>
         <v>4.3099999999999996</v>
       </c>
-      <c r="H8" s="93" t="s">
-        <v>269</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="G8" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="98"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="64" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="97"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="63" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9">
+      <c r="C9" s="9">
         <v>44</v>
       </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="65">
-        <f>F9*E9</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="17" t="s">
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="64">
+        <f>E9*D9</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="H9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="20">
+      <c r="I9" s="20">
         <v>934</v>
       </c>
-      <c r="K9" s="97">
+      <c r="J9" s="96">
         <v>4032</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="64" t="s">
+    <row r="10" spans="1:20">
+      <c r="A10" s="63" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9">
+      <c r="C10" s="9">
         <v>68</v>
       </c>
-      <c r="E10" s="13">
+      <c r="D10" s="13">
         <v>3</v>
       </c>
-      <c r="F10" s="19">
+      <c r="E10" s="19">
         <v>2</v>
       </c>
-      <c r="G10" s="65">
-        <f>F10*E10</f>
+      <c r="F10" s="64">
+        <f>E10*D10</f>
         <v>6</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="H10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="98"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="I10" s="16"/>
+      <c r="J10" s="97"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="19">
+        <v>266</v>
+      </c>
+      <c r="C11" s="19">
         <v>6</v>
       </c>
-      <c r="E11" s="13">
+      <c r="D11" s="13">
         <f>0.49</f>
         <v>0.49</v>
       </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="G11" s="65">
-        <f>F11*E11</f>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="64">
+        <f>E11*D11</f>
         <v>0.49</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="H11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="97">
+      <c r="I11" s="20"/>
+      <c r="J11" s="96">
         <v>10511</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="70" t="s">
+    <row r="12" spans="1:20">
+      <c r="A12" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="67">
+        <v>31</v>
+      </c>
       <c r="D12" s="68">
-        <v>31</v>
-      </c>
-      <c r="E12" s="69">
         <v>0.74</v>
       </c>
-      <c r="F12" s="68">
-        <v>1</v>
-      </c>
-      <c r="G12" s="65">
-        <f>F12*E12</f>
+      <c r="E12" s="67">
+        <v>1</v>
+      </c>
+      <c r="F12" s="64">
+        <f>E12*D12</f>
         <v>0.74</v>
       </c>
+      <c r="G12" s="38" t="s">
+        <v>219</v>
+      </c>
       <c r="H12" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="I12" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="100" t="s">
+      <c r="I12" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="K12" s="99"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="J12" s="98"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>273</v>
-      </c>
-      <c r="C13" s="42"/>
+        <v>278</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="67">
+        <v>8</v>
+      </c>
       <c r="D13" s="68">
-        <v>8</v>
-      </c>
-      <c r="E13" s="69">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F13" s="68">
-        <v>1</v>
-      </c>
-      <c r="G13" s="65">
+      <c r="E13" s="67">
+        <v>1</v>
+      </c>
+      <c r="F13" s="64">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H13" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="I13" s="40" t="s">
+      <c r="G13" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="100">
+      <c r="I13" s="99">
         <v>916</v>
       </c>
-      <c r="K13" s="99"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="64" t="s">
+      <c r="J13" s="98"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="63" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9">
+      <c r="C14" s="9">
         <v>36</v>
       </c>
-      <c r="E14" s="13">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19">
-        <v>1</v>
-      </c>
-      <c r="G14" s="65">
-        <f>F14*E14</f>
-        <v>1</v>
-      </c>
-      <c r="H14" s="17" t="s">
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="64">
+        <f>E14*D14</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="97">
+      <c r="I14" s="20"/>
+      <c r="J14" s="96">
         <v>7380</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="72" t="s">
+    <row r="15" spans="1:20">
+      <c r="A15" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9">
+      <c r="B15" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" s="9">
         <v>11</v>
       </c>
-      <c r="E15" s="13">
+      <c r="D15" s="13">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="65">
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="64">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H15" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="I15" s="75" t="s">
+      <c r="G15" s="91" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="20">
+      <c r="I15" s="20">
         <v>7991</v>
       </c>
-      <c r="K15" s="97">
+      <c r="J15" s="96">
         <v>10642</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="64" t="s">
+    <row r="16" spans="1:20">
+      <c r="A16" s="63" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9">
+      <c r="C16" s="9">
         <v>38</v>
       </c>
-      <c r="E16" s="13">
-        <v>1</v>
-      </c>
-      <c r="F16" s="19">
-        <v>1</v>
-      </c>
-      <c r="G16" s="65">
-        <f>F16*E16</f>
-        <v>1</v>
-      </c>
-      <c r="H16" s="14" t="s">
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="F16" s="64">
+        <f>E16*D16</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="H16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="16">
+      <c r="I16" s="16">
         <v>912</v>
       </c>
-      <c r="K16" s="98"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="64" t="s">
+      <c r="J16" s="97"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="63" t="s">
         <v>72</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9">
+      <c r="C17" s="9">
         <v>31</v>
       </c>
-      <c r="E17" s="13">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="65">
-        <f>F17*E17</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="17" t="s">
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="64">
+        <f>E17*D17</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="H17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="97">
+      <c r="I17" s="20"/>
+      <c r="J17" s="96">
         <v>7380</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="72" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9">
+      <c r="B18" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="9">
         <v>29</v>
       </c>
-      <c r="E18" s="13">
+      <c r="D18" s="13">
         <v>1.07</v>
       </c>
-      <c r="F18" s="19">
-        <v>1</v>
-      </c>
-      <c r="G18" s="65">
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
+      <c r="F18" s="64">
         <v>1.07</v>
       </c>
-      <c r="H18" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="I18" s="75" t="s">
+      <c r="G18" s="91" t="s">
+        <v>281</v>
+      </c>
+      <c r="H18" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="20">
+      <c r="I18" s="20">
         <v>912</v>
       </c>
-      <c r="K18" s="97">
+      <c r="J18" s="96">
         <v>4762</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="64" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="63" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9">
-        <v>5</v>
-      </c>
-      <c r="E19" s="13">
+      <c r="C19" s="9">
+        <v>11</v>
+      </c>
+      <c r="D19" s="13">
         <v>2</v>
       </c>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="65">
-        <f>F19*E19</f>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="64">
+        <f>E19*D19</f>
         <v>2</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="G19" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="H19" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="98">
+      <c r="I19" s="16"/>
+      <c r="J19" s="97">
         <v>7380</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="72" t="s">
+    <row r="20" spans="1:10">
+      <c r="A20" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="117" t="s">
-        <v>271</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13">
-        <v>2.37</v>
-      </c>
-      <c r="F20" s="19">
-        <v>1</v>
-      </c>
-      <c r="G20" s="65">
-        <v>2.37</v>
-      </c>
-      <c r="H20" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="I20" s="15" t="s">
+      <c r="B20" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="9">
+        <v>4</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="F20" s="64">
+        <f>E20*D20</f>
+        <v>1.5</v>
+      </c>
+      <c r="G20" s="91" t="s">
+        <v>282</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="16">
+      <c r="I20" s="16">
         <v>912</v>
       </c>
-      <c r="K20" s="98"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="117" t="s">
-        <v>272</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9">
-        <v>6</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="19">
-        <v>1</v>
-      </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="92" t="s">
-        <v>290</v>
-      </c>
-      <c r="I21" s="15" t="s">
+      <c r="J20" s="97"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="19">
+        <v>4</v>
+      </c>
+      <c r="D21" s="13">
+        <f>3.27</f>
+        <v>3.27</v>
+      </c>
+      <c r="E21" s="19">
+        <v>1</v>
+      </c>
+      <c r="F21" s="64">
+        <f t="shared" ref="F21:F37" si="0">E21*D21</f>
+        <v>3.27</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="16">
-        <v>912</v>
-      </c>
-      <c r="K21" s="98"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="I21" s="16"/>
+      <c r="J21" s="97"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="19">
+        <v>193</v>
+      </c>
+      <c r="C22" s="19">
         <v>4</v>
       </c>
-      <c r="E22" s="13">
-        <f>3.27</f>
-        <v>3.27</v>
-      </c>
-      <c r="F22" s="19">
-        <v>1</v>
-      </c>
-      <c r="G22" s="65">
-        <f t="shared" ref="G22:G38" si="0">F22*E22</f>
-        <v>3.27</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="98"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="19">
-        <v>4</v>
-      </c>
-      <c r="E23" s="13">
+      <c r="D22" s="13">
         <f>2.57</f>
         <v>2.57</v>
       </c>
-      <c r="F23" s="19">
-        <v>1</v>
-      </c>
-      <c r="G23" s="65">
+      <c r="E22" s="19">
+        <v>1</v>
+      </c>
+      <c r="F22" s="64">
         <f t="shared" si="0"/>
         <v>2.57</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="G22" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="H22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="97"/>
-    </row>
-    <row r="24" spans="1:11" s="38" customFormat="1">
-      <c r="A24" s="64" t="s">
+      <c r="I22" s="20"/>
+      <c r="J22" s="96"/>
+    </row>
+    <row r="23" spans="1:10" s="37" customFormat="1">
+      <c r="A23" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9">
+      <c r="C23" s="9">
         <v>3</v>
       </c>
-      <c r="E24" s="13">
+      <c r="D23" s="13">
         <v>4</v>
       </c>
-      <c r="F24" s="19">
+      <c r="E23" s="19">
         <v>3</v>
       </c>
-      <c r="G24" s="65">
+      <c r="F23" s="64">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="G23" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="H23" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="97"/>
-    </row>
-    <row r="25" spans="1:11" s="38" customFormat="1">
-      <c r="A25" s="72" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="96"/>
+    </row>
+    <row r="24" spans="1:10" s="37" customFormat="1">
+      <c r="A24" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="13">
+      <c r="B24" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13">
         <v>11</v>
       </c>
-      <c r="F25" s="19">
-        <v>1</v>
-      </c>
-      <c r="G25" s="65">
+      <c r="E24" s="19">
+        <v>1</v>
+      </c>
+      <c r="F24" s="64">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H25" s="93" t="s">
+      <c r="G24" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="H24" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="97"/>
-    </row>
-    <row r="26" spans="1:11" s="38" customFormat="1">
-      <c r="A26" s="64" t="s">
+      <c r="I24" s="20"/>
+      <c r="J24" s="96"/>
+    </row>
+    <row r="25" spans="1:10" s="37" customFormat="1">
+      <c r="A25" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9">
+      <c r="C25" s="9">
         <v>5</v>
       </c>
-      <c r="E26" s="13">
+      <c r="D25" s="13">
         <v>1.5</v>
       </c>
-      <c r="F26" s="19">
-        <v>1</v>
-      </c>
-      <c r="G26" s="65">
+      <c r="E25" s="19">
+        <v>1</v>
+      </c>
+      <c r="F25" s="64">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="G25" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="H25" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="16">
+      <c r="I25" s="16">
         <v>934</v>
       </c>
-      <c r="K26" s="98">
+      <c r="J25" s="97">
         <v>4032</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="64" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9">
+      <c r="B26" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="9">
         <v>9</v>
       </c>
-      <c r="E27" s="13">
+      <c r="D26" s="13">
         <v>1.5</v>
       </c>
-      <c r="F27" s="19">
-        <v>1</v>
-      </c>
-      <c r="G27" s="65">
+      <c r="E26" s="19">
+        <v>1</v>
+      </c>
+      <c r="F26" s="64">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="G26" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="H26" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="20">
+      <c r="I26" s="20">
         <v>985</v>
       </c>
-      <c r="K27" s="97">
+      <c r="J26" s="96">
         <v>10511</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="64" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9">
+      <c r="C27" s="9">
         <v>7</v>
       </c>
-      <c r="E28" s="13">
-        <v>1</v>
-      </c>
-      <c r="F28" s="19">
-        <v>1</v>
-      </c>
-      <c r="G28" s="65">
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1</v>
+      </c>
+      <c r="F27" s="64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="G27" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="H27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="16">
+      <c r="I27" s="16">
         <v>125</v>
       </c>
-      <c r="K28" s="98">
+      <c r="J27" s="97">
         <v>7089</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="64" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B28" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9">
+      <c r="C28" s="9">
         <v>3</v>
       </c>
-      <c r="E29" s="13">
+      <c r="D28" s="13">
         <v>2</v>
       </c>
-      <c r="F29" s="19">
-        <v>1</v>
-      </c>
-      <c r="G29" s="65">
+      <c r="E28" s="19">
+        <v>1</v>
+      </c>
+      <c r="F28" s="64">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="G28" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="H28" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="97">
+      <c r="I28" s="20"/>
+      <c r="J28" s="96">
         <v>7991</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="64" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9">
+      <c r="C29" s="9">
         <v>7</v>
       </c>
-      <c r="E30" s="13">
+      <c r="D29" s="13">
         <v>2</v>
       </c>
-      <c r="F30" s="19">
-        <v>1</v>
-      </c>
-      <c r="G30" s="65">
+      <c r="E29" s="19">
+        <v>1</v>
+      </c>
+      <c r="F29" s="64">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="G29" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="98">
+      <c r="I29" s="16"/>
+      <c r="J29" s="97">
         <v>7991</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="64" t="s">
+    <row r="30" spans="1:10">
+      <c r="A30" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9">
+      <c r="C30" s="9">
         <v>22</v>
       </c>
-      <c r="E31" s="13">
+      <c r="D30" s="13">
         <v>2</v>
       </c>
-      <c r="F31" s="19">
-        <v>1</v>
-      </c>
-      <c r="G31" s="65">
+      <c r="E30" s="19">
+        <v>1</v>
+      </c>
+      <c r="F30" s="64">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="G30" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="H30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J31" s="20">
+      <c r="I30" s="20">
         <v>934</v>
       </c>
-      <c r="K31" s="97">
+      <c r="J30" s="96">
         <v>4032</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="64" t="s">
+    <row r="31" spans="1:10">
+      <c r="A31" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9">
+      <c r="C31" s="9">
         <v>64</v>
       </c>
-      <c r="E32" s="13">
+      <c r="D31" s="13">
         <v>11</v>
       </c>
-      <c r="F32" s="19">
-        <v>1</v>
-      </c>
-      <c r="G32" s="65">
+      <c r="E31" s="19">
+        <v>1</v>
+      </c>
+      <c r="F31" s="64">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="G31" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="H31" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="98"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="64" t="s">
+      <c r="I31" s="16"/>
+      <c r="J31" s="97"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9">
+      <c r="C32" s="9">
         <v>15</v>
       </c>
-      <c r="E33" s="13">
+      <c r="D32" s="13">
         <v>2.81</v>
       </c>
-      <c r="F33" s="19">
-        <v>1</v>
-      </c>
-      <c r="G33" s="65">
+      <c r="E32" s="19">
+        <v>1</v>
+      </c>
+      <c r="F32" s="64">
         <f t="shared" si="0"/>
         <v>2.81</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="G32" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="H32" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J33" s="20">
+      <c r="I32" s="20">
         <v>985</v>
       </c>
-      <c r="K33" s="97">
+      <c r="J32" s="96">
         <v>10511</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="64" t="s">
+    <row r="33" spans="1:20">
+      <c r="A33" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9">
+      <c r="C33" s="9">
         <v>72</v>
       </c>
-      <c r="E34" s="13">
+      <c r="D33" s="13">
         <v>13.5</v>
       </c>
-      <c r="F34" s="19">
-        <v>1</v>
-      </c>
-      <c r="G34" s="65">
+      <c r="E33" s="19">
+        <v>1</v>
+      </c>
+      <c r="F33" s="64">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="G33" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="H33" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="98"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="8" t="s">
+      <c r="I33" s="16"/>
+      <c r="J33" s="97"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B34" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="19">
-        <v>1</v>
-      </c>
-      <c r="E35" s="13">
+      <c r="C34" s="19">
+        <v>1</v>
+      </c>
+      <c r="D34" s="13">
         <f>2.03+1.59</f>
         <v>3.62</v>
       </c>
-      <c r="F35" s="19">
-        <v>1</v>
-      </c>
-      <c r="G35" s="65">
+      <c r="E34" s="19">
+        <v>1</v>
+      </c>
+      <c r="F34" s="64">
         <f t="shared" si="0"/>
         <v>3.62</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="G34" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="H34" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="97"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="64" t="s">
+      <c r="I34" s="20"/>
+      <c r="J34" s="96"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9">
+      <c r="C35" s="9">
         <v>141</v>
       </c>
-      <c r="E36" s="13">
+      <c r="D35" s="13">
         <v>1.28</v>
       </c>
-      <c r="F36" s="19">
+      <c r="E35" s="19">
         <v>2</v>
       </c>
-      <c r="G36" s="65">
+      <c r="F35" s="64">
         <f t="shared" si="0"/>
         <v>2.56</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="G35" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="H35" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J36" s="20">
+      <c r="I35" s="20">
         <v>125</v>
       </c>
-      <c r="K36" s="97">
+      <c r="J35" s="96">
         <v>7089</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="64" t="s">
+    <row r="36" spans="1:20">
+      <c r="A36" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9">
+      <c r="C36" s="9">
         <v>141</v>
       </c>
-      <c r="E37" s="13">
+      <c r="D36" s="13">
         <v>2.69</v>
       </c>
-      <c r="F37" s="19">
+      <c r="E36" s="19">
         <v>15</v>
       </c>
-      <c r="G37" s="65">
+      <c r="F36" s="64">
         <f t="shared" si="0"/>
         <v>40.35</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="G36" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="H36" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="98">
+      <c r="I36" s="16"/>
+      <c r="J36" s="97">
         <v>7380</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="64" t="s">
+    <row r="37" spans="1:20">
+      <c r="A37" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9">
+      <c r="C37" s="9">
         <v>9</v>
       </c>
-      <c r="E38" s="13">
+      <c r="D37" s="13">
         <v>8</v>
       </c>
-      <c r="F38" s="21">
-        <v>1</v>
-      </c>
-      <c r="G38" s="65">
+      <c r="E37" s="21">
+        <v>1</v>
+      </c>
+      <c r="F37" s="64">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H38" s="17" t="s">
+      <c r="G37" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="H37" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="97">
+      <c r="I37" s="20"/>
+      <c r="J37" s="96">
         <v>7380</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="72" t="s">
+    <row r="38" spans="1:20">
+      <c r="A38" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="118" t="s">
-        <v>276</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9">
+      <c r="B38" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="9">
         <v>4</v>
       </c>
-      <c r="E39" s="13">
+      <c r="D38" s="13">
         <v>1.64</v>
       </c>
-      <c r="F39" s="21">
-        <v>1</v>
-      </c>
-      <c r="G39" s="65">
+      <c r="E38" s="21">
+        <v>1</v>
+      </c>
+      <c r="F38" s="64">
         <v>1.64</v>
       </c>
-      <c r="H39" s="92" t="s">
-        <v>291</v>
-      </c>
-      <c r="I39" s="15" t="s">
+      <c r="G38" s="91" t="s">
+        <v>283</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="97">
+      <c r="I38" s="20"/>
+      <c r="J38" s="96">
         <v>7380</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="64" t="s">
+    <row r="39" spans="1:20">
+      <c r="A39" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9">
+      <c r="C39" s="9">
         <v>5</v>
       </c>
-      <c r="E40" s="13">
+      <c r="D39" s="13">
         <v>2.57</v>
       </c>
-      <c r="F40" s="21">
-        <v>1</v>
-      </c>
-      <c r="G40" s="65">
-        <f>F40*E40</f>
+      <c r="E39" s="21">
+        <v>1</v>
+      </c>
+      <c r="F39" s="64">
+        <f>E39*D39</f>
         <v>2.57</v>
       </c>
-      <c r="H40" s="17" t="s">
+      <c r="G39" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="H39" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J40" s="16">
-        <v>933</v>
-      </c>
-      <c r="K40" s="98">
-        <v>4017</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="72" t="s">
+      <c r="I39" s="16">
+        <v>931</v>
+      </c>
+      <c r="J39" s="97"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9">
-        <v>4</v>
-      </c>
-      <c r="E41" s="13">
-        <v>2.87</v>
-      </c>
-      <c r="F41" s="21">
-        <v>1</v>
-      </c>
-      <c r="G41" s="65">
-        <v>2.87</v>
-      </c>
-      <c r="H41" s="92" t="s">
-        <v>292</v>
-      </c>
-      <c r="I41" s="15" t="s">
+      <c r="B40" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="C40" s="9">
+        <v>15</v>
+      </c>
+      <c r="D40" s="13">
+        <v>3.04</v>
+      </c>
+      <c r="E40" s="21">
+        <v>2</v>
+      </c>
+      <c r="F40" s="64">
+        <f t="shared" ref="F40" si="1">E40*D40</f>
+        <v>6.08</v>
+      </c>
+      <c r="G40" s="91" t="s">
+        <v>285</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J41" s="16">
-        <v>933</v>
-      </c>
-      <c r="K41" s="98"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="72" t="s">
+      <c r="I40" s="16">
+        <v>931</v>
+      </c>
+      <c r="J40" s="97"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9">
-        <v>11</v>
-      </c>
-      <c r="E42" s="13">
-        <v>3.04</v>
-      </c>
-      <c r="F42" s="21">
+      <c r="B41" s="116" t="s">
+        <v>273</v>
+      </c>
+      <c r="C41" s="9">
+        <v>3</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="16">
+        <v>931</v>
+      </c>
+      <c r="J41" s="97"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="19">
+        <v>33</v>
+      </c>
+      <c r="D42" s="13">
+        <v>16</v>
+      </c>
+      <c r="E42" s="19">
+        <v>1</v>
+      </c>
+      <c r="F42" s="64">
+        <f>E42*D42</f>
+        <v>16</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I42" s="20"/>
+      <c r="J42" s="96"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="19">
+        <v>1</v>
+      </c>
+      <c r="D43" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="E43" s="19">
+        <v>1</v>
+      </c>
+      <c r="F43" s="64">
+        <v>9.5</v>
+      </c>
+      <c r="G43" s="93" t="s">
+        <v>286</v>
+      </c>
+      <c r="H43" s="74" t="s">
+        <v>287</v>
+      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="96"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="12">
+        <v>3</v>
+      </c>
+      <c r="D44" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="E44" s="12">
         <v>2</v>
       </c>
-      <c r="G42" s="65">
-        <f t="shared" ref="G42" si="1">F42*E42</f>
-        <v>6.08</v>
-      </c>
-      <c r="H42" s="92" t="s">
-        <v>294</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J42" s="16">
-        <v>933</v>
-      </c>
-      <c r="K42" s="98"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="119" t="s">
-        <v>279</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9">
+      <c r="F44" s="64">
+        <f t="shared" ref="F44:F45" si="2">E44*D44</f>
+        <v>5</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="96"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="19">
         <v>3</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="93" t="s">
-        <v>293</v>
-      </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="98"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="19">
-        <v>33</v>
-      </c>
-      <c r="E44" s="13">
-        <v>16</v>
-      </c>
-      <c r="F44" s="19">
-        <v>1</v>
-      </c>
-      <c r="G44" s="65">
-        <f>F44*E44</f>
-        <v>16</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="J44" s="20"/>
-      <c r="K44" s="97"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="19">
-        <v>1</v>
-      </c>
-      <c r="E45" s="13">
-        <v>9.5</v>
-      </c>
-      <c r="F45" s="19">
-        <v>1</v>
-      </c>
-      <c r="G45" s="65">
-        <v>9.5</v>
-      </c>
-      <c r="H45" s="94" t="s">
-        <v>295</v>
-      </c>
-      <c r="I45" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="J45" s="20"/>
-      <c r="K45" s="97"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="12">
-        <v>3</v>
-      </c>
-      <c r="E46" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="F46" s="12">
-        <v>2</v>
-      </c>
-      <c r="G46" s="65">
-        <f t="shared" ref="G46:G47" si="2">F46*E46</f>
-        <v>5</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J46" s="20"/>
-      <c r="K46" s="97"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="19">
-        <v>3</v>
-      </c>
-      <c r="E47" s="13">
+      <c r="D45" s="13">
         <v>4.5</v>
       </c>
-      <c r="F47" s="19">
-        <v>1</v>
-      </c>
-      <c r="G47" s="65">
+      <c r="E45" s="19">
+        <v>1</v>
+      </c>
+      <c r="F45" s="64">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="H47" s="17" t="s">
+      <c r="G45" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="H45" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="J47" s="20"/>
-      <c r="K47" s="97"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="22" t="s">
+      <c r="I45" s="20"/>
+      <c r="J45" s="96"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="19">
+      <c r="B46" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C46" s="19">
         <v>6</v>
       </c>
-      <c r="E48" s="13">
+      <c r="D46" s="13">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F48" s="120" t="s">
-        <v>298</v>
-      </c>
-      <c r="G48" s="65">
+      <c r="E46" s="117" t="s">
+        <v>289</v>
+      </c>
+      <c r="F46" s="64">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H48" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="I48" s="121" t="s">
-        <v>299</v>
-      </c>
-      <c r="J48" s="20"/>
-      <c r="K48" s="97"/>
-    </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="8" t="s">
+      <c r="G46" s="91" t="s">
+        <v>288</v>
+      </c>
+      <c r="H46" s="118" t="s">
+        <v>290</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="96"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B47" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="19">
-        <v>1</v>
-      </c>
-      <c r="E49" s="13">
+      <c r="C47" s="19">
+        <v>1</v>
+      </c>
+      <c r="D47" s="13">
         <f>1.72</f>
         <v>1.72</v>
       </c>
-      <c r="F49" s="19">
-        <v>1</v>
-      </c>
-      <c r="G49" s="65">
-        <f>F49*E49</f>
+      <c r="E47" s="19">
+        <v>1</v>
+      </c>
+      <c r="F47" s="64">
+        <f>E47*D47</f>
         <v>1.72</v>
       </c>
-      <c r="H49" s="17" t="s">
+      <c r="G47" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="H47" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="J49" s="20"/>
-      <c r="K49" s="97"/>
-    </row>
-    <row r="50" spans="1:21" s="7" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A50" s="53" t="s">
+      <c r="I47" s="20"/>
+      <c r="J47" s="96"/>
+    </row>
+    <row r="48" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A48" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B48" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="60">
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="59">
         <f>SUBTOTAL(109,Table13[Line Price $])</f>
-        <v>202.42</v>
-      </c>
-      <c r="H50" s="55"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
+        <v>198.67999999999998</v>
+      </c>
+      <c r="G48" s="54"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1"/>
-    <hyperlink ref="H10" r:id="rId2" display="1x Size: 20-m3 50pcs"/>
-    <hyperlink ref="H14" r:id="rId3"/>
-    <hyperlink ref="H16" r:id="rId4"/>
-    <hyperlink ref="H17" r:id="rId5"/>
-    <hyperlink ref="H19" r:id="rId6"/>
-    <hyperlink ref="H24" r:id="rId7"/>
-    <hyperlink ref="H26" r:id="rId8"/>
-    <hyperlink ref="H27" r:id="rId9"/>
-    <hyperlink ref="H28" r:id="rId10"/>
-    <hyperlink ref="H29" r:id="rId11"/>
-    <hyperlink ref="H30" r:id="rId12"/>
-    <hyperlink ref="H31" r:id="rId13"/>
-    <hyperlink ref="H32" r:id="rId14"/>
-    <hyperlink ref="H33" r:id="rId15"/>
-    <hyperlink ref="H34" r:id="rId16"/>
-    <hyperlink ref="H36" r:id="rId17"/>
-    <hyperlink ref="H37" r:id="rId18"/>
-    <hyperlink ref="H38" r:id="rId19"/>
-    <hyperlink ref="H40" r:id="rId20"/>
-    <hyperlink ref="H11" r:id="rId21"/>
-    <hyperlink ref="H35" r:id="rId22"/>
-    <hyperlink ref="H8" r:id="rId23" display="1x Bushings 5x8x2.5"/>
-    <hyperlink ref="H49" r:id="rId24" display="1x Length 15mm - Wire 0.7 - OD 7"/>
-    <hyperlink ref="H22" r:id="rId25"/>
-    <hyperlink ref="H23" r:id="rId26" display="1x Size: M3 - 30mm"/>
-    <hyperlink ref="H44" r:id="rId27"/>
-    <hyperlink ref="H12" r:id="rId28" display="M3 ss washer"/>
-    <hyperlink ref="H25" r:id="rId29"/>
-    <hyperlink ref="H46" r:id="rId30"/>
-    <hyperlink ref="H47" r:id="rId31"/>
-    <hyperlink ref="H13" r:id="rId32"/>
-    <hyperlink ref="H15" r:id="rId33"/>
-    <hyperlink ref="H18" r:id="rId34"/>
-    <hyperlink ref="H20" r:id="rId35"/>
-    <hyperlink ref="H21" r:id="rId36"/>
-    <hyperlink ref="H39" r:id="rId37"/>
-    <hyperlink ref="H41" r:id="rId38"/>
-    <hyperlink ref="H42" r:id="rId39"/>
-    <hyperlink ref="H45" r:id="rId40"/>
-    <hyperlink ref="H48" r:id="rId41"/>
-    <hyperlink ref="I48" r:id="rId42" display="https://www.aliexpress.com/store/912301249"/>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G10" r:id="rId2" display="1x Size: 20-m3 50pcs" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="G14" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="G16" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="G17" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="G19" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="G23" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="G25" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="G26" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="G27" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="G28" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="G29" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="G30" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="G31" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="G32" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="G33" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="G35" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="G36" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="G37" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="G39" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="G11" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="G34" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="G8" r:id="rId23" display="1x Bushings 5x8x2.5" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="G47" r:id="rId24" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="G21" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="G22" r:id="rId26" display="1x Size: M3 - 30mm" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="G42" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="G12" r:id="rId28" display="M3 ss washer" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="G24" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="G44" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="G45" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="G13" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="G15" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="G18" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="G20" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="G38" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="G40" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="G43" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="G46" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="H46" r:id="rId40" display="https://www.aliexpress.com/store/912301249" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId43"/>
-  <drawing r:id="rId44"/>
-  <legacyDrawing r:id="rId45"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId41"/>
+  <drawing r:id="rId42"/>
+  <legacyDrawing r:id="rId43"/>
   <tableParts count="1">
-    <tablePart r:id="rId46"/>
+    <tablePart r:id="rId44"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_F1DD042C01B814E88A124E714CB3A3DC8630587A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEDD24B8-B1AA-4D1E-8CE2-BF2F37262E25}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_F1DD042C01B814E88A124E714CB3A3DC8630587A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{085EE319-C968-4594-B2E9-8C0522A16D47}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="296">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -1167,9 +1167,6 @@
     <t>M5x30 BH</t>
   </si>
   <si>
-    <t>M5x55 HEX DIN 931</t>
-  </si>
-  <si>
     <t>M8x380 Silver Steel Rod - Door Link</t>
   </si>
   <si>
@@ -1200,9 +1197,6 @@
     <t>1 x 5PCS M5 x 30 ss</t>
   </si>
   <si>
-    <t>50 or 60mm long ?</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 x 10 PCs M5 x 50  </t>
   </si>
   <si>
@@ -1236,7 +1230,10 @@
     <t>See Fastener sheet</t>
   </si>
   <si>
-    <t>M5x50 HEX DIN 931 ISO 4017</t>
+    <t>M4x50 CS DIN 7991 ISO 10642</t>
+  </si>
+  <si>
+    <t>M5x50 HEX DIN 933</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1861,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1872,6 +1868,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2645,20 +2642,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -2984,7 +2981,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="12">
@@ -3005,7 +3002,7 @@
         <v>24</v>
       </c>
       <c r="L14" s="102" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="73" customFormat="1">
@@ -4470,7 +4467,7 @@
         <v>4</v>
       </c>
       <c r="J55" s="110" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K55" s="111" t="s">
         <v>184</v>
@@ -4521,7 +4518,7 @@
         <v>257</v>
       </c>
       <c r="D57" s="83" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E57" s="85"/>
       <c r="F57" s="86"/>
@@ -4639,7 +4636,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -4659,19 +4656,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27">
-      <c r="A1" s="119" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
+      <c r="A1" s="118" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="5"/>
@@ -4930,7 +4927,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B13" s="72" t="s">
         <v>269</v>
@@ -4948,7 +4945,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>50</v>
@@ -4994,7 +4991,7 @@
         <v>72</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C15" s="9">
         <v>11</v>
@@ -5009,7 +5006,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G15" s="91" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H15" s="74" t="s">
         <v>50</v>
@@ -5103,7 +5100,7 @@
         <v>1.07</v>
       </c>
       <c r="G18" s="91" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H18" s="74" t="s">
         <v>50</v>
@@ -5151,7 +5148,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C20" s="9">
         <v>4</v>
@@ -5167,7 +5164,7 @@
         <v>1.5</v>
       </c>
       <c r="G20" s="91" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>50</v>
@@ -5195,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="64">
-        <f t="shared" ref="F21:F37" si="0">E21*D21</f>
+        <f t="shared" ref="F21:F38" si="0">E21*D21</f>
         <v>3.27</v>
       </c>
       <c r="G21" s="14" t="s">
@@ -5420,9 +5417,11 @@
       <c r="H28" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="20">
+        <v>7991</v>
+      </c>
       <c r="J28" s="96">
-        <v>7991</v>
+        <v>10642</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5451,227 +5450,216 @@
       <c r="H29" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="16"/>
+      <c r="I29" s="16">
+        <v>7991</v>
+      </c>
       <c r="J29" s="97">
-        <v>7991</v>
+        <v>10642</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>93</v>
+        <v>72</v>
+      </c>
+      <c r="B30" s="119" t="s">
+        <v>294</v>
       </c>
       <c r="C30" s="9">
-        <v>22</v>
-      </c>
-      <c r="D30" s="13">
-        <v>2</v>
-      </c>
-      <c r="E30" s="19">
-        <v>1</v>
-      </c>
-      <c r="F30" s="64">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="20">
-        <v>934</v>
-      </c>
-      <c r="J30" s="96">
-        <v>4032</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="97"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="63" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C31" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D31" s="13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E31" s="19">
         <v>1</v>
       </c>
       <c r="F31" s="64">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="97"/>
+      <c r="I31" s="20">
+        <v>934</v>
+      </c>
+      <c r="J31" s="96">
+        <v>4032</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="63" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C32" s="9">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D32" s="13">
-        <v>2.81</v>
+        <v>11</v>
       </c>
       <c r="E32" s="19">
         <v>1</v>
       </c>
       <c r="F32" s="64">
         <f t="shared" si="0"/>
-        <v>2.81</v>
+        <v>11</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I32" s="20">
-        <v>985</v>
-      </c>
-      <c r="J32" s="96">
-        <v>10511</v>
-      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="97"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="63" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="C33" s="9">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D33" s="13">
-        <v>13.5</v>
+        <v>2.81</v>
       </c>
       <c r="E33" s="19">
         <v>1</v>
       </c>
       <c r="F33" s="64">
         <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>99</v>
+        <v>2.81</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="97"/>
+      <c r="I33" s="20">
+        <v>985</v>
+      </c>
+      <c r="J33" s="96">
+        <v>10511</v>
+      </c>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="9">
+        <v>72</v>
+      </c>
+      <c r="D34" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="E34" s="19">
+        <v>1</v>
+      </c>
+      <c r="F34" s="64">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="97"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B35" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="19">
-        <v>1</v>
-      </c>
-      <c r="D34" s="13">
+      <c r="C35" s="19">
+        <v>1</v>
+      </c>
+      <c r="D35" s="13">
         <f>2.03+1.59</f>
         <v>3.62</v>
       </c>
-      <c r="E34" s="19">
-        <v>1</v>
-      </c>
-      <c r="F34" s="64">
+      <c r="E35" s="19">
+        <v>1</v>
+      </c>
+      <c r="F35" s="64">
         <f t="shared" si="0"/>
         <v>3.62</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G35" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H35" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="96"/>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="63" t="s">
+      <c r="I35" s="20"/>
+      <c r="J35" s="96"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C36" s="9">
         <v>141</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <v>1.28</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E36" s="19">
         <v>2</v>
       </c>
-      <c r="F35" s="64">
+      <c r="F36" s="64">
         <f t="shared" si="0"/>
         <v>2.56</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G36" s="17" t="s">
         <v>101</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" s="20">
-        <v>125</v>
-      </c>
-      <c r="J35" s="96">
-        <v>7089</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="9">
-        <v>141</v>
-      </c>
-      <c r="D36" s="13">
-        <v>2.69</v>
-      </c>
-      <c r="E36" s="19">
-        <v>15</v>
-      </c>
-      <c r="F36" s="64">
-        <f t="shared" si="0"/>
-        <v>40.35</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>103</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="97">
-        <v>7380</v>
+      <c r="I36" s="20">
+        <v>125</v>
+      </c>
+      <c r="J36" s="96">
+        <v>7089</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -5679,56 +5667,57 @@
         <v>72</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" s="9">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="D37" s="13">
-        <v>8</v>
-      </c>
-      <c r="E37" s="21">
-        <v>1</v>
+        <v>2.69</v>
+      </c>
+      <c r="E37" s="19">
+        <v>15</v>
       </c>
       <c r="F37" s="64">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>105</v>
+        <v>40.35</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="96">
+      <c r="I37" s="16"/>
+      <c r="J37" s="97">
         <v>7380</v>
       </c>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="115" t="s">
-        <v>272</v>
+      <c r="B38" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="C38" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D38" s="13">
-        <v>1.64</v>
+        <v>8</v>
       </c>
       <c r="E38" s="21">
         <v>1</v>
       </c>
       <c r="F38" s="64">
-        <v>1.64</v>
-      </c>
-      <c r="G38" s="91" t="s">
-        <v>283</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="96">
@@ -5736,64 +5725,63 @@
       </c>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" s="9">
+        <v>4</v>
+      </c>
+      <c r="D39" s="13">
+        <v>1.64</v>
+      </c>
+      <c r="E39" s="21">
+        <v>1</v>
+      </c>
+      <c r="F39" s="64">
+        <v>1.64</v>
+      </c>
+      <c r="G39" s="91" t="s">
+        <v>282</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="96">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B40" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C40" s="9">
         <v>5</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <v>2.57</v>
       </c>
-      <c r="E39" s="21">
-        <v>1</v>
-      </c>
-      <c r="F39" s="64">
-        <f>E39*D39</f>
+      <c r="E40" s="21">
+        <v>1</v>
+      </c>
+      <c r="F40" s="64">
+        <f>E40*D40</f>
         <v>2.57</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G40" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I39" s="16">
-        <v>931</v>
-      </c>
-      <c r="J39" s="97"/>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="C40" s="9">
-        <v>15</v>
-      </c>
-      <c r="D40" s="13">
-        <v>3.04</v>
-      </c>
-      <c r="E40" s="21">
-        <v>2</v>
-      </c>
-      <c r="F40" s="64">
-        <f t="shared" ref="F40" si="1">E40*D40</f>
-        <v>6.08</v>
-      </c>
-      <c r="G40" s="91" t="s">
-        <v>285</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>50</v>
       </c>
       <c r="I40" s="16">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="J40" s="97"/>
     </row>
@@ -5801,21 +5789,30 @@
       <c r="A41" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="116" t="s">
-        <v>273</v>
+      <c r="B41" s="37" t="s">
+        <v>295</v>
       </c>
       <c r="C41" s="9">
-        <v>3</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="92" t="s">
-        <v>284</v>
-      </c>
-      <c r="H41" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="D41" s="13">
+        <v>3.04</v>
+      </c>
+      <c r="E41" s="21">
+        <v>2</v>
+      </c>
+      <c r="F41" s="64">
+        <f t="shared" ref="F41" si="1">E41*D41</f>
+        <v>6.08</v>
+      </c>
+      <c r="G41" s="91" t="s">
+        <v>283</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="I41" s="16">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="J41" s="97"/>
     </row>
@@ -5853,7 +5850,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C43" s="19">
         <v>1</v>
@@ -5868,10 +5865,10 @@
         <v>9.5</v>
       </c>
       <c r="G43" s="93" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H43" s="74" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="96"/>
@@ -5939,7 +5936,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C46" s="19">
         <v>6</v>
@@ -5947,17 +5944,17 @@
       <c r="D46" s="13">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E46" s="117" t="s">
-        <v>289</v>
+      <c r="E46" s="116" t="s">
+        <v>287</v>
       </c>
       <c r="F46" s="64">
         <v>9.1999999999999993</v>
       </c>
       <c r="G46" s="91" t="s">
+        <v>286</v>
+      </c>
+      <c r="H46" s="117" t="s">
         <v>288</v>
-      </c>
-      <c r="H46" s="118" t="s">
-        <v>290</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="96"/>
@@ -6038,16 +6035,16 @@
     <hyperlink ref="G27" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
     <hyperlink ref="G28" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="G29" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="G30" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="G31" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="G32" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="G33" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="G35" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="G36" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="G37" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="G39" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="G31" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="G32" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="G33" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="G34" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="G36" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="G37" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="G38" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="G40" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
     <hyperlink ref="G11" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="G34" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="G35" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
     <hyperlink ref="G8" r:id="rId23" display="1x Bushings 5x8x2.5" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
     <hyperlink ref="G47" r:id="rId24" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
     <hyperlink ref="G21" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
@@ -6061,8 +6058,8 @@
     <hyperlink ref="G15" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
     <hyperlink ref="G18" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
     <hyperlink ref="G20" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="G38" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="G40" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="G39" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="G41" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
     <hyperlink ref="G43" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
     <hyperlink ref="G46" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
     <hyperlink ref="H46" r:id="rId40" display="https://www.aliexpress.com/store/912301249" xr:uid="{00000000-0004-0000-0100-000029000000}"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_F1DD042C01B814E88A124E714CB3A3DC8630587A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{085EE319-C968-4594-B2E9-8C0522A16D47}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="13284" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fastener List'!$A$7:$J$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$7:$K$58</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,13 +34,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Roy Berntsen</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Roy Berntsen:</t>
         </r>
@@ -63,20 +57,21 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Stage I is no watercooling and only passive heating for chamber. Read the Releasenote</t>
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F7" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAWv-ECBQ
@@ -85,13 +80,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G7" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAWv-ECBY
@@ -100,13 +96,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H7" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAWv-ECBU
@@ -115,19 +112,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E8" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>NB! ASK FOR PRECISION CUT TO THESE SIZES!</t>
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="J18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="J22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +157,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Roy Berntsen:</t>
         </r>
@@ -168,14 +166,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 130C temp limit</t>
         </r>
       </text>
     </comment>
-    <comment ref="L28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="L28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +205,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Roy Berntsen:</t>
         </r>
@@ -216,20 +214,21 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Choose sujited fuse temp for your system</t>
         </r>
       </text>
     </comment>
-    <comment ref="J43" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J43" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Bore Diameter:
 20T(5mm)-80T(5mm)
@@ -249,13 +248,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Roy Berntsen</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{95B58CEE-5A9E-4209-9F94-63DF8AC10926}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +262,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Roy Berntsen:</t>
         </r>
@@ -272,20 +271,21 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Stage I is no watercooling and only passive heating for chamber. Read the Releasenote</t>
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C7" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAWv-ECBQ
@@ -294,13 +294,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="D7" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAWv-ECBY
@@ -309,13 +310,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="E7" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAWv-ECBU
@@ -329,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="297">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -1230,25 +1232,28 @@
     <t>See Fastener sheet</t>
   </si>
   <si>
-    <t>M4x50 CS DIN 7991 ISO 10642</t>
-  </si>
-  <si>
     <t>M5x50 HEX DIN 933</t>
+  </si>
+  <si>
+    <t>1 x 20 PCs  M4 x 50 SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M4x50 CS </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
-    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
-    <numFmt numFmtId="169" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="[$$-409]#,##0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1259,23 +1264,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1287,6 +1296,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1332,19 +1342,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1405,7 +1402,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1421,6 +1418,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,11 +1689,11 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1707,26 +1710,26 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1743,86 +1746,86 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1832,43 +1835,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1907,7 +1910,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1973,7 +1976,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2092,7 +2095,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2158,7 +2161,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2293,7 +2296,7 @@
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2344,7 @@
         <xdr:cNvPr id="3" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7682EE9C-829A-4195-A7DF-B29381CF9561}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7682EE9C-829A-4195-A7DF-B29381CF9561}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,43 +2378,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A7:L57" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
-  <autoFilter ref="A7:L57" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:L57" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+  <autoFilter ref="A7:L57"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Type" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cut Length mm" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="BOM Quantity" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pack Price $" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pack Order Quantity" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Line Price $" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Order Parts Link" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Supplier" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Option" dataDxfId="14"/>
+    <tableColumn id="1" name="System" dataDxfId="25"/>
+    <tableColumn id="2" name="Category" dataDxfId="24"/>
+    <tableColumn id="3" name="Part Type" dataDxfId="23"/>
+    <tableColumn id="4" name="Description" dataDxfId="22"/>
+    <tableColumn id="5" name="Cut Length mm" dataDxfId="21"/>
+    <tableColumn id="7" name="BOM Quantity" dataDxfId="20"/>
+    <tableColumn id="8" name="Pack Price $" dataDxfId="19"/>
+    <tableColumn id="9" name="Pack Order Quantity" dataDxfId="18"/>
+    <tableColumn id="10" name="Line Price $" dataDxfId="17"/>
+    <tableColumn id="11" name="Order Parts Link" dataDxfId="16"/>
+    <tableColumn id="12" name="Supplier" dataDxfId="15"/>
+    <tableColumn id="15" name="Option" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A7:J47" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A7:J47" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:J48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A7:J47" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A7:J47"/>
+  <sortState ref="A8:J48">
     <sortCondition ref="B8:B48"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part Type" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Description" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="BOM Quantity" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Pack Price $" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Pack Order Quantity" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Line Price $" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Order Parts Link" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Supplier" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="DIN" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ISO" dataDxfId="0"/>
+    <tableColumn id="3" name="Part Type" dataDxfId="9"/>
+    <tableColumn id="4" name="Description" dataDxfId="8"/>
+    <tableColumn id="7" name="BOM Quantity" dataDxfId="7"/>
+    <tableColumn id="8" name="Pack Price $" dataDxfId="6"/>
+    <tableColumn id="9" name="Pack Order Quantity" dataDxfId="5"/>
+    <tableColumn id="10" name="Line Price $" dataDxfId="4"/>
+    <tableColumn id="11" name="Order Parts Link" dataDxfId="3"/>
+    <tableColumn id="12" name="Supplier" dataDxfId="2"/>
+    <tableColumn id="13" name="DIN" dataDxfId="1"/>
+    <tableColumn id="14" name="ISO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2614,7 +2617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2625,23 +2628,23 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27">
+    <row r="1" spans="1:12" ht="24.6">
       <c r="A1" s="118" t="s">
         <v>245</v>
       </c>
@@ -2682,14 +2685,14 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="15" thickBot="1">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="16.2" thickBot="1">
       <c r="A6" s="75"/>
       <c r="B6" s="76" t="s">
         <v>4</v>
@@ -3116,7 +3119,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="73" customFormat="1" ht="15.75" thickBot="1">
+    <row r="18" spans="1:12" s="73" customFormat="1" ht="15" thickBot="1">
       <c r="A18" s="32" t="s">
         <v>20</v>
       </c>
@@ -4534,7 +4537,7 @@
       <c r="K57" s="89"/>
       <c r="L57" s="90"/>
     </row>
-    <row r="58" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
+    <row r="58" spans="1:12" s="7" customFormat="1" ht="16.2" thickBot="1">
       <c r="A58" s="52"/>
       <c r="B58" s="53" t="s">
         <v>4</v>
@@ -4561,61 +4564,61 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J19" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J22" r:id="rId3" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J29" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J30" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J31" r:id="rId12" display="1x Select Color: 220V/110V" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L32" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J35" r:id="rId15" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J36" r:id="rId16" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J38" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J39" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J40" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J41" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J42" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J43" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J44" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J48" r:id="rId24" display="Color: Buffer 14inch 35cm" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J51" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J52" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J55" r:id="rId29" display="RepRap ONLY- 1x Humidity Sensor" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J56" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J32" r:id="rId32" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="L31" r:id="rId33" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="L8" r:id="rId34" display="Color: 339 mm" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="L9" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="L10" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="L11" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="L12" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="L13" r:id="rId39" display="Color: 10pcs 2028" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="L15" r:id="rId40" display="3x GL: 350 - Color: MGN12 H" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="L16" r:id="rId41" display="2x GL: 400 - Color: MGN12 H" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="L17" r:id="rId42" display="1x GL: 400 - Color: MGN9 H" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="L28" r:id="rId43" display="1x TMC2209 x8" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="L34" r:id="rId44" display="1x ADXL345 Accelerometer" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J47" r:id="rId47" display="TBD" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J37" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="L22" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J18" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="L14" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J19" r:id="rId1" display="20X20X18MM 500MM"/>
+    <hyperlink ref="J21" r:id="rId2"/>
+    <hyperlink ref="J22" r:id="rId3" display="Size: 310x310mm"/>
+    <hyperlink ref="J23" r:id="rId4"/>
+    <hyperlink ref="J24" r:id="rId5"/>
+    <hyperlink ref="J25" r:id="rId6"/>
+    <hyperlink ref="J26" r:id="rId7"/>
+    <hyperlink ref="J27" r:id="rId8"/>
+    <hyperlink ref="J28" r:id="rId9"/>
+    <hyperlink ref="J29" r:id="rId10"/>
+    <hyperlink ref="J30" r:id="rId11"/>
+    <hyperlink ref="J31" r:id="rId12" display="1x Select Color: 220V/110V"/>
+    <hyperlink ref="L32" r:id="rId13"/>
+    <hyperlink ref="J33" r:id="rId14"/>
+    <hyperlink ref="J35" r:id="rId15" display="1x 10Pcs Temperature: 160 degree"/>
+    <hyperlink ref="J36" r:id="rId16" display="Color: Dragon-Standard flow"/>
+    <hyperlink ref="J38" r:id="rId17"/>
+    <hyperlink ref="J39" r:id="rId18"/>
+    <hyperlink ref="J40" r:id="rId19"/>
+    <hyperlink ref="J41" r:id="rId20"/>
+    <hyperlink ref="J42" r:id="rId21"/>
+    <hyperlink ref="J43" r:id="rId22"/>
+    <hyperlink ref="J44" r:id="rId23"/>
+    <hyperlink ref="J48" r:id="rId24" display="Color: Buffer 14inch 35cm"/>
+    <hyperlink ref="J49" r:id="rId25"/>
+    <hyperlink ref="J50" r:id="rId26"/>
+    <hyperlink ref="J51" r:id="rId27"/>
+    <hyperlink ref="J52" r:id="rId28"/>
+    <hyperlink ref="J55" r:id="rId29" display="RepRap ONLY- 1x Humidity Sensor"/>
+    <hyperlink ref="J34" r:id="rId30"/>
+    <hyperlink ref="J56" r:id="rId31"/>
+    <hyperlink ref="J32" r:id="rId32" display="Genuine Omron Solid State Relay"/>
+    <hyperlink ref="L31" r:id="rId33" display="1x 310mm 220V 750W"/>
+    <hyperlink ref="L8" r:id="rId34" display="Color: 339 mm"/>
+    <hyperlink ref="L9" r:id="rId35"/>
+    <hyperlink ref="L10" r:id="rId36"/>
+    <hyperlink ref="L11" r:id="rId37"/>
+    <hyperlink ref="L12" r:id="rId38"/>
+    <hyperlink ref="L13" r:id="rId39" display="Color: 10pcs 2028"/>
+    <hyperlink ref="L15" r:id="rId40" display="3x GL: 350 - Color: MGN12 H"/>
+    <hyperlink ref="L16" r:id="rId41" display="2x GL: 400 - Color: MGN12 H"/>
+    <hyperlink ref="L17" r:id="rId42" display="1x GL: 400 - Color: MGN9 H"/>
+    <hyperlink ref="L28" r:id="rId43" display="1x TMC2209 x8"/>
+    <hyperlink ref="L34" r:id="rId44" display="1x ADXL345 Accelerometer"/>
+    <hyperlink ref="J45" r:id="rId45"/>
+    <hyperlink ref="J46" r:id="rId46"/>
+    <hyperlink ref="J47" r:id="rId47" display="TBD"/>
+    <hyperlink ref="J37" r:id="rId48"/>
+    <hyperlink ref="L22" r:id="rId49"/>
+    <hyperlink ref="J18" r:id="rId50"/>
+    <hyperlink ref="J53" r:id="rId51"/>
+    <hyperlink ref="J54" r:id="rId52"/>
+    <hyperlink ref="L14" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId54"/>
@@ -4628,34 +4631,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="4" customWidth="1"/>
-    <col min="11" max="20" width="8.7109375" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="14.42578125" style="4"/>
+    <col min="4" max="4" width="10.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="34.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" style="4" customWidth="1"/>
+    <col min="11" max="20" width="8.6640625" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="14.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27">
+    <row r="1" spans="1:20" ht="24.6">
       <c r="A1" s="118" t="s">
         <v>292</v>
       </c>
@@ -4692,14 +4695,14 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
+    <row r="6" spans="1:20" s="7" customFormat="1" ht="16.2" thickBot="1">
       <c r="A6" s="75" t="s">
         <v>239</v>
       </c>
@@ -5462,7 +5465,7 @@
         <v>72</v>
       </c>
       <c r="B30" s="119" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C30" s="9">
         <v>4</v>
@@ -5470,9 +5473,15 @@
       <c r="D30" s="13"/>
       <c r="E30" s="19"/>
       <c r="F30" s="64"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="16"/>
+      <c r="G30" s="91" t="s">
+        <v>295</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="16">
+        <v>7991</v>
+      </c>
       <c r="J30" s="97"/>
     </row>
     <row r="31" spans="1:10">
@@ -5790,7 +5799,7 @@
         <v>106</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C41" s="9">
         <v>15</v>
@@ -5989,7 +5998,7 @@
       <c r="I47" s="20"/>
       <c r="J47" s="96"/>
     </row>
-    <row r="48" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
+    <row r="48" spans="1:20" s="7" customFormat="1" ht="16.2" thickBot="1">
       <c r="A48" s="52" t="s">
         <v>67</v>
       </c>
@@ -6023,53 +6032,54 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="G10" r:id="rId2" display="1x Size: 20-m3 50pcs" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="G14" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="G16" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="G17" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="G19" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="G23" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="G25" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="G26" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="G27" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="G28" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="G29" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="G31" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="G32" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="G33" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="G34" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="G36" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="G37" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="G38" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="G40" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="G11" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="G35" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="G8" r:id="rId23" display="1x Bushings 5x8x2.5" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="G47" r:id="rId24" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="G21" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="G22" r:id="rId26" display="1x Size: M3 - 30mm" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="G42" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="G12" r:id="rId28" display="M3 ss washer" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="G24" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="G44" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="G45" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="G13" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="G15" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="G18" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="G20" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="G39" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="G41" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="G43" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="G46" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="H46" r:id="rId40" display="https://www.aliexpress.com/store/912301249" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="G9" r:id="rId1"/>
+    <hyperlink ref="G10" r:id="rId2" display="1x Size: 20-m3 50pcs"/>
+    <hyperlink ref="G14" r:id="rId3"/>
+    <hyperlink ref="G16" r:id="rId4"/>
+    <hyperlink ref="G17" r:id="rId5"/>
+    <hyperlink ref="G19" r:id="rId6"/>
+    <hyperlink ref="G23" r:id="rId7"/>
+    <hyperlink ref="G25" r:id="rId8"/>
+    <hyperlink ref="G26" r:id="rId9"/>
+    <hyperlink ref="G27" r:id="rId10"/>
+    <hyperlink ref="G28" r:id="rId11"/>
+    <hyperlink ref="G29" r:id="rId12"/>
+    <hyperlink ref="G31" r:id="rId13"/>
+    <hyperlink ref="G32" r:id="rId14"/>
+    <hyperlink ref="G33" r:id="rId15"/>
+    <hyperlink ref="G34" r:id="rId16"/>
+    <hyperlink ref="G36" r:id="rId17"/>
+    <hyperlink ref="G37" r:id="rId18"/>
+    <hyperlink ref="G38" r:id="rId19"/>
+    <hyperlink ref="G40" r:id="rId20"/>
+    <hyperlink ref="G11" r:id="rId21"/>
+    <hyperlink ref="G35" r:id="rId22"/>
+    <hyperlink ref="G8" r:id="rId23" display="1x Bushings 5x8x2.5"/>
+    <hyperlink ref="G47" r:id="rId24" display="1x Length 15mm - Wire 0.7 - OD 7"/>
+    <hyperlink ref="G21" r:id="rId25"/>
+    <hyperlink ref="G22" r:id="rId26" display="1x Size: M3 - 30mm"/>
+    <hyperlink ref="G42" r:id="rId27"/>
+    <hyperlink ref="G12" r:id="rId28" display="M3 ss washer"/>
+    <hyperlink ref="G24" r:id="rId29"/>
+    <hyperlink ref="G44" r:id="rId30"/>
+    <hyperlink ref="G45" r:id="rId31"/>
+    <hyperlink ref="G13" r:id="rId32"/>
+    <hyperlink ref="G15" r:id="rId33"/>
+    <hyperlink ref="G18" r:id="rId34"/>
+    <hyperlink ref="G20" r:id="rId35"/>
+    <hyperlink ref="G39" r:id="rId36"/>
+    <hyperlink ref="G41" r:id="rId37"/>
+    <hyperlink ref="G43" r:id="rId38"/>
+    <hyperlink ref="G46" r:id="rId39"/>
+    <hyperlink ref="H46" r:id="rId40" display="https://www.aliexpress.com/store/912301249"/>
+    <hyperlink ref="G30" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId41"/>
-  <drawing r:id="rId42"/>
-  <legacyDrawing r:id="rId43"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId42"/>
+  <drawing r:id="rId43"/>
+  <legacyDrawing r:id="rId44"/>
   <tableParts count="1">
-    <tablePart r:id="rId44"/>
+    <tablePart r:id="rId45"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="13284" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="13284"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fastener List'!$A$7:$J$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$7:$K$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$7:$K$60</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -331,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="303">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -877,15 +877,6 @@
   </si>
   <si>
     <t>Estardyn</t>
-  </si>
-  <si>
-    <t>Arduino Nano</t>
-  </si>
-  <si>
-    <t>1x Arduino Nano</t>
-  </si>
-  <si>
-    <t>DIYMore</t>
   </si>
   <si>
     <t>Bushing</t>
@@ -953,9 +944,6 @@
     </r>
   </si>
   <si>
-    <t>dht22</t>
-  </si>
-  <si>
     <t>1x 200PCS Size: 6.5x5x1mm</t>
   </si>
   <si>
@@ -1178,9 +1166,6 @@
     <t>1x 5pcs 2020 5 holes</t>
   </si>
   <si>
-    <t>RRF ONLY- 1x Humidity Sensor</t>
-  </si>
-  <si>
     <t xml:space="preserve">M3-50 </t>
   </si>
   <si>
@@ -1239,6 +1224,39 @@
   </si>
   <si>
     <t xml:space="preserve">M4x50 CS </t>
+  </si>
+  <si>
+    <t>electronics</t>
+  </si>
+  <si>
+    <t>PCB assy</t>
+  </si>
+  <si>
+    <t>HX711 + %kg Load cell</t>
+  </si>
+  <si>
+    <t>1x5kg loadcell + HX711</t>
+  </si>
+  <si>
+    <t>EQV Official Store</t>
+  </si>
+  <si>
+    <t>ESP32</t>
+  </si>
+  <si>
+    <t>1xESP-32 30Pin</t>
+  </si>
+  <si>
+    <t>ESP32 DEV BOARD</t>
+  </si>
+  <si>
+    <t>1xESP32-V1 SHIELD 30P</t>
+  </si>
+  <si>
+    <t>AHT25</t>
+  </si>
+  <si>
+    <t>1xAHT25+AHT21 Sensor</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1271,7 @@
     <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
     <numFmt numFmtId="168" formatCode="[$$-409]#,##0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1401,6 +1419,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1428,7 +1459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1666,12 +1697,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1846,23 +1907,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1872,6 +1917,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2378,8 +2455,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:L57" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
-  <autoFilter ref="A7:L57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:L59" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+  <autoFilter ref="A7:L59"/>
   <tableColumns count="12">
     <tableColumn id="1" name="System" dataDxfId="25"/>
     <tableColumn id="2" name="Category" dataDxfId="24"/>
@@ -2621,11 +2698,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -2645,20 +2722,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.6">
-      <c r="A1" s="118" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
+      <c r="A1" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -2698,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D6" s="77" t="s">
         <v>5</v>
@@ -2708,8 +2785,8 @@
       <c r="G6" s="77"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79">
-        <f>I58</f>
-        <v>1985.52</v>
+        <f>I60</f>
+        <v>1976.74</v>
       </c>
       <c r="J6" s="77"/>
       <c r="K6" s="80"/>
@@ -2786,7 +2863,7 @@
         <v>24</v>
       </c>
       <c r="L8" s="43" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="73" customFormat="1">
@@ -2970,7 +3047,7 @@
         <v>24</v>
       </c>
       <c r="L13" s="42" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="73" customFormat="1">
@@ -2984,7 +3061,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="12">
@@ -3005,7 +3082,7 @@
         <v>24</v>
       </c>
       <c r="L14" s="102" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="73" customFormat="1">
@@ -3042,7 +3119,7 @@
         <v>66</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="73" customFormat="1">
@@ -3079,7 +3156,7 @@
         <v>66</v>
       </c>
       <c r="L16" s="49" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="73" customFormat="1">
@@ -3116,7 +3193,7 @@
         <v>66</v>
       </c>
       <c r="L17" s="49" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="73" customFormat="1" ht="15" thickBot="1">
@@ -3130,7 +3207,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="34">
@@ -3147,7 +3224,7 @@
         <v>500</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K18" s="50" t="s">
         <v>43</v>
@@ -3184,7 +3261,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>38</v>
@@ -3202,7 +3279,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E20" s="9">
         <v>230</v>
@@ -3221,7 +3298,7 @@
         <v>35</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K20" s="74" t="s">
         <v>38</v>
@@ -3275,7 +3352,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E22" s="9">
         <v>330</v>
@@ -3294,13 +3371,13 @@
         <v>46</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>45</v>
       </c>
       <c r="L22" s="49" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="73" customFormat="1">
@@ -3489,7 +3566,7 @@
         <v>113</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="19">
@@ -3506,13 +3583,13 @@
         <v>145</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>114</v>
       </c>
       <c r="L28" s="49" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="73" customFormat="1">
@@ -3596,7 +3673,7 @@
         <v>123</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E31" s="9">
         <v>300</v>
@@ -3615,13 +3692,13 @@
         <v>78.39</v>
       </c>
       <c r="J31" s="92" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L31" s="49" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="73" customFormat="1">
@@ -3652,7 +3729,7 @@
         <v>52</v>
       </c>
       <c r="J32" s="93" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K32" s="15" t="s">
         <v>143</v>
@@ -3704,10 +3781,10 @@
         <v>112</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="19">
@@ -3724,13 +3801,13 @@
         <v>2</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K34" s="74" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L34" s="49" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="73" customFormat="1">
@@ -3744,7 +3821,7 @@
         <v>130</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="19">
@@ -3761,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>131</v>
@@ -3779,7 +3856,7 @@
         <v>133</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="19">
@@ -3796,7 +3873,7 @@
         <v>40</v>
       </c>
       <c r="J36" s="93" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K36" s="74" t="s">
         <v>143</v>
@@ -3811,10 +3888,10 @@
         <v>132</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="19">
@@ -3831,7 +3908,7 @@
         <v>13.5</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K37" s="74" t="s">
         <v>122</v>
@@ -3849,7 +3926,7 @@
         <v>132</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="19">
@@ -4096,7 +4173,7 @@
         <v>164</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="19">
@@ -4120,7 +4197,7 @@
       </c>
       <c r="L45" s="25"/>
     </row>
-    <row r="46" spans="1:12" s="73" customFormat="1">
+    <row r="46" spans="1:12" s="73" customFormat="1" ht="14.4" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>163</v>
       </c>
@@ -4131,7 +4208,7 @@
         <v>166</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="19">
@@ -4163,10 +4240,10 @@
         <v>165</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E47" s="9">
         <v>300</v>
@@ -4185,7 +4262,7 @@
         <v>50</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K47" s="15" t="s">
         <v>161</v>
@@ -4222,14 +4299,14 @@
         <v>24</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K48" s="15" t="s">
         <v>169</v>
       </c>
       <c r="L48" s="25"/>
     </row>
-    <row r="49" spans="1:12" s="73" customFormat="1">
+    <row r="49" spans="1:14" s="73" customFormat="1">
       <c r="A49" s="8" t="s">
         <v>167</v>
       </c>
@@ -4264,7 +4341,7 @@
       </c>
       <c r="L49" s="25"/>
     </row>
-    <row r="50" spans="1:12" s="73" customFormat="1">
+    <row r="50" spans="1:14" s="73" customFormat="1">
       <c r="A50" s="8" t="s">
         <v>167</v>
       </c>
@@ -4275,7 +4352,7 @@
         <v>162</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="19">
@@ -4292,14 +4369,14 @@
         <v>12</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="1:12" s="73" customFormat="1">
+    <row r="51" spans="1:14" s="73" customFormat="1">
       <c r="A51" s="8" t="s">
         <v>167</v>
       </c>
@@ -4310,7 +4387,7 @@
         <v>123</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="19">
@@ -4327,14 +4404,14 @@
         <v>12</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L51" s="25"/>
     </row>
-    <row r="52" spans="1:12" s="73" customFormat="1">
+    <row r="52" spans="1:14" s="73" customFormat="1">
       <c r="A52" s="8" t="s">
         <v>167</v>
       </c>
@@ -4345,7 +4422,7 @@
         <v>130</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="19">
@@ -4359,206 +4436,263 @@
         <v>1</v>
       </c>
       <c r="I52" s="64">
-        <f t="shared" ref="I52:I55" si="3">H52*G52</f>
+        <f t="shared" ref="I52" si="3">H52*G52</f>
         <v>3.96</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L52" s="25"/>
     </row>
-    <row r="53" spans="1:12" s="73" customFormat="1">
-      <c r="A53" s="104" t="s">
+    <row r="53" spans="1:14" s="73" customFormat="1" ht="15" thickBot="1">
+      <c r="A53" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="104" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="105" t="s">
-        <v>182</v>
-      </c>
-      <c r="E53" s="106"/>
-      <c r="F53" s="107">
-        <v>1</v>
-      </c>
-      <c r="G53" s="108">
-        <f>3.11+1.67</f>
-        <v>4.7799999999999994</v>
-      </c>
-      <c r="H53" s="107">
-        <v>1</v>
-      </c>
-      <c r="I53" s="109">
-        <f>H53*G53</f>
-        <v>4.7799999999999994</v>
-      </c>
-      <c r="J53" s="114" t="s">
-        <v>183</v>
-      </c>
-      <c r="K53" s="111" t="s">
-        <v>184</v>
-      </c>
-      <c r="L53" s="112"/>
-    </row>
-    <row r="54" spans="1:12" s="73" customFormat="1">
-      <c r="A54" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="23" t="s">
+      <c r="B53" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D53" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="19">
+      <c r="E53" s="9"/>
+      <c r="F53" s="19">
         <v>3</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G53" s="13">
         <f>5.01</f>
         <v>5.01</v>
       </c>
-      <c r="H54" s="19">
-        <v>1</v>
-      </c>
-      <c r="I54" s="64">
-        <f>H54*G54</f>
+      <c r="H53" s="19">
+        <v>1</v>
+      </c>
+      <c r="I53" s="64">
+        <f>H53*G53</f>
         <v>5.01</v>
       </c>
-      <c r="J54" s="17" t="s">
+      <c r="J53" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="K54" s="15" t="s">
+      <c r="K53" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="L54" s="20"/>
-    </row>
-    <row r="55" spans="1:12" s="113" customFormat="1">
-      <c r="A55" s="104" t="s">
+      <c r="L53" s="20"/>
+    </row>
+    <row r="54" spans="1:14" s="104" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A54" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="B55" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="D55" s="105" t="s">
-        <v>201</v>
-      </c>
-      <c r="E55" s="106"/>
-      <c r="F55" s="107">
-        <v>1</v>
-      </c>
-      <c r="G55" s="108">
-        <v>4</v>
-      </c>
-      <c r="H55" s="107">
-        <v>1</v>
-      </c>
-      <c r="I55" s="109">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J55" s="110" t="s">
-        <v>276</v>
-      </c>
-      <c r="K55" s="111" t="s">
-        <v>184</v>
-      </c>
-      <c r="L55" s="112"/>
-    </row>
-    <row r="56" spans="1:12" s="73" customFormat="1">
-      <c r="A56" s="8" t="s">
+      <c r="B54" s="111" t="s">
+        <v>292</v>
+      </c>
+      <c r="C54" s="111" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54" s="112" t="s">
+        <v>294</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="113">
+        <v>1</v>
+      </c>
+      <c r="G54" s="110"/>
+      <c r="H54" s="113">
+        <v>1</v>
+      </c>
+      <c r="I54" s="64"/>
+      <c r="J54" s="114" t="s">
+        <v>295</v>
+      </c>
+      <c r="K54" s="115" t="s">
+        <v>296</v>
+      </c>
+      <c r="L54" s="25"/>
+      <c r="M54" s="121"/>
+      <c r="N54" s="121"/>
+    </row>
+    <row r="55" spans="1:14" s="104" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A55" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>215</v>
+      <c r="B55" s="116" t="s">
+        <v>292</v>
+      </c>
+      <c r="C55" s="116" t="s">
+        <v>293</v>
+      </c>
+      <c r="D55" s="117" t="s">
+        <v>297</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="118">
+        <v>1</v>
+      </c>
+      <c r="G55" s="110"/>
+      <c r="H55" s="118">
+        <v>1</v>
+      </c>
+      <c r="I55" s="64"/>
+      <c r="J55" s="119" t="s">
+        <v>298</v>
+      </c>
+      <c r="K55" s="120" t="s">
+        <v>296</v>
+      </c>
+      <c r="L55" s="25"/>
+      <c r="M55" s="121"/>
+      <c r="N55" s="121"/>
+    </row>
+    <row r="56" spans="1:14" s="104" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A56" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="116" t="s">
+        <v>292</v>
+      </c>
+      <c r="C56" s="116" t="s">
+        <v>293</v>
+      </c>
+      <c r="D56" s="117" t="s">
+        <v>299</v>
       </c>
       <c r="E56" s="9"/>
-      <c r="F56" s="19">
-        <v>1</v>
-      </c>
-      <c r="G56" s="13">
+      <c r="F56" s="118">
+        <v>1</v>
+      </c>
+      <c r="G56" s="110"/>
+      <c r="H56" s="118">
+        <v>1</v>
+      </c>
+      <c r="I56" s="64"/>
+      <c r="J56" s="119" t="s">
+        <v>300</v>
+      </c>
+      <c r="K56" s="120" t="s">
+        <v>296</v>
+      </c>
+      <c r="L56" s="25"/>
+      <c r="M56" s="121"/>
+      <c r="N56" s="121"/>
+    </row>
+    <row r="57" spans="1:14" s="104" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A57" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="116" t="s">
+        <v>292</v>
+      </c>
+      <c r="C57" s="116" t="s">
+        <v>293</v>
+      </c>
+      <c r="D57" s="117" t="s">
+        <v>301</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="118">
+        <v>1</v>
+      </c>
+      <c r="G57" s="110"/>
+      <c r="H57" s="118">
+        <v>1</v>
+      </c>
+      <c r="I57" s="64"/>
+      <c r="J57" s="119" t="s">
+        <v>302</v>
+      </c>
+      <c r="K57" s="120" t="s">
+        <v>296</v>
+      </c>
+      <c r="L57" s="25"/>
+      <c r="M57" s="121"/>
+      <c r="N57" s="121"/>
+    </row>
+    <row r="58" spans="1:14" s="73" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A58" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="19">
+        <v>1</v>
+      </c>
+      <c r="G58" s="13">
         <v>21.5</v>
       </c>
-      <c r="H56" s="19">
-        <v>1</v>
-      </c>
-      <c r="I56" s="64">
-        <f>G56*H56</f>
+      <c r="H58" s="19">
+        <v>1</v>
+      </c>
+      <c r="I58" s="64">
+        <f>G58*H58</f>
         <v>21.5</v>
       </c>
-      <c r="J56" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="L56" s="26"/>
-    </row>
-    <row r="57" spans="1:12" s="73" customFormat="1">
-      <c r="A57" s="82"/>
-      <c r="B57" s="83" t="s">
+      <c r="J58" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="L58" s="26"/>
+    </row>
+    <row r="59" spans="1:14" s="73" customFormat="1">
+      <c r="A59" s="82"/>
+      <c r="B59" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="84" t="s">
-        <v>257</v>
-      </c>
-      <c r="D57" s="83" t="s">
-        <v>293</v>
-      </c>
-      <c r="E57" s="85"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="86">
-        <v>1</v>
-      </c>
-      <c r="I57" s="103">
+      <c r="C59" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="D59" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="E59" s="85"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="86">
+        <v>1</v>
+      </c>
+      <c r="I59" s="103">
         <f>'Fastener List'!F48</f>
         <v>198.67999999999998</v>
       </c>
-      <c r="J57" s="88"/>
-      <c r="K57" s="89"/>
-      <c r="L57" s="90"/>
-    </row>
-    <row r="58" spans="1:12" s="7" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A58" s="52"/>
-      <c r="B58" s="53" t="s">
+      <c r="J59" s="88"/>
+      <c r="K59" s="89"/>
+      <c r="L59" s="90"/>
+    </row>
+    <row r="60" spans="1:14" s="7" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A60" s="52"/>
+      <c r="B60" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="D58" s="54" t="s">
+      <c r="C60" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="59">
-        <f>SUM(I19:I57)+I18</f>
-        <v>1985.52</v>
-      </c>
-      <c r="J58" s="54"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="70"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="59">
+        <f>SUM(I19:I59)+I18</f>
+        <v>1976.74</v>
+      </c>
+      <c r="J60" s="54"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4594,38 +4728,39 @@
     <hyperlink ref="J50" r:id="rId26"/>
     <hyperlink ref="J51" r:id="rId27"/>
     <hyperlink ref="J52" r:id="rId28"/>
-    <hyperlink ref="J55" r:id="rId29" display="RepRap ONLY- 1x Humidity Sensor"/>
-    <hyperlink ref="J34" r:id="rId30"/>
-    <hyperlink ref="J56" r:id="rId31"/>
-    <hyperlink ref="J32" r:id="rId32" display="Genuine Omron Solid State Relay"/>
-    <hyperlink ref="L31" r:id="rId33" display="1x 310mm 220V 750W"/>
-    <hyperlink ref="L8" r:id="rId34" display="Color: 339 mm"/>
-    <hyperlink ref="L9" r:id="rId35"/>
-    <hyperlink ref="L10" r:id="rId36"/>
-    <hyperlink ref="L11" r:id="rId37"/>
-    <hyperlink ref="L12" r:id="rId38"/>
-    <hyperlink ref="L13" r:id="rId39" display="Color: 10pcs 2028"/>
-    <hyperlink ref="L15" r:id="rId40" display="3x GL: 350 - Color: MGN12 H"/>
-    <hyperlink ref="L16" r:id="rId41" display="2x GL: 400 - Color: MGN12 H"/>
-    <hyperlink ref="L17" r:id="rId42" display="1x GL: 400 - Color: MGN9 H"/>
-    <hyperlink ref="L28" r:id="rId43" display="1x TMC2209 x8"/>
-    <hyperlink ref="L34" r:id="rId44" display="1x ADXL345 Accelerometer"/>
-    <hyperlink ref="J45" r:id="rId45"/>
-    <hyperlink ref="J46" r:id="rId46"/>
-    <hyperlink ref="J47" r:id="rId47" display="TBD"/>
-    <hyperlink ref="J37" r:id="rId48"/>
-    <hyperlink ref="L22" r:id="rId49"/>
-    <hyperlink ref="J18" r:id="rId50"/>
-    <hyperlink ref="J53" r:id="rId51"/>
-    <hyperlink ref="J54" r:id="rId52"/>
-    <hyperlink ref="L14" r:id="rId53"/>
+    <hyperlink ref="J34" r:id="rId29"/>
+    <hyperlink ref="J32" r:id="rId30" display="Genuine Omron Solid State Relay"/>
+    <hyperlink ref="L31" r:id="rId31" display="1x 310mm 220V 750W"/>
+    <hyperlink ref="L8" r:id="rId32" display="Color: 339 mm"/>
+    <hyperlink ref="L9" r:id="rId33"/>
+    <hyperlink ref="L10" r:id="rId34"/>
+    <hyperlink ref="L11" r:id="rId35"/>
+    <hyperlink ref="L12" r:id="rId36"/>
+    <hyperlink ref="L13" r:id="rId37" display="Color: 10pcs 2028"/>
+    <hyperlink ref="L15" r:id="rId38" display="3x GL: 350 - Color: MGN12 H"/>
+    <hyperlink ref="L16" r:id="rId39" display="2x GL: 400 - Color: MGN12 H"/>
+    <hyperlink ref="L17" r:id="rId40" display="1x GL: 400 - Color: MGN9 H"/>
+    <hyperlink ref="L28" r:id="rId41" display="1x TMC2209 x8"/>
+    <hyperlink ref="L34" r:id="rId42" display="1x ADXL345 Accelerometer"/>
+    <hyperlink ref="J45" r:id="rId43"/>
+    <hyperlink ref="J46" r:id="rId44"/>
+    <hyperlink ref="J47" r:id="rId45" display="TBD"/>
+    <hyperlink ref="J37" r:id="rId46"/>
+    <hyperlink ref="L22" r:id="rId47"/>
+    <hyperlink ref="J18" r:id="rId48"/>
+    <hyperlink ref="J53" r:id="rId49"/>
+    <hyperlink ref="L14" r:id="rId50"/>
+    <hyperlink ref="J58" r:id="rId51"/>
+    <hyperlink ref="J55" r:id="rId52" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh"/>
+    <hyperlink ref="J56" r:id="rId53" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh"/>
+    <hyperlink ref="J57" r:id="rId54" display="https://www.aliexpress.com/item/1005003343253955.html?spm=a2g0o.store_pc_groupList.8148356.1.112c4ce6hJ1Kbj&amp;pdp_npi=2%40dis%21NZD%21NZ%24%202.99%21NZ%24%202.90%21%21%21%21%21%402100bde116564931019131701e26f5%2112000025319163573%21sh"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId54"/>
-  <drawing r:id="rId55"/>
-  <legacyDrawing r:id="rId56"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId55"/>
+  <drawing r:id="rId56"/>
+  <legacyDrawing r:id="rId57"/>
   <tableParts count="1">
-    <tablePart r:id="rId57"/>
+    <tablePart r:id="rId58"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4637,8 +4772,8 @@
   </sheetPr>
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -4659,19 +4794,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.6">
-      <c r="A1" s="118" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="A1" s="108" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="5"/>
@@ -4704,7 +4839,7 @@
     </row>
     <row r="6" spans="1:20" s="7" customFormat="1" ht="16.2" thickBot="1">
       <c r="A6" s="75" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B6" s="77" t="s">
         <v>5</v>
@@ -4775,10 +4910,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C8" s="19">
         <v>2</v>
@@ -4795,10 +4930,10 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="G8" s="92" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="97"/>
@@ -4857,7 +4992,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>50</v>
@@ -4870,7 +5005,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C11" s="19">
         <v>6</v>
@@ -4902,7 +5037,7 @@
         <v>86</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C12" s="67">
         <v>31</v>
@@ -4918,22 +5053,22 @@
         <v>0.74</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H12" s="39" t="s">
         <v>50</v>
       </c>
       <c r="I12" s="99" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J12" s="98"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C13" s="67">
         <v>8</v>
@@ -4948,7 +5083,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>50</v>
@@ -4994,7 +5129,7 @@
         <v>72</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C15" s="9">
         <v>11</v>
@@ -5009,7 +5144,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G15" s="91" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H15" s="74" t="s">
         <v>50</v>
@@ -5088,7 +5223,7 @@
         <v>72</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C18" s="9">
         <v>29</v>
@@ -5103,7 +5238,7 @@
         <v>1.07</v>
       </c>
       <c r="G18" s="91" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H18" s="74" t="s">
         <v>50</v>
@@ -5151,7 +5286,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C20" s="9">
         <v>4</v>
@@ -5167,7 +5302,7 @@
         <v>1.5</v>
       </c>
       <c r="G20" s="91" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>50</v>
@@ -5179,10 +5314,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C21" s="19">
         <v>4</v>
@@ -5199,7 +5334,7 @@
         <v>3.27</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>50</v>
@@ -5209,10 +5344,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>190</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>193</v>
       </c>
       <c r="C22" s="19">
         <v>4</v>
@@ -5229,7 +5364,7 @@
         <v>2.57</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>50</v>
@@ -5271,7 +5406,7 @@
         <v>72</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C24" s="9">
         <v>1</v>
@@ -5333,7 +5468,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C26" s="9">
         <v>9</v>
@@ -5464,8 +5599,8 @@
       <c r="A30" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="119" t="s">
-        <v>296</v>
+      <c r="B30" s="109" t="s">
+        <v>291</v>
       </c>
       <c r="C30" s="9">
         <v>4</v>
@@ -5474,7 +5609,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="64"/>
       <c r="G30" s="91" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>50</v>
@@ -5584,7 +5719,7 @@
         <v>68</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C34" s="9">
         <v>72</v>
@@ -5633,7 +5768,7 @@
         <v>177</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="96"/>
@@ -5737,8 +5872,8 @@
       <c r="A39" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="115" t="s">
-        <v>272</v>
+      <c r="B39" s="105" t="s">
+        <v>268</v>
       </c>
       <c r="C39" s="9">
         <v>4</v>
@@ -5753,7 +5888,7 @@
         <v>1.64</v>
       </c>
       <c r="G39" s="91" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>82</v>
@@ -5799,7 +5934,7 @@
         <v>106</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C41" s="9">
         <v>15</v>
@@ -5815,7 +5950,7 @@
         <v>6.08</v>
       </c>
       <c r="G41" s="91" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H41" s="15" t="s">
         <v>50</v>
@@ -5846,10 +5981,10 @@
         <v>16</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="96"/>
@@ -5859,7 +5994,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C43" s="19">
         <v>1</v>
@@ -5874,10 +6009,10 @@
         <v>9.5</v>
       </c>
       <c r="G43" s="93" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H43" s="74" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="96"/>
@@ -5916,7 +6051,7 @@
         <v>59</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C45" s="19">
         <v>3</v>
@@ -5932,7 +6067,7 @@
         <v>4.5</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>62</v>
@@ -5945,7 +6080,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C46" s="19">
         <v>6</v>
@@ -5953,27 +6088,27 @@
       <c r="D46" s="13">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E46" s="116" t="s">
-        <v>287</v>
+      <c r="E46" s="106" t="s">
+        <v>282</v>
       </c>
       <c r="F46" s="64">
         <v>9.1999999999999993</v>
       </c>
       <c r="G46" s="91" t="s">
-        <v>286</v>
-      </c>
-      <c r="H46" s="117" t="s">
-        <v>288</v>
+        <v>281</v>
+      </c>
+      <c r="H46" s="107" t="s">
+        <v>283</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="96"/>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C47" s="19">
         <v>1</v>
@@ -5990,10 +6125,10 @@
         <v>1.72</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="96"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F2767F2-A612-4353-B5CA-71065D909FAE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="13284"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fastener List'!$A$7:$J$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$7:$K$60</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,13 +40,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Roy Berntsen</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1">
+    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="1">
+    <comment ref="G7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="1">
+    <comment ref="H7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="1">
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="0">
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0">
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L28" authorId="0">
+    <comment ref="L28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -197,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J35" authorId="0">
+    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J43" authorId="1">
+    <comment ref="J43" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -248,13 +254,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Roy Berntsen</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="1">
+    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="1">
+    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="1">
+    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1232,18 +1238,12 @@
     <t>PCB assy</t>
   </si>
   <si>
-    <t>HX711 + %kg Load cell</t>
-  </si>
-  <si>
     <t>1x5kg loadcell + HX711</t>
   </si>
   <si>
     <t>EQV Official Store</t>
   </si>
   <si>
-    <t>ESP32</t>
-  </si>
-  <si>
     <t>1xESP-32 30Pin</t>
   </si>
   <si>
@@ -1253,25 +1253,31 @@
     <t>1xESP32-V1 SHIELD 30P</t>
   </si>
   <si>
-    <t>AHT25</t>
-  </si>
-  <si>
     <t>1xAHT25+AHT21 Sensor</t>
+  </si>
+  <si>
+    <t>HX711 + 5kg Load cell</t>
+  </si>
+  <si>
+    <t>AHT25 Humididty + Temp Sensor</t>
+  </si>
+  <si>
+    <t>ESP32 WiFi Board</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
-    <numFmt numFmtId="168" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="169" formatCode="[$$-409]#,##0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1419,19 +1425,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1459,7 +1452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1697,42 +1690,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1750,11 +1713,11 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1771,26 +1734,26 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1807,75 +1770,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1885,8 +1848,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1899,56 +1862,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1987,7 +1918,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2053,7 +1984,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2172,7 +2103,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2238,7 +2169,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2373,7 +2304,7 @@
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2352,7 @@
         <xdr:cNvPr id="3" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7682EE9C-829A-4195-A7DF-B29381CF9561}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7682EE9C-829A-4195-A7DF-B29381CF9561}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,43 +2386,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:L59" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
-  <autoFilter ref="A7:L59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A7:L59" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+  <autoFilter ref="A7:L59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="System" dataDxfId="25"/>
-    <tableColumn id="2" name="Category" dataDxfId="24"/>
-    <tableColumn id="3" name="Part Type" dataDxfId="23"/>
-    <tableColumn id="4" name="Description" dataDxfId="22"/>
-    <tableColumn id="5" name="Cut Length mm" dataDxfId="21"/>
-    <tableColumn id="7" name="BOM Quantity" dataDxfId="20"/>
-    <tableColumn id="8" name="Pack Price $" dataDxfId="19"/>
-    <tableColumn id="9" name="Pack Order Quantity" dataDxfId="18"/>
-    <tableColumn id="10" name="Line Price $" dataDxfId="17"/>
-    <tableColumn id="11" name="Order Parts Link" dataDxfId="16"/>
-    <tableColumn id="12" name="Supplier" dataDxfId="15"/>
-    <tableColumn id="15" name="Option" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Type" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cut Length mm" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="BOM Quantity" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pack Price $" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pack Order Quantity" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Line Price $" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Order Parts Link" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Supplier" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Option" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A7:J47" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A7:J47"/>
-  <sortState ref="A8:J48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A7:J47" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A7:J47" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:J48">
     <sortCondition ref="B8:B48"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="3" name="Part Type" dataDxfId="9"/>
-    <tableColumn id="4" name="Description" dataDxfId="8"/>
-    <tableColumn id="7" name="BOM Quantity" dataDxfId="7"/>
-    <tableColumn id="8" name="Pack Price $" dataDxfId="6"/>
-    <tableColumn id="9" name="Pack Order Quantity" dataDxfId="5"/>
-    <tableColumn id="10" name="Line Price $" dataDxfId="4"/>
-    <tableColumn id="11" name="Order Parts Link" dataDxfId="3"/>
-    <tableColumn id="12" name="Supplier" dataDxfId="2"/>
-    <tableColumn id="13" name="DIN" dataDxfId="1"/>
-    <tableColumn id="14" name="ISO" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part Type" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="BOM Quantity" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Pack Price $" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Pack Order Quantity" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Line Price $" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Order Parts Link" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Supplier" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="DIN" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ISO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2694,48 +2625,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.6">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:12" ht="27">
+      <c r="A1" s="109" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -2762,14 +2693,14 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="16.2" thickBot="1">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A6" s="75"/>
       <c r="B6" s="76" t="s">
         <v>4</v>
@@ -2786,7 +2717,7 @@
       <c r="H6" s="78"/>
       <c r="I6" s="79">
         <f>I60</f>
-        <v>1976.74</v>
+        <v>1990.46</v>
       </c>
       <c r="J6" s="77"/>
       <c r="K6" s="80"/>
@@ -3196,7 +3127,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="73" customFormat="1" ht="15" thickBot="1">
+    <row r="18" spans="1:12" s="73" customFormat="1" ht="15.75" thickBot="1">
       <c r="A18" s="32" t="s">
         <v>20</v>
       </c>
@@ -4197,7 +4128,7 @@
       </c>
       <c r="L45" s="25"/>
     </row>
-    <row r="46" spans="1:12" s="73" customFormat="1" ht="14.4" customHeight="1">
+    <row r="46" spans="1:12" s="73" customFormat="1" ht="14.45" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>163</v>
       </c>
@@ -4306,7 +4237,7 @@
       </c>
       <c r="L48" s="25"/>
     </row>
-    <row r="49" spans="1:14" s="73" customFormat="1">
+    <row r="49" spans="1:12" s="73" customFormat="1">
       <c r="A49" s="8" t="s">
         <v>167</v>
       </c>
@@ -4341,7 +4272,7 @@
       </c>
       <c r="L49" s="25"/>
     </row>
-    <row r="50" spans="1:14" s="73" customFormat="1">
+    <row r="50" spans="1:12" s="73" customFormat="1">
       <c r="A50" s="8" t="s">
         <v>167</v>
       </c>
@@ -4376,7 +4307,7 @@
       </c>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="1:14" s="73" customFormat="1">
+    <row r="51" spans="1:12" s="73" customFormat="1">
       <c r="A51" s="8" t="s">
         <v>167</v>
       </c>
@@ -4411,7 +4342,7 @@
       </c>
       <c r="L51" s="25"/>
     </row>
-    <row r="52" spans="1:14" s="73" customFormat="1">
+    <row r="52" spans="1:12" s="73" customFormat="1">
       <c r="A52" s="8" t="s">
         <v>167</v>
       </c>
@@ -4447,11 +4378,11 @@
       </c>
       <c r="L52" s="25"/>
     </row>
-    <row r="53" spans="1:14" s="73" customFormat="1" ht="15" thickBot="1">
+    <row r="53" spans="1:12" s="73" customFormat="1">
       <c r="A53" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -4481,137 +4412,149 @@
       <c r="K53" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="L53" s="20"/>
-    </row>
-    <row r="54" spans="1:14" s="104" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A54" s="111" t="s">
+      <c r="L53" s="25"/>
+    </row>
+    <row r="54" spans="1:12" s="104" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A54" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B54" s="111" t="s">
+      <c r="B54" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="C54" s="111" t="s">
+      <c r="C54" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D54" s="112" t="s">
+      <c r="D54" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="19">
+        <v>1</v>
+      </c>
+      <c r="G54" s="13">
+        <v>3.72</v>
+      </c>
+      <c r="H54" s="19">
+        <v>1</v>
+      </c>
+      <c r="I54" s="64">
+        <f>H54*G54</f>
+        <v>3.72</v>
+      </c>
+      <c r="J54" s="91" t="s">
         <v>294</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="113">
-        <v>1</v>
-      </c>
-      <c r="G54" s="110"/>
-      <c r="H54" s="113">
-        <v>1</v>
-      </c>
-      <c r="I54" s="64"/>
-      <c r="J54" s="114" t="s">
+      <c r="K54" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="K54" s="115" t="s">
+      <c r="L54" s="25"/>
+    </row>
+    <row r="55" spans="1:12" s="104" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A55" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="19">
+        <v>1</v>
+      </c>
+      <c r="G55" s="13">
+        <v>4</v>
+      </c>
+      <c r="H55" s="19">
+        <v>1</v>
+      </c>
+      <c r="I55" s="64">
+        <f>H55*G55</f>
+        <v>4</v>
+      </c>
+      <c r="J55" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="L54" s="25"/>
-      <c r="M54" s="121"/>
-      <c r="N54" s="121"/>
-    </row>
-    <row r="55" spans="1:14" s="104" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A55" s="116" t="s">
+      <c r="K55" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="L55" s="25"/>
+    </row>
+    <row r="56" spans="1:12" s="104" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A56" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B55" s="116" t="s">
+      <c r="B56" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="C55" s="116" t="s">
-        <v>293</v>
-      </c>
-      <c r="D55" s="117" t="s">
+      <c r="C56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="118">
-        <v>1</v>
-      </c>
-      <c r="G55" s="110"/>
-      <c r="H55" s="118">
-        <v>1</v>
-      </c>
-      <c r="I55" s="64"/>
-      <c r="J55" s="119" t="s">
+      <c r="E56" s="9"/>
+      <c r="F56" s="19">
+        <v>1</v>
+      </c>
+      <c r="G56" s="13">
+        <v>3</v>
+      </c>
+      <c r="H56" s="19">
+        <v>1</v>
+      </c>
+      <c r="I56" s="64">
+        <f>H56*G56</f>
+        <v>3</v>
+      </c>
+      <c r="J56" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="K55" s="120" t="s">
-        <v>296</v>
-      </c>
-      <c r="L55" s="25"/>
-      <c r="M55" s="121"/>
-      <c r="N55" s="121"/>
-    </row>
-    <row r="56" spans="1:14" s="104" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A56" s="116" t="s">
+      <c r="K56" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="L56" s="25"/>
+    </row>
+    <row r="57" spans="1:12" s="104" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A57" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="116" t="s">
+      <c r="B57" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="C56" s="116" t="s">
-        <v>293</v>
-      </c>
-      <c r="D56" s="117" t="s">
+      <c r="C57" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="19">
+        <v>1</v>
+      </c>
+      <c r="G57" s="13">
+        <v>3</v>
+      </c>
+      <c r="H57" s="19">
+        <v>1</v>
+      </c>
+      <c r="I57" s="64">
+        <f>H57*G57</f>
+        <v>3</v>
+      </c>
+      <c r="J57" s="91" t="s">
         <v>299</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="118">
-        <v>1</v>
-      </c>
-      <c r="G56" s="110"/>
-      <c r="H56" s="118">
-        <v>1</v>
-      </c>
-      <c r="I56" s="64"/>
-      <c r="J56" s="119" t="s">
-        <v>300</v>
-      </c>
-      <c r="K56" s="120" t="s">
-        <v>296</v>
-      </c>
-      <c r="L56" s="25"/>
-      <c r="M56" s="121"/>
-      <c r="N56" s="121"/>
-    </row>
-    <row r="57" spans="1:14" s="104" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A57" s="116" t="s">
-        <v>167</v>
-      </c>
-      <c r="B57" s="116" t="s">
-        <v>292</v>
-      </c>
-      <c r="C57" s="116" t="s">
-        <v>293</v>
-      </c>
-      <c r="D57" s="117" t="s">
-        <v>301</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="118">
-        <v>1</v>
-      </c>
-      <c r="G57" s="110"/>
-      <c r="H57" s="118">
-        <v>1</v>
-      </c>
-      <c r="I57" s="64"/>
-      <c r="J57" s="119" t="s">
-        <v>302</v>
-      </c>
-      <c r="K57" s="120" t="s">
-        <v>296</v>
+      <c r="K57" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="L57" s="25"/>
-      <c r="M57" s="121"/>
-      <c r="N57" s="121"/>
-    </row>
-    <row r="58" spans="1:14" s="73" customFormat="1" ht="14.4" customHeight="1">
+    </row>
+    <row r="58" spans="1:12" s="73" customFormat="1" ht="14.45" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>167</v>
       </c>
@@ -4638,7 +4581,7 @@
         <f>G58*H58</f>
         <v>21.5</v>
       </c>
-      <c r="J58" s="17" t="s">
+      <c r="J58" s="91" t="s">
         <v>212</v>
       </c>
       <c r="K58" s="15" t="s">
@@ -4646,7 +4589,7 @@
       </c>
       <c r="L58" s="26"/>
     </row>
-    <row r="59" spans="1:14" s="73" customFormat="1">
+    <row r="59" spans="1:12" s="73" customFormat="1">
       <c r="A59" s="82"/>
       <c r="B59" s="83" t="s">
         <v>67</v>
@@ -4671,7 +4614,7 @@
       <c r="K59" s="89"/>
       <c r="L59" s="90"/>
     </row>
-    <row r="60" spans="1:14" s="7" customFormat="1" ht="16.2" thickBot="1">
+    <row r="60" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A60" s="52"/>
       <c r="B60" s="53" t="s">
         <v>4</v>
@@ -4688,7 +4631,7 @@
       <c r="H60" s="55"/>
       <c r="I60" s="59">
         <f>SUM(I19:I59)+I18</f>
-        <v>1976.74</v>
+        <v>1990.46</v>
       </c>
       <c r="J60" s="54"/>
       <c r="K60" s="51"/>
@@ -4700,73 +4643,74 @@
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J19" r:id="rId1" display="20X20X18MM 500MM"/>
-    <hyperlink ref="J21" r:id="rId2"/>
-    <hyperlink ref="J22" r:id="rId3" display="Size: 310x310mm"/>
-    <hyperlink ref="J23" r:id="rId4"/>
-    <hyperlink ref="J24" r:id="rId5"/>
-    <hyperlink ref="J25" r:id="rId6"/>
-    <hyperlink ref="J26" r:id="rId7"/>
-    <hyperlink ref="J27" r:id="rId8"/>
-    <hyperlink ref="J28" r:id="rId9"/>
-    <hyperlink ref="J29" r:id="rId10"/>
-    <hyperlink ref="J30" r:id="rId11"/>
-    <hyperlink ref="J31" r:id="rId12" display="1x Select Color: 220V/110V"/>
-    <hyperlink ref="L32" r:id="rId13"/>
-    <hyperlink ref="J33" r:id="rId14"/>
-    <hyperlink ref="J35" r:id="rId15" display="1x 10Pcs Temperature: 160 degree"/>
-    <hyperlink ref="J36" r:id="rId16" display="Color: Dragon-Standard flow"/>
-    <hyperlink ref="J38" r:id="rId17"/>
-    <hyperlink ref="J39" r:id="rId18"/>
-    <hyperlink ref="J40" r:id="rId19"/>
-    <hyperlink ref="J41" r:id="rId20"/>
-    <hyperlink ref="J42" r:id="rId21"/>
-    <hyperlink ref="J43" r:id="rId22"/>
-    <hyperlink ref="J44" r:id="rId23"/>
-    <hyperlink ref="J48" r:id="rId24" display="Color: Buffer 14inch 35cm"/>
-    <hyperlink ref="J49" r:id="rId25"/>
-    <hyperlink ref="J50" r:id="rId26"/>
-    <hyperlink ref="J51" r:id="rId27"/>
-    <hyperlink ref="J52" r:id="rId28"/>
-    <hyperlink ref="J34" r:id="rId29"/>
-    <hyperlink ref="J32" r:id="rId30" display="Genuine Omron Solid State Relay"/>
-    <hyperlink ref="L31" r:id="rId31" display="1x 310mm 220V 750W"/>
-    <hyperlink ref="L8" r:id="rId32" display="Color: 339 mm"/>
-    <hyperlink ref="L9" r:id="rId33"/>
-    <hyperlink ref="L10" r:id="rId34"/>
-    <hyperlink ref="L11" r:id="rId35"/>
-    <hyperlink ref="L12" r:id="rId36"/>
-    <hyperlink ref="L13" r:id="rId37" display="Color: 10pcs 2028"/>
-    <hyperlink ref="L15" r:id="rId38" display="3x GL: 350 - Color: MGN12 H"/>
-    <hyperlink ref="L16" r:id="rId39" display="2x GL: 400 - Color: MGN12 H"/>
-    <hyperlink ref="L17" r:id="rId40" display="1x GL: 400 - Color: MGN9 H"/>
-    <hyperlink ref="L28" r:id="rId41" display="1x TMC2209 x8"/>
-    <hyperlink ref="L34" r:id="rId42" display="1x ADXL345 Accelerometer"/>
-    <hyperlink ref="J45" r:id="rId43"/>
-    <hyperlink ref="J46" r:id="rId44"/>
-    <hyperlink ref="J47" r:id="rId45" display="TBD"/>
-    <hyperlink ref="J37" r:id="rId46"/>
-    <hyperlink ref="L22" r:id="rId47"/>
-    <hyperlink ref="J18" r:id="rId48"/>
-    <hyperlink ref="J53" r:id="rId49"/>
-    <hyperlink ref="L14" r:id="rId50"/>
-    <hyperlink ref="J58" r:id="rId51"/>
-    <hyperlink ref="J55" r:id="rId52" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh"/>
-    <hyperlink ref="J56" r:id="rId53" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh"/>
-    <hyperlink ref="J57" r:id="rId54" display="https://www.aliexpress.com/item/1005003343253955.html?spm=a2g0o.store_pc_groupList.8148356.1.112c4ce6hJ1Kbj&amp;pdp_npi=2%40dis%21NZD%21NZ%24%202.99%21NZ%24%202.90%21%21%21%21%21%402100bde116564931019131701e26f5%2112000025319163573%21sh"/>
+    <hyperlink ref="J19" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J22" r:id="rId3" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J29" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J30" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J31" r:id="rId12" display="1x Select Color: 220V/110V" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L32" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J35" r:id="rId15" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J36" r:id="rId16" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J38" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J39" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J40" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J41" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J42" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J43" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J44" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J48" r:id="rId24" display="Color: Buffer 14inch 35cm" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J51" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J52" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J32" r:id="rId30" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L31" r:id="rId31" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L8" r:id="rId32" display="Color: 339 mm" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L9" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="L10" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="L11" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L12" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="L13" r:id="rId37" display="Color: 10pcs 2028" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="L15" r:id="rId38" display="3x GL: 350 - Color: MGN12 H" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L16" r:id="rId39" display="2x GL: 400 - Color: MGN12 H" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L17" r:id="rId40" display="1x GL: 400 - Color: MGN9 H" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L28" r:id="rId41" display="1x TMC2209 x8" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L34" r:id="rId42" display="1x ADXL345 Accelerometer" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J47" r:id="rId45" display="TBD" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J37" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L22" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J18" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J53" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L14" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J58" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J55" r:id="rId52" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J56" r:id="rId53" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J54" r:id="rId55" xr:uid="{AA63318B-CE23-4460-98F0-9BED57088735}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId55"/>
-  <drawing r:id="rId56"/>
-  <legacyDrawing r:id="rId57"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId56"/>
+  <drawing r:id="rId57"/>
+  <legacyDrawing r:id="rId58"/>
   <tableParts count="1">
-    <tablePart r:id="rId58"/>
+    <tablePart r:id="rId59"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4777,36 +4721,36 @@
       <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="34.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" style="4" customWidth="1"/>
-    <col min="11" max="20" width="8.6640625" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="14.44140625" style="4"/>
+    <col min="4" max="4" width="10.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="4" customWidth="1"/>
+    <col min="11" max="20" width="8.7109375" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="24.6">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:20" ht="27">
+      <c r="A1" s="109" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="5"/>
@@ -4830,14 +4774,14 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1">
       <c r="A5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:20" s="7" customFormat="1" ht="16.2" thickBot="1">
+    <row r="6" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A6" s="75" t="s">
         <v>235</v>
       </c>
@@ -5599,7 +5543,7 @@
       <c r="A30" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="109" t="s">
+      <c r="B30" s="108" t="s">
         <v>291</v>
       </c>
       <c r="C30" s="9">
@@ -6133,7 +6077,7 @@
       <c r="I47" s="20"/>
       <c r="J47" s="96"/>
     </row>
-    <row r="48" spans="1:20" s="7" customFormat="1" ht="16.2" thickBot="1">
+    <row r="48" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A48" s="52" t="s">
         <v>67</v>
       </c>
@@ -6167,47 +6111,47 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1"/>
-    <hyperlink ref="G10" r:id="rId2" display="1x Size: 20-m3 50pcs"/>
-    <hyperlink ref="G14" r:id="rId3"/>
-    <hyperlink ref="G16" r:id="rId4"/>
-    <hyperlink ref="G17" r:id="rId5"/>
-    <hyperlink ref="G19" r:id="rId6"/>
-    <hyperlink ref="G23" r:id="rId7"/>
-    <hyperlink ref="G25" r:id="rId8"/>
-    <hyperlink ref="G26" r:id="rId9"/>
-    <hyperlink ref="G27" r:id="rId10"/>
-    <hyperlink ref="G28" r:id="rId11"/>
-    <hyperlink ref="G29" r:id="rId12"/>
-    <hyperlink ref="G31" r:id="rId13"/>
-    <hyperlink ref="G32" r:id="rId14"/>
-    <hyperlink ref="G33" r:id="rId15"/>
-    <hyperlink ref="G34" r:id="rId16"/>
-    <hyperlink ref="G36" r:id="rId17"/>
-    <hyperlink ref="G37" r:id="rId18"/>
-    <hyperlink ref="G38" r:id="rId19"/>
-    <hyperlink ref="G40" r:id="rId20"/>
-    <hyperlink ref="G11" r:id="rId21"/>
-    <hyperlink ref="G35" r:id="rId22"/>
-    <hyperlink ref="G8" r:id="rId23" display="1x Bushings 5x8x2.5"/>
-    <hyperlink ref="G47" r:id="rId24" display="1x Length 15mm - Wire 0.7 - OD 7"/>
-    <hyperlink ref="G21" r:id="rId25"/>
-    <hyperlink ref="G22" r:id="rId26" display="1x Size: M3 - 30mm"/>
-    <hyperlink ref="G42" r:id="rId27"/>
-    <hyperlink ref="G12" r:id="rId28" display="M3 ss washer"/>
-    <hyperlink ref="G24" r:id="rId29"/>
-    <hyperlink ref="G44" r:id="rId30"/>
-    <hyperlink ref="G45" r:id="rId31"/>
-    <hyperlink ref="G13" r:id="rId32"/>
-    <hyperlink ref="G15" r:id="rId33"/>
-    <hyperlink ref="G18" r:id="rId34"/>
-    <hyperlink ref="G20" r:id="rId35"/>
-    <hyperlink ref="G39" r:id="rId36"/>
-    <hyperlink ref="G41" r:id="rId37"/>
-    <hyperlink ref="G43" r:id="rId38"/>
-    <hyperlink ref="G46" r:id="rId39"/>
-    <hyperlink ref="H46" r:id="rId40" display="https://www.aliexpress.com/store/912301249"/>
-    <hyperlink ref="G30" r:id="rId41"/>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G10" r:id="rId2" display="1x Size: 20-m3 50pcs" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="G14" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="G16" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="G17" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="G19" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="G23" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="G25" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="G26" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="G27" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="G28" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="G29" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="G31" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="G32" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="G33" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="G34" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="G36" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="G37" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="G38" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="G40" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="G11" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="G35" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="G8" r:id="rId23" display="1x Bushings 5x8x2.5" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="G47" r:id="rId24" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="G21" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="G22" r:id="rId26" display="1x Size: M3 - 30mm" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="G42" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="G12" r:id="rId28" display="M3 ss washer" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="G24" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="G44" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="G45" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="G13" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="G15" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="G18" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="G20" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="G39" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="G41" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="G43" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="G46" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="H46" r:id="rId40" display="https://www.aliexpress.com/store/912301249" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="G30" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId42"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F2767F2-A612-4353-B5CA-71065D909FAE}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3E411D6-3D63-4D2E-AC0A-13EDE3A5C1B3}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Fastener List" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fastener List'!$A$7:$J$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$7:$K$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fastener List'!$A$7:$J$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$7:$K$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="L27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J43" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J42" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="303">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -1079,9 +1079,6 @@
     <t>BGS</t>
   </si>
   <si>
-    <t>Project Valkyrie - Stage-I</t>
-  </si>
-  <si>
     <t>Thermistor</t>
   </si>
   <si>
@@ -1263,6 +1260,9 @@
   </si>
   <si>
     <t>ESP32 WiFi Board</t>
+  </si>
+  <si>
+    <t>Project Valkyrie - Stage-I-BOM</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1679,23 +1679,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1872,10 +1861,6 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2386,8 +2371,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A7:L59" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
-  <autoFilter ref="A7:L59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A7:L56" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+  <autoFilter ref="A7:L56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="24"/>
@@ -2407,10 +2392,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A7:J47" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A7:J47" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:J48">
-    <sortCondition ref="B8:B48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A7:J50" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A7:J50" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:J51">
+    <sortCondition ref="B8:B51"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part Type" dataDxfId="9"/>
@@ -2629,7 +2614,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
@@ -2638,8 +2623,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -2653,20 +2638,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27">
-      <c r="A1" s="109" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="A1" s="107" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -2716,7 +2701,7 @@
       <c r="G6" s="77"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79">
-        <f>I60</f>
+        <f>I57</f>
         <v>1990.46</v>
       </c>
       <c r="J6" s="77"/>
@@ -2824,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="64">
-        <f t="shared" ref="I9:I27" si="0">H9*G9</f>
+        <f t="shared" ref="I9:I26" si="0">H9*G9</f>
         <v>9.5</v>
       </c>
       <c r="J9" s="42"/>
@@ -2992,7 +2977,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="12">
@@ -3013,7 +2998,7 @@
         <v>24</v>
       </c>
       <c r="L14" s="102" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="73" customFormat="1">
@@ -3192,7 +3177,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>38</v>
@@ -3210,7 +3195,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E20" s="9">
         <v>230</v>
@@ -3229,7 +3214,7 @@
         <v>35</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K20" s="74" t="s">
         <v>38</v>
@@ -3302,13 +3287,13 @@
         <v>46</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>45</v>
       </c>
       <c r="L22" s="49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="73" customFormat="1">
@@ -3453,38 +3438,40 @@
     </row>
     <row r="27" spans="1:12" s="73" customFormat="1">
       <c r="A27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>64</v>
+        <v>111</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>254</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="9">
-        <v>6</v>
+      <c r="F27" s="19">
+        <v>1</v>
       </c>
       <c r="G27" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="H27" s="12">
+        <v>145</v>
+      </c>
+      <c r="H27" s="19">
         <v>1</v>
       </c>
       <c r="I27" s="64">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>65</v>
+        <f t="shared" ref="I27:I49" si="2">H27*G27</f>
+        <v>145</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>253</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="L27" s="49" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="28" spans="1:12" s="73" customFormat="1">
       <c r="A28" s="8" t="s">
@@ -3494,34 +3481,32 @@
         <v>112</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>255</v>
+        <v>115</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="19">
         <v>1</v>
       </c>
       <c r="G28" s="13">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="H28" s="19">
         <v>1</v>
       </c>
       <c r="I28" s="64">
-        <f t="shared" ref="I28:I51" si="2">H28*G28</f>
-        <v>145</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>254</v>
+        <v>117</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L28" s="49" t="s">
-        <v>227</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" spans="1:12" s="73" customFormat="1">
       <c r="A29" s="8" t="s">
@@ -3531,30 +3516,30 @@
         <v>112</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="19">
         <v>1</v>
       </c>
       <c r="G29" s="13">
-        <v>23</v>
+        <v>7.5</v>
       </c>
       <c r="H29" s="19">
         <v>1</v>
       </c>
       <c r="I29" s="64">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>7.5</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L29" s="24"/>
     </row>
@@ -3566,32 +3551,36 @@
         <v>112</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" s="9">
+        <v>300</v>
+      </c>
       <c r="F30" s="19">
         <v>1</v>
       </c>
       <c r="G30" s="13">
-        <v>7.5</v>
+        <v>78.39</v>
       </c>
       <c r="H30" s="19">
         <v>1</v>
       </c>
       <c r="I30" s="64">
         <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>121</v>
+        <v>78.39</v>
+      </c>
+      <c r="J30" s="92" t="s">
+        <v>255</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L30" s="24"/>
+        <v>221</v>
+      </c>
+      <c r="L30" s="49" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="31" spans="1:12" s="73" customFormat="1">
       <c r="A31" s="8" t="s">
@@ -3601,73 +3590,69 @@
         <v>112</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="E31" s="9">
-        <v>300</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="9"/>
       <c r="F31" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="13">
-        <v>78.39</v>
+        <v>26</v>
       </c>
       <c r="H31" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="64">
         <f t="shared" si="2"/>
-        <v>78.39</v>
-      </c>
-      <c r="J31" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="93" t="s">
         <v>256</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="L31" s="49" t="s">
-        <v>220</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="73" customFormat="1">
       <c r="A32" s="8" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" s="13">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H32" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="64">
         <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="J32" s="93" t="s">
-        <v>257</v>
+        <v>15</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L32" s="49" t="s">
-        <v>125</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="L32" s="24"/>
     </row>
     <row r="33" spans="1:12" s="73" customFormat="1">
       <c r="A33" s="8" t="s">
@@ -3677,102 +3662,102 @@
         <v>112</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="19">
         <v>1</v>
       </c>
       <c r="G33" s="13">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H33" s="19">
         <v>1</v>
       </c>
       <c r="I33" s="64">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L33" s="24"/>
+        <v>2</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="K33" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="L33" s="49" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="34" spans="1:12" s="73" customFormat="1">
       <c r="A34" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>205</v>
+        <v>130</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>249</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="19">
         <v>1</v>
       </c>
       <c r="G34" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" s="19">
         <v>1</v>
       </c>
       <c r="I34" s="64">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="K34" s="74" t="s">
-        <v>258</v>
-      </c>
-      <c r="L34" s="49" t="s">
-        <v>226</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L34" s="24"/>
     </row>
     <row r="35" spans="1:12" s="73" customFormat="1">
       <c r="A35" s="8" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="19">
         <v>1</v>
       </c>
       <c r="G35" s="13">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H35" s="19">
         <v>1</v>
       </c>
       <c r="I35" s="64">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>131</v>
+        <v>40</v>
+      </c>
+      <c r="J35" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" s="74" t="s">
+        <v>143</v>
       </c>
       <c r="L35" s="24"/>
     </row>
@@ -3784,30 +3769,30 @@
         <v>132</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>259</v>
+        <v>241</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="19">
         <v>1</v>
       </c>
       <c r="G36" s="13">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="H36" s="19">
         <v>1</v>
       </c>
       <c r="I36" s="64">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="J36" s="93" t="s">
-        <v>260</v>
+        <v>13.5</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="K36" s="74" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="L36" s="24"/>
     </row>
@@ -3819,65 +3804,65 @@
         <v>132</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>243</v>
+        <v>132</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>260</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="19">
         <v>1</v>
       </c>
       <c r="G37" s="13">
-        <v>13.5</v>
+        <v>80</v>
       </c>
       <c r="H37" s="19">
         <v>1</v>
       </c>
       <c r="I37" s="64">
         <f t="shared" si="2"/>
-        <v>13.5</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="K37" s="74" t="s">
-        <v>122</v>
+        <v>80</v>
+      </c>
+      <c r="J37" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="L37" s="24"/>
     </row>
     <row r="38" spans="1:12" s="73" customFormat="1">
       <c r="A38" s="8" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>261</v>
+        <v>137</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="19">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G38" s="13">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H38" s="19">
         <v>1</v>
       </c>
       <c r="I38" s="64">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="J38" s="91" t="s">
-        <v>134</v>
+        <v>59</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="L38" s="24"/>
     </row>
@@ -3889,30 +3874,30 @@
         <v>136</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="13">
-        <v>59</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H39" s="19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I39" s="64">
         <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>139</v>
+        <v>41</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="L39" s="24"/>
     </row>
@@ -3927,24 +3912,24 @@
         <v>140</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G40" s="13">
-        <v>4.0999999999999996</v>
+        <v>6</v>
       </c>
       <c r="H40" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I40" s="64">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K40" s="15" t="s">
         <v>143</v>
@@ -3959,27 +3944,27 @@
         <v>136</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="19">
         <v>5</v>
       </c>
       <c r="G41" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H41" s="19">
         <v>5</v>
       </c>
       <c r="I41" s="64">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K41" s="15" t="s">
         <v>143</v>
@@ -3994,30 +3979,32 @@
         <v>136</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E42" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="E42" s="9">
+        <v>200</v>
+      </c>
       <c r="F42" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G42" s="13">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H42" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I42" s="64">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>148</v>
+        <v>48</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="L42" s="24"/>
     </row>
@@ -4029,96 +4016,94 @@
         <v>136</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="9">
-        <v>200</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G43" s="13">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="H43" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I43" s="64">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>151</v>
+        <v>72.5</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="L43" s="24"/>
+        <v>156</v>
+      </c>
+      <c r="L43" s="25"/>
     </row>
     <row r="44" spans="1:12" s="73" customFormat="1">
       <c r="A44" s="8" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="19">
         <v>5</v>
       </c>
       <c r="G44" s="13">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="H44" s="19">
         <v>5</v>
       </c>
       <c r="I44" s="64">
         <f t="shared" si="2"/>
-        <v>72.5</v>
+        <v>60</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L44" s="25"/>
     </row>
-    <row r="45" spans="1:12" s="73" customFormat="1">
+    <row r="45" spans="1:12" s="73" customFormat="1" ht="14.45" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>216</v>
+        <v>166</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>199</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="19">
         <v>5</v>
       </c>
       <c r="G45" s="13">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H45" s="19">
         <v>5</v>
       </c>
       <c r="I45" s="64">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="J45" s="17" t="s">
         <v>161</v>
@@ -4128,35 +4113,37 @@
       </c>
       <c r="L45" s="25"/>
     </row>
-    <row r="46" spans="1:12" s="73" customFormat="1" ht="14.45" customHeight="1">
+    <row r="46" spans="1:12" s="73" customFormat="1">
       <c r="A46" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>166</v>
+      <c r="C46" s="22" t="s">
+        <v>228</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="E46" s="9"/>
+        <v>229</v>
+      </c>
+      <c r="E46" s="9">
+        <v>300</v>
+      </c>
       <c r="F46" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G46" s="13">
         <v>25</v>
       </c>
       <c r="H46" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I46" s="64">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="K46" s="15" t="s">
         <v>161</v>
@@ -4165,38 +4152,36 @@
     </row>
     <row r="47" spans="1:12" s="73" customFormat="1">
       <c r="A47" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="E47" s="9">
-        <v>300</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" s="9"/>
       <c r="F47" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="13">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H47" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="64">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="L47" s="25"/>
     </row>
@@ -4205,35 +4190,33 @@
         <v>167</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" s="9">
-        <v>400</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="E48" s="9"/>
       <c r="F48" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="13">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H48" s="19">
         <v>1</v>
       </c>
       <c r="I48" s="64">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="L48" s="25"/>
     </row>
@@ -4245,30 +4228,30 @@
         <v>112</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="19">
         <v>1</v>
       </c>
       <c r="G49" s="13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H49" s="19">
         <v>1</v>
       </c>
       <c r="I49" s="64">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="L49" s="25"/>
     </row>
@@ -4280,137 +4263,136 @@
         <v>112</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="19">
         <v>1</v>
       </c>
       <c r="G50" s="13">
-        <v>12</v>
+        <f>(3+0.96)</f>
+        <v>3.96</v>
       </c>
       <c r="H50" s="19">
         <v>1</v>
       </c>
       <c r="I50" s="64">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>192</v>
+        <f t="shared" ref="I50" si="3">H50*G50</f>
+        <v>3.96</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="1:12" s="73" customFormat="1">
+    <row r="51" spans="1:12" s="104" customFormat="1" ht="14.45" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="19">
         <v>1</v>
       </c>
       <c r="G51" s="13">
-        <v>12</v>
+        <v>3.72</v>
       </c>
       <c r="H51" s="19">
         <v>1</v>
       </c>
       <c r="I51" s="64">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="J51" s="17" t="s">
-        <v>195</v>
+        <f>H51*G51</f>
+        <v>3.72</v>
+      </c>
+      <c r="J51" s="91" t="s">
+        <v>293</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="L51" s="25"/>
     </row>
-    <row r="52" spans="1:12" s="73" customFormat="1">
+    <row r="52" spans="1:12" s="104" customFormat="1" ht="14.45" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="19">
         <v>1</v>
       </c>
       <c r="G52" s="13">
-        <f>(3+0.96)</f>
-        <v>3.96</v>
+        <v>4</v>
       </c>
       <c r="H52" s="19">
         <v>1</v>
       </c>
       <c r="I52" s="64">
-        <f t="shared" ref="I52" si="3">H52*G52</f>
-        <v>3.96</v>
+        <f>H52*G52</f>
+        <v>4</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="L52" s="25"/>
     </row>
-    <row r="53" spans="1:12" s="73" customFormat="1">
+    <row r="53" spans="1:12" s="104" customFormat="1" ht="14.45" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>21</v>
+        <v>291</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>171</v>
+        <v>296</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="19">
+        <v>1</v>
+      </c>
+      <c r="G53" s="13">
         <v>3</v>
-      </c>
-      <c r="G53" s="13">
-        <f>5.01</f>
-        <v>5.01</v>
       </c>
       <c r="H53" s="19">
         <v>1</v>
       </c>
       <c r="I53" s="64">
         <f>H53*G53</f>
-        <v>5.01</v>
+        <v>3</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>172</v>
+        <v>297</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>173</v>
+        <v>294</v>
       </c>
       <c r="L53" s="25"/>
     </row>
@@ -4419,10 +4401,10 @@
         <v>167</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>300</v>
@@ -4432,210 +4414,105 @@
         <v>1</v>
       </c>
       <c r="G54" s="13">
-        <v>3.72</v>
+        <v>3</v>
       </c>
       <c r="H54" s="19">
         <v>1</v>
       </c>
       <c r="I54" s="64">
         <f>H54*G54</f>
-        <v>3.72</v>
+        <v>3</v>
       </c>
       <c r="J54" s="91" t="s">
+        <v>298</v>
+      </c>
+      <c r="K54" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="K54" s="15" t="s">
-        <v>295</v>
-      </c>
       <c r="L54" s="25"/>
     </row>
-    <row r="55" spans="1:12" s="104" customFormat="1" ht="14.45" customHeight="1">
+    <row r="55" spans="1:12" s="73" customFormat="1" ht="14.45" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>302</v>
+        <v>211</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="19">
         <v>1</v>
       </c>
       <c r="G55" s="13">
+        <v>21.5</v>
+      </c>
+      <c r="H55" s="19">
+        <v>1</v>
+      </c>
+      <c r="I55" s="64">
+        <f>G55*H55</f>
+        <v>21.5</v>
+      </c>
+      <c r="J55" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="L55" s="26"/>
+    </row>
+    <row r="56" spans="1:12" s="73" customFormat="1">
+      <c r="A56" s="82"/>
+      <c r="B56" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="D56" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="E56" s="85"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="86">
+        <v>1</v>
+      </c>
+      <c r="I56" s="103">
+        <f>'Fastener List'!F51</f>
+        <v>235.18999999999997</v>
+      </c>
+      <c r="J56" s="88"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="90"/>
+    </row>
+    <row r="57" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A57" s="52"/>
+      <c r="B57" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H55" s="19">
-        <v>1</v>
-      </c>
-      <c r="I55" s="64">
-        <f>H55*G55</f>
-        <v>4</v>
-      </c>
-      <c r="J55" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="K55" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L55" s="25"/>
-    </row>
-    <row r="56" spans="1:12" s="104" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="19">
-        <v>1</v>
-      </c>
-      <c r="G56" s="13">
-        <v>3</v>
-      </c>
-      <c r="H56" s="19">
-        <v>1</v>
-      </c>
-      <c r="I56" s="64">
-        <f>H56*G56</f>
-        <v>3</v>
-      </c>
-      <c r="J56" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L56" s="25"/>
-    </row>
-    <row r="57" spans="1:12" s="104" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A57" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="19">
-        <v>1</v>
-      </c>
-      <c r="G57" s="13">
-        <v>3</v>
-      </c>
-      <c r="H57" s="19">
-        <v>1</v>
-      </c>
-      <c r="I57" s="64">
-        <f>H57*G57</f>
-        <v>3</v>
-      </c>
-      <c r="J57" s="91" t="s">
-        <v>299</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L57" s="25"/>
-    </row>
-    <row r="58" spans="1:12" s="73" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A58" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="19">
-        <v>1</v>
-      </c>
-      <c r="G58" s="13">
-        <v>21.5</v>
-      </c>
-      <c r="H58" s="19">
-        <v>1</v>
-      </c>
-      <c r="I58" s="64">
-        <f>G58*H58</f>
-        <v>21.5</v>
-      </c>
-      <c r="J58" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="K58" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="L58" s="26"/>
-    </row>
-    <row r="59" spans="1:12" s="73" customFormat="1">
-      <c r="A59" s="82"/>
-      <c r="B59" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="84" t="s">
-        <v>253</v>
-      </c>
-      <c r="D59" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="E59" s="85"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="86">
-        <v>1</v>
-      </c>
-      <c r="I59" s="103">
-        <f>'Fastener List'!F48</f>
-        <v>198.67999999999998</v>
-      </c>
-      <c r="J59" s="88"/>
-      <c r="K59" s="89"/>
-      <c r="L59" s="90"/>
-    </row>
-    <row r="60" spans="1:12" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A60" s="52"/>
-      <c r="B60" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="52" t="s">
+      <c r="C57" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="D60" s="54" t="s">
+      <c r="D57" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="59">
-        <f>SUM(I19:I59)+I18</f>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="59">
+        <f>SUM(I19:I56)+I18</f>
         <v>1990.46</v>
       </c>
-      <c r="J60" s="54"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="70"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4650,61 +4527,58 @@
     <hyperlink ref="J24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="J25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="J26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J29" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J30" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J31" r:id="rId12" display="1x Select Color: 220V/110V" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L32" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J35" r:id="rId15" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J36" r:id="rId16" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J38" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J39" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J40" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J41" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J42" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J43" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J44" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J48" r:id="rId24" display="Color: Buffer 14inch 35cm" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J51" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J52" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J32" r:id="rId30" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L31" r:id="rId31" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L8" r:id="rId32" display="Color: 339 mm" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="L9" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="L10" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="L11" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="L12" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="L13" r:id="rId37" display="Color: 10pcs 2028" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="L15" r:id="rId38" display="3x GL: 350 - Color: MGN12 H" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="L16" r:id="rId39" display="2x GL: 400 - Color: MGN12 H" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="L17" r:id="rId40" display="1x GL: 400 - Color: MGN9 H" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="L28" r:id="rId41" display="1x TMC2209 x8" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="L34" r:id="rId42" display="1x ADXL345 Accelerometer" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J47" r:id="rId45" display="TBD" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J37" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L22" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J18" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J53" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="L14" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J58" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J55" r:id="rId52" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J56" r:id="rId53" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J54" r:id="rId55" xr:uid="{AA63318B-CE23-4460-98F0-9BED57088735}"/>
+    <hyperlink ref="J27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J29" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J30" r:id="rId11" display="1x Select Color: 220V/110V" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L31" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J32" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J34" r:id="rId14" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J35" r:id="rId15" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J37" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J38" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J39" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J40" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J41" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J42" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J43" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J47" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J48" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J33" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J31" r:id="rId28" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L30" r:id="rId29" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L8" r:id="rId30" display="Color: 339 mm" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L9" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="L10" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="L11" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L12" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="L13" r:id="rId35" display="Color: 10pcs 2028" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="L15" r:id="rId36" display="3x GL: 350 - Color: MGN12 H" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L16" r:id="rId37" display="2x GL: 400 - Color: MGN12 H" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L17" r:id="rId38" display="1x GL: 400 - Color: MGN9 H" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L27" r:id="rId39" display="1x TMC2209 x8" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L33" r:id="rId40" display="1x ADXL345 Accelerometer" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J46" r:id="rId43" display="TBD" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J36" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L22" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J18" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="L14" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J55" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J52" r:id="rId49" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J53" r:id="rId50" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J51" r:id="rId52" xr:uid="{AA63318B-CE23-4460-98F0-9BED57088735}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId56"/>
-  <drawing r:id="rId57"/>
-  <legacyDrawing r:id="rId58"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId53"/>
+  <drawing r:id="rId54"/>
+  <legacyDrawing r:id="rId55"/>
   <tableParts count="1">
-    <tablePart r:id="rId59"/>
+    <tablePart r:id="rId56"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4714,11 +4588,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -4738,19 +4612,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27">
-      <c r="A1" s="109" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
+      <c r="A1" s="107" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="5"/>
@@ -4792,8 +4666,8 @@
       <c r="D6" s="77"/>
       <c r="E6" s="78"/>
       <c r="F6" s="79">
-        <f>F48</f>
-        <v>198.67999999999998</v>
+        <f>F51</f>
+        <v>235.18999999999997</v>
       </c>
       <c r="G6" s="77"/>
       <c r="H6" s="80"/>
@@ -4874,7 +4748,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="G8" s="92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>184</v>
@@ -4949,7 +4823,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C11" s="19">
         <v>6</v>
@@ -5009,10 +4883,10 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C13" s="67">
         <v>8</v>
@@ -5027,7 +4901,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>50</v>
@@ -5073,7 +4947,7 @@
         <v>72</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C15" s="9">
         <v>11</v>
@@ -5088,7 +4962,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G15" s="91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H15" s="74" t="s">
         <v>50</v>
@@ -5167,7 +5041,7 @@
         <v>72</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" s="9">
         <v>29</v>
@@ -5182,7 +5056,7 @@
         <v>1.07</v>
       </c>
       <c r="G18" s="91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H18" s="74" t="s">
         <v>50</v>
@@ -5230,7 +5104,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C20" s="9">
         <v>4</v>
@@ -5246,7 +5120,7 @@
         <v>1.5</v>
       </c>
       <c r="G20" s="91" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>50</v>
@@ -5350,7 +5224,7 @@
         <v>72</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="9">
         <v>1</v>
@@ -5412,7 +5286,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C26" s="9">
         <v>9</v>
@@ -5543,8 +5417,8 @@
       <c r="A30" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="108" t="s">
-        <v>291</v>
+      <c r="B30" s="106" t="s">
+        <v>290</v>
       </c>
       <c r="C30" s="9">
         <v>4</v>
@@ -5553,7 +5427,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="64"/>
       <c r="G30" s="91" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>50</v>
@@ -5625,7 +5499,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="97"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:10">
       <c r="A33" s="63" t="s">
         <v>68</v>
       </c>
@@ -5658,7 +5532,7 @@
         <v>10511</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:10">
       <c r="A34" s="63" t="s">
         <v>68</v>
       </c>
@@ -5687,7 +5561,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="97"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:10">
       <c r="A35" s="8" t="s">
         <v>175</v>
       </c>
@@ -5717,7 +5591,7 @@
       <c r="I35" s="20"/>
       <c r="J35" s="96"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:10">
       <c r="A36" s="63" t="s">
         <v>86</v>
       </c>
@@ -5750,7 +5624,7 @@
         <v>7089</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:10">
       <c r="A37" s="63" t="s">
         <v>72</v>
       </c>
@@ -5781,7 +5655,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:10">
       <c r="A38" s="63" t="s">
         <v>72</v>
       </c>
@@ -5812,12 +5686,12 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:10">
       <c r="A39" s="71" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="105" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C39" s="9">
         <v>4</v>
@@ -5832,7 +5706,7 @@
         <v>1.64</v>
       </c>
       <c r="G39" s="91" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>82</v>
@@ -5842,7 +5716,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:10">
       <c r="A40" s="63" t="s">
         <v>106</v>
       </c>
@@ -5873,12 +5747,12 @@
       </c>
       <c r="J40" s="97"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:10">
       <c r="A41" s="71" t="s">
         <v>106</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C41" s="9">
         <v>15</v>
@@ -5894,7 +5768,7 @@
         <v>6.08</v>
       </c>
       <c r="G41" s="91" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H41" s="15" t="s">
         <v>50</v>
@@ -5904,7 +5778,7 @@
       </c>
       <c r="J41" s="97"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:10">
       <c r="A42" s="22" t="s">
         <v>109</v>
       </c>
@@ -5933,12 +5807,12 @@
       <c r="I42" s="20"/>
       <c r="J42" s="96"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:10">
       <c r="A43" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C43" s="19">
         <v>1</v>
@@ -5953,28 +5827,28 @@
         <v>9.5</v>
       </c>
       <c r="G43" s="93" t="s">
+        <v>278</v>
+      </c>
+      <c r="H43" s="74" t="s">
         <v>279</v>
-      </c>
-      <c r="H43" s="74" t="s">
-        <v>280</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="96"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:10">
       <c r="A44" s="63" t="s">
         <v>59</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="9">
         <v>3</v>
       </c>
       <c r="D44" s="13">
         <v>2.5</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="21">
         <v>2</v>
       </c>
       <c r="F44" s="64">
@@ -5987,44 +5861,44 @@
       <c r="H44" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="96"/>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="8" t="s">
+      <c r="I44" s="16"/>
+      <c r="J44" s="97"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="9">
         <v>3</v>
       </c>
       <c r="D45" s="13">
         <v>4.5</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="21">
         <v>1</v>
       </c>
       <c r="F45" s="64">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="91" t="s">
         <v>203</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="96"/>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="I45" s="16"/>
+      <c r="J45" s="97"/>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>284</v>
+      <c r="B46" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="C46" s="19">
         <v>6</v>
@@ -6032,79 +5906,167 @@
       <c r="D46" s="13">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E46" s="106" t="s">
-        <v>282</v>
+      <c r="E46" s="19" t="s">
+        <v>281</v>
       </c>
       <c r="F46" s="64">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G46" s="91" t="s">
-        <v>281</v>
-      </c>
-      <c r="H46" s="107" t="s">
-        <v>283</v>
+      <c r="G46" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="96"/>
     </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:10">
+      <c r="A47" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="19">
+        <v>6</v>
+      </c>
+      <c r="D47" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="E47" s="19">
+        <v>1</v>
+      </c>
+      <c r="F47" s="64">
+        <f t="shared" ref="F47" si="3">E47*D47</f>
+        <v>7.5</v>
+      </c>
+      <c r="G47" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="96"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="9">
+        <v>2</v>
+      </c>
+      <c r="D48" s="13">
+        <v>24</v>
+      </c>
+      <c r="E48" s="21">
+        <v>1</v>
+      </c>
+      <c r="F48" s="64">
+        <f t="shared" ref="F48" si="4">E48*D48</f>
+        <v>24</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="I48" s="16"/>
+      <c r="J48" s="97"/>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="9">
+        <v>3</v>
+      </c>
+      <c r="D49" s="13">
+        <f>5.01</f>
+        <v>5.01</v>
+      </c>
+      <c r="E49" s="21">
+        <v>1</v>
+      </c>
+      <c r="F49" s="64">
+        <f>E49*D49</f>
+        <v>5.01</v>
+      </c>
+      <c r="G49" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I49" s="16"/>
+      <c r="J49" s="97"/>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B50" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="19">
-        <v>1</v>
-      </c>
-      <c r="D47" s="13">
+      <c r="C50" s="19">
+        <v>1</v>
+      </c>
+      <c r="D50" s="13">
         <f>1.72</f>
         <v>1.72</v>
       </c>
-      <c r="E47" s="19">
-        <v>1</v>
-      </c>
-      <c r="F47" s="64">
-        <f>E47*D47</f>
+      <c r="E50" s="19">
+        <v>1</v>
+      </c>
+      <c r="F50" s="64">
+        <f>E50*D50</f>
         <v>1.72</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G50" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H50" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="96"/>
-    </row>
-    <row r="48" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A48" s="52" t="s">
+      <c r="I50" s="20"/>
+      <c r="J50" s="96"/>
+    </row>
+    <row r="51" spans="1:20" s="7" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A51" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B51" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="59">
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="59">
         <f>SUBTOTAL(109,Table13[Line Price $])</f>
-        <v>198.67999999999998</v>
-      </c>
-      <c r="G48" s="54"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
+        <v>235.18999999999997</v>
+      </c>
+      <c r="G51" s="54"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6134,7 +6096,7 @@
     <hyperlink ref="G11" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
     <hyperlink ref="G35" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
     <hyperlink ref="G8" r:id="rId23" display="1x Bushings 5x8x2.5" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="G47" r:id="rId24" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="G50" r:id="rId24" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
     <hyperlink ref="G21" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
     <hyperlink ref="G22" r:id="rId26" display="1x Size: M3 - 30mm" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
     <hyperlink ref="G42" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
@@ -6152,13 +6114,16 @@
     <hyperlink ref="G46" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
     <hyperlink ref="H46" r:id="rId40" display="https://www.aliexpress.com/store/912301249" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
     <hyperlink ref="G30" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="G47" r:id="rId42" xr:uid="{2D20C191-2C76-4E00-9BC9-A6157242D739}"/>
+    <hyperlink ref="G48" r:id="rId43" display="Color: Buffer 14inch 35cm" xr:uid="{F2847965-49D7-4D00-AD1F-BEC4457D3EC4}"/>
+    <hyperlink ref="G49" r:id="rId44" xr:uid="{D3CD710D-DAE0-4D54-96D8-FDD895E4D65D}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId42"/>
-  <drawing r:id="rId43"/>
-  <legacyDrawing r:id="rId44"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId45"/>
+  <drawing r:id="rId46"/>
+  <legacyDrawing r:id="rId47"/>
   <tableParts count="1">
-    <tablePart r:id="rId45"/>
+    <tablePart r:id="rId48"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM V 0.9.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3E411D6-3D63-4D2E-AC0A-13EDE3A5C1B3}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{857F25EF-0428-465B-976A-389209566E78}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="305">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -1263,6 +1263,12 @@
   </si>
   <si>
     <t>Project Valkyrie - Stage-I-BOM</t>
+  </si>
+  <si>
+    <t>Source Locally</t>
+  </si>
+  <si>
+    <t>BEAO</t>
   </si>
 </sst>
 </file>
@@ -1426,18 +1432,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1859,11 +1859,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2638,20 +2640,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="106" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -2760,7 +2762,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="29">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F8" s="30">
         <v>1</v>
@@ -4076,7 +4078,9 @@
       <c r="K44" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="L44" s="25"/>
+      <c r="L44" s="107" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="45" spans="1:12" s="73" customFormat="1" ht="14.45" customHeight="1">
       <c r="A45" s="8" t="s">
@@ -4111,7 +4115,9 @@
       <c r="K45" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="L45" s="25"/>
+      <c r="L45" s="107" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="46" spans="1:12" s="73" customFormat="1">
       <c r="A46" s="8" t="s">
@@ -4146,7 +4152,7 @@
         <v>230</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>161</v>
+        <v>304</v>
       </c>
       <c r="L46" s="25"/>
     </row>
@@ -4291,7 +4297,7 @@
       </c>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="1:12" s="104" customFormat="1" ht="14.45" customHeight="1">
+    <row r="51" spans="1:12" s="73" customFormat="1" ht="14.45" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>167</v>
       </c>
@@ -4326,7 +4332,7 @@
       </c>
       <c r="L51" s="25"/>
     </row>
-    <row r="52" spans="1:12" s="104" customFormat="1" ht="14.45" customHeight="1">
+    <row r="52" spans="1:12" s="73" customFormat="1" ht="14.45" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>167</v>
       </c>
@@ -4361,7 +4367,7 @@
       </c>
       <c r="L52" s="25"/>
     </row>
-    <row r="53" spans="1:12" s="104" customFormat="1" ht="14.45" customHeight="1">
+    <row r="53" spans="1:12" s="73" customFormat="1" ht="14.45" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>167</v>
       </c>
@@ -4396,7 +4402,7 @@
       </c>
       <c r="L53" s="25"/>
     </row>
-    <row r="54" spans="1:12" s="104" customFormat="1" ht="14.45" customHeight="1">
+    <row r="54" spans="1:12" s="73" customFormat="1" ht="14.45" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>167</v>
       </c>
@@ -4612,19 +4618,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="106" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="5"/>
@@ -5417,7 +5423,7 @@
       <c r="A30" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="106" t="s">
+      <c r="B30" s="105" t="s">
         <v>290</v>
       </c>
       <c r="C30" s="9">
@@ -5690,7 +5696,7 @@
       <c r="A39" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="104" t="s">
         <v>267</v>
       </c>
       <c r="C39" s="9">
